--- a/src/main/webapp/document/houses.xlsx
+++ b/src/main/webapp/document/houses.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
   <si>
     <t>STT</t>
   </si>
@@ -50,46 +50,165 @@
     <t>Mô tả</t>
   </si>
   <si>
-    <t>CG11</t>
-  </si>
-  <si>
-    <t>HOMESTAY ĐÀ LẠT CG11</t>
+    <t xml:space="preserve"> SC85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VILLA ĐÀ LẠT SC85- Ra Mắt Em Villa Full Kính Ngắm Trọn View Nhà Lồng Siêu Đẹp Lãng Mạng </t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
+    <t>đường Xô Viết Nghệ Tĩnh. (UBND phường 7 đi vô)</t>
+  </si>
+  <si>
+    <t>VILLA TẦM TRUNG</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- Giới Thiệu Villa SC85 Ra mắt em villa xịn sò với lối thiết kế hiện đại, tiện nghi, view nhà lồng hứa hẹn kỳ nghỉ đáng nhớ tại Đà Lạt&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- Cơ Cấu&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Gồm 8 phòng ngủ đơn&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Tầng trệt và tầng lầu: 4 phòng đơn, 5wc&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Tầng bán hầm: 2 căn hộ. Mỗi căn hộ 2 phòng đơn, 1wc. Tiện ích:&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Phòng được set up sẵn khăn, bàn chải, dầu gội, sữa tắm, máy sấy..&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Phòng khách ấm cúng để gia đình ngồi quây quần trò chuyện với nhau Không gian bếp rộng rãi đầy đủ tiện ích : bếp, tủ lạnh, nồi niêu, lò vi sóng..để bạn thỏa sức nấu những món ăn ngon cho người thân yêu.&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;• Sân&amp;nbsp;đậu xe thoải mái • Sân BBQ ngoài trời rộng&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>BT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biệt Thự Đà Lạt BT1 - nằm trong khu biệt thự yên tĩnh, view đồi núi , khuôn viên </t>
+  </si>
+  <si>
     <t>7</t>
   </si>
   <si>
-    <t>Shachihouse</t>
+    <t>📍Địa chỉ: KQH An Sơn P4
+❌ Xe 29 chỗ xuống được villa (nhưng có dốc nhẹ,đậu cách 20m). Xe 16,7,4 chỗ đậu trước nhà.</t>
+  </si>
+  <si>
+    <t>BIỆT THỰ SANG TRỌNG</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Giới thiệu Biệt Thự Đà Lạt BT1&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- nằm trong khu biệt thự yên tĩnh, view đồi núi , khuôn viên rộng rãi cực kỳ rộng thích hợp nghỉ dưỡng Cơ Cấu&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;✴️ Thiết kế gồm 7 Phòng Ngủ&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;+ 5 Phòng - 1 giường 1m6&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;+ 1 Phòng- 1 giường 1m6&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;+ 1 nệm 1m4 + 1 Phòng - 2 giường 1m6.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Tổng cộng 7wc&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Tiện ích:&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Phòng khách, bếp đầy đủ tiện nghi, khoảng sân rộng tươi mát,hồ cá Koi tạo cảm thư giãn cho du khách và tổ chức tiệc BBQ thoải mái. 🔅Cách chợ Đà Lạt 5km - nằm trong khu biệt thự yên tĩnh, view đồi núi , khuôn viên rộng rãi cực kỳ rộng thích hợp nghỉ dưỡng.&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>CG8</t>
+  </si>
+  <si>
+    <t>Homestay Đà Lạt CG8 - Có Sẵn Máy Chiếu Phim View Đẹp</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Khu Quy Hoạch An Sơn đường An Sơn phường 4 Đà Lạt</t>
+  </si>
+  <si>
+    <t>HOMESTAY GỖ VIEW</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- Giới Thiệu Homestay Đà Lạt CG8&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;View từ trong nhà ban ngày sẽ có đồi thông núi non, ban đêm sẽ có đèn lồng, nếu bạn đi mùa lạnh sẽ có sương mây và nhà lồng lên đèn đồng loạt, rất tuyệt vời.Đặc biệt Homestay Đà Lạt CG8 - Có Sẵn Máy Chiếu Phim.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- Cơ Cấu Homestay Đà Lạt CG8&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;• 3 phòng ngủ (2p riêng biệt + 1 phòng áp mái không gian mở)&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;• 2 nhà vệ sinh • Phòng khách&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;• Bếp&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;• Sân BBQ ngoài trời và trong nhà&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;• tủ lạnh, máy sấy tóc, bàn ủi, máy nóng lạnh đầy đủ&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- Tiện ích:&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;• máy chiếu&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;• microway&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;• Lò BBQ ngoài trời, bông lò để dùng trong sân khi trời mưa, bếp đủ dụng cụ nấu nướng.&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>CH1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homestay Đà Lạt CH1 - Căn Hộ Du Lịch Xanh Dương </t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Địa chỉ: Triệu Việt Vương - Phường 3 - Đà Lạt </t>
+  </si>
+  <si>
+    <t>KHÁC</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Giới thiệu: Homestay Đà Lạt CH1&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- Căn Hộ Du Lịch Xanh Dương 1 Phòng Ngủ Cơ cấu:&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• 1 Phòng ngủ&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• 1 Phòng vệ sinh sạch sẽ, có nóng lạnh đầy đủ đồ vệ sinh cá nhân Tiện ích:&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;•Có khu vực phòng khách nhỏ cho gia đình quây quần.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Bếp đầy đủ dụng cụ nấu nướng cơ bản&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Khu vực sân nướng ngoài trời&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Hầm đậu xe rộng&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>HS11</t>
+  </si>
+  <si>
+    <t>Homestay Đà Lạt HS11- Homestay ngắm trọn view thung lũng &amp; đốt lửa cực chill</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Địa chỉ: An Bình, Phường 3, Đà Lạt</t>
+  </si>
+  <si>
+    <t>HOMESTAY NGUYÊN CĂN</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- Giới Thiệu Homestay Đà Lạt HS1 Chiếc homestay ngắm trọn view Đà Lạt trong lòng, có thể sân mây vào những ngày trời se lạnh.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- Cơ Cấu Homestay Đà Lạt HS11&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Gồm 4p ngủ đơn + 2 nệm phụ sức chứa tối đa 12 người&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• 3WC ( 2WC trong + 1 WC ngoài)&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Phòng khách siêu rộng rãi có smart TV&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Nhà bếp gỗ tách biệt và đầy đủ dụng cụ bếp. - Tiện ích:&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Cách trung tâm khoảng 5p chạy xe ra tới trung tâm&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Đường xá bằng phẳng, ô tô tới tận nơi&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Sân BBQ, sân đốt lửa trại rộng rãi, thoải mái&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• View thung lũng nhà và nhà lồng&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>HSL49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homestay Đà Lạt HSL49 - Có Sẵn Máy Chiếu Phim, Bồn Tắm, View Đẹp </t>
+  </si>
+  <si>
+    <t>Hẻm 3 đặng thái thân , p3 , đà lạt
+- Cách trung tâm (5-7ph) đi xe</t>
+  </si>
+  <si>
+    <t>HOMESTAY BỒN TẮM</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;GT Homestay Đà Lạt HSL49 Căn Hộ View đồi thông, và set up máy chiếu free. Cơ cấu Giao chìa căn hộ 1 giường 1m8&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- Tiện nghi:&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Tủ lạnh , ấm siêu tốc , máy sấy tóc, ổ điện phụ, bếp nấu ăn , quạt , bồn tắm&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;•Bàn ghế ăn , sân BBQ&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• free nước suối , cf và trà có sẵn&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Set up máy chiếu free&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>SC3</t>
+  </si>
+  <si>
+    <t>VILLA ĐÀ LẠT SC3 - Villa Sân Vườn Thích Hợp Cho Nghĩ Dưỡng Gia Đình</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Vị trí: Đường Nguyễn Đình Chiểu, Phường 9, Tp. Đà Lạt (Cách Hồ Xuân Hương 1km và cách Trung tâm ~2km)</t>
+  </si>
+  <si>
+    <t>VILLA CAO CẤP</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Giới thiệu VILLA ĐÀ LẠT SC3 - Villa rộng ~600m2 (Cả sân vườn) với 5 Phòng Ngủ cùng phong cách Bán Cổ Điển&lt;br&gt;🌸Cơ cấu:&amp;nbsp;&lt;br&gt;5 Phòng Ngủ (Giường Size Lớn) + 4 nệm phụ&lt;br&gt;- Máy Lạnh riêng mỗi phòng&amp;nbsp;&lt;br&gt;- Toilet riêng&lt;br&gt;- 1 Phòng Khách có lò sưởi&amp;nbsp;&lt;br&gt;- 1 Sân vườn (Chảo đốt lửa)&amp;nbsp;&lt;br&gt;- Sân đậu được 3-4 ô tô&amp;nbsp;&lt;br&gt;- Tiêu chuẩn 12 Người lớn &amp;amp; 4 Bé (Dưới 6 tuổi)&lt;br&gt;Tiện ích:&amp;nbsp;&lt;br&gt;✅ Mỗi Phòng đều trang bị đầy đủ: Máy Lạnh - Toilet riêng - Smart Tivi - Nước nóng - Giường size lớn&lt;br&gt;✅ Trang bị đầy đủ: Sữa tắm, dầu gội, bàn chải, nước rửa tay, máy sấy, bàn ủi…&lt;br&gt;⚜ Không gian phòng khách và bếp đầy đủ tiện nghi: Lò Sưởi, Tủ Lạnh, Bếp, Máy giặt, Máy Sấy, Loa Marshall ….&lt;br&gt;⚜ Sân rộng thoáng phù hợp cho tiệc BBQ ngoài trời, có cả khu vực đốt lửa (Chảo lửa ngoài trời)&lt;br&gt;⚜ Được trang bị cả không gian giải trí cho bé: 1 bàn Bi-lắc mini, sách truyện, gấu bông ...&lt;br&gt;⚜ Villa nằm trong trong khu vực yên tĩnh, thích hợp cho gia đình nghỉ dưỡng&lt;br&gt;⚜ Đường dễ đi, sân đậu xe thoải mái&lt;br&gt;⚜ Cung đường thuận tiện di chuyển đến các địa điểm ăn uống và du lịch như Hồ Xuân Hương, Vườn Hoa Thành Phố, Thung Lũng Tình Yêu, Đồi Mộng Mơ, XQ Đà Lạt Sử Quán, Vườn Dâu v...v...&lt;br&gt;⚜ Giao chìa khoá nguyên căn&lt;br&gt;——————&lt;br&gt;❌ LƯU Ý:&amp;nbsp;&lt;br&gt;✅ Quý khách không sử dụng Loa Kéo&amp;nbsp;&lt;br&gt;✅ Villa có cọc thêm 2tr tiền đảm bảo tài sản khi check in. Sẽ hoàn lại cho khách khi check out nếu không xảy ra hư hỏng tài sản hoặc phát sinh thêm&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>SC31</t>
+  </si>
+  <si>
+    <t>VILLA ĐÀ LẠT SC31 - Villa Ngắm View Nhà Lồng Mang Phong Cách Bắc Âu</t>
+  </si>
+  <si>
+    <t>Địa chỉ: KQH Nguyễn tử lực - Phường 8 - Đà Lạt</t>
   </si>
   <si>
     <t>VILLA BÌNH DÂN</t>
   </si>
   <si>
-    <t>&lt;p&gt;?&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;?&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;?&lt;br&gt;HOMESTAY ĐÀ LẠT CG11&lt;br&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&lt;br&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;?&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;?&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;?&lt;br&gt;&lt;br&gt;BÌNH YÊN HOME&amp;nbsp;&lt;br&gt;?&lt;/p&gt;&lt;p&gt;Căn nhà gỗ trên đỉnh đồi thông, một chiếc home chữa lành sau những ngày làm việc mệt mỏi&lt;br&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;&lt;br&gt;&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;?&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;?&amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp; &amp;nbsp;&amp;nbsp;&amp;nbsp;&amp;nbsp;?&lt;br&gt;&lt;br&gt;______________________&lt;br&gt;?&lt;/p&gt;&lt;p&gt;Cơ cấu home:&lt;br&gt;- 6 phòng ngủ (5 đơn, 1 đôi)&lt;br&gt;- 7 toilet ( 6 toilet riêng, 1 toilet chung)&lt;br&gt;✅&lt;/p&gt;&lt;p&gt;Tiện ích:&lt;br&gt;- Có bếp và khu vực BBQ ngoài trời cực chill&lt;br&gt;- Phòng khách và phòng sách có nhiều góc checkin&lt;br&gt;- Góc ban công săn mây và săn hoàng hôn ngay tại home&lt;br&gt;- Sân rộng rãi để khách vui chơi. Xe 16c đậu cách home 10m&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>CG12</t>
-  </si>
-  <si>
-    <t>CG13</t>
-  </si>
-  <si>
-    <t>CG14</t>
-  </si>
-  <si>
-    <t>CG15</t>
-  </si>
-  <si>
-    <t>CG16</t>
-  </si>
-  <si>
-    <t>CG17</t>
-  </si>
-  <si>
-    <t>CG18</t>
+    <t>&lt;p&gt;Giới thiệu: VILLA ĐÀ LẠT SC31 - Villa Ngắm View Nhà Lồng Mang Phong Cách Bắc Âu Cổ Điển&amp;nbsp;&lt;br&gt;☀️ Cơ cấu&lt;br&gt;- 5 phòng đơn&lt;br&gt;- 4wc&lt;br&gt;mỗi phòng đều có ban công view nhà lồng xịn xò&lt;br&gt;- Phòng bếp, phòng khách đầy đủ tiện nghi&lt;br&gt;- Sân bbq đầy đủ dụng cụ&lt;br&gt;- có hỗ trợ thêm nệm&lt;br&gt;- sức chứa 10-15 khách&lt;/p&gt;&lt;p&gt;☀️ Tiện ích&lt;br&gt;- Cách trung tâm chỉ 5-7p chạy xe , gần các địa điểm tham quan.&amp;nbsp;&lt;br&gt;- Khu quy hoạch đường xá thuận tiện, xe hơi tới tận cổng&lt;br&gt;- Home cung cấp đầy đủ dụng cụ vệ sinh cá nhân ( khăn tắm, bàn chải + kđr, máy sấy tóc, bàn ủi)&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>VBT1</t>
+  </si>
+  <si>
+    <t>VILLA Đà Lạt Hồ Bơi HB1 - Có sân thượng ngắm view thành phố</t>
+  </si>
+  <si>
+    <t>📍 Vị trí : 100/2 Nam Hồ. Trường tiểu học nam hồ đi tới 500m</t>
+  </si>
+  <si>
+    <t>VILLA HỒ BƠI</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Giới thiệu: VILLA Đà Lạt Hồ Bơi HB1&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- Có sân thượng ngắm view thành phố&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Cơ cấu&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;phòng: 2 đôi 2 đơn. 1 phòng đôi dưới trệt. Wc riêng từng phòng&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;🍀Có 1 phòng có bồn tắm view thành phố&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;🏊‍♂️Có hồ bơi&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;🍖Có sân bbq&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;🚘Bãi xe rộng ( 3 xe 7 chỗ, vô được xe 16 chỗ) Đường nhựa rộng, không dốc, xung quanh homestay villa nhiều&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -145,23 +264,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="4.19140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="5.828125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="23.44921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="6.57421875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="84.55859375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="9.328125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="6.109375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="12.27734375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="9.95703125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="97.390625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="8.84375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="9.328125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.78125" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="5.49609375" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="15.546875" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="5.45703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="23.89453125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -222,16 +341,16 @@
         <v>16</v>
       </c>
       <c r="G2" t="n" s="0">
-        <v>1.0E7</v>
+        <v>1000000.0</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>45292.0</v>
+        <v>45343.0</v>
       </c>
       <c r="I2" t="n" s="0">
-        <v>45292.0</v>
+        <v>45343.0</v>
       </c>
       <c r="J2" t="n" s="0">
-        <v>1000.0</v>
+        <v>1.0</v>
       </c>
       <c r="K2" t="s" s="0">
         <v>17</v>
@@ -248,34 +367,34 @@
         <v>19</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G3" t="n" s="0">
-        <v>1.0E7</v>
+        <v>1000000.0</v>
       </c>
       <c r="H3" t="n" s="0">
-        <v>45292.0</v>
+        <v>45343.0</v>
       </c>
       <c r="I3" t="n" s="0">
-        <v>45292.0</v>
+        <v>45343.0</v>
       </c>
       <c r="J3" t="n" s="0">
-        <v>1000.0</v>
+        <v>1.0</v>
       </c>
       <c r="K3" t="s" s="0">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="L3" t="s" s="0">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
@@ -283,37 +402,37 @@
         <v>4.0</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G4" t="n" s="0">
-        <v>1.0E7</v>
+        <v>1700000.0</v>
       </c>
       <c r="H4" t="n" s="0">
-        <v>45292.0</v>
+        <v>45343.0</v>
       </c>
       <c r="I4" t="n" s="0">
-        <v>45292.0</v>
+        <v>45343.0</v>
       </c>
       <c r="J4" t="n" s="0">
-        <v>1000.0</v>
+        <v>1.0</v>
       </c>
       <c r="K4" t="s" s="0">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="L4" t="s" s="0">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
@@ -321,37 +440,37 @@
         <v>5.0</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="G5" t="n" s="0">
-        <v>1.0E7</v>
+        <v>1000000.0</v>
       </c>
       <c r="H5" t="n" s="0">
-        <v>45292.0</v>
+        <v>45343.0</v>
       </c>
       <c r="I5" t="n" s="0">
-        <v>45292.0</v>
+        <v>45343.0</v>
       </c>
       <c r="J5" t="n" s="0">
-        <v>1000.0</v>
+        <v>1.0</v>
       </c>
       <c r="K5" t="s" s="0">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="L5" t="s" s="0">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6">
@@ -359,37 +478,37 @@
         <v>6.0</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="G6" t="n" s="0">
-        <v>1.0E7</v>
+        <v>1000000.0</v>
       </c>
       <c r="H6" t="n" s="0">
-        <v>45292.0</v>
+        <v>45343.0</v>
       </c>
       <c r="I6" t="n" s="0">
-        <v>45292.0</v>
+        <v>45343.0</v>
       </c>
       <c r="J6" t="n" s="0">
-        <v>1000.0</v>
+        <v>1.0</v>
       </c>
       <c r="K6" t="s" s="0">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="L6" t="s" s="0">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7">
@@ -397,37 +516,37 @@
         <v>7.0</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="G7" t="n" s="0">
-        <v>1.0E7</v>
+        <v>1000000.0</v>
       </c>
       <c r="H7" t="n" s="0">
-        <v>45292.0</v>
+        <v>45343.0</v>
       </c>
       <c r="I7" t="n" s="0">
-        <v>45292.0</v>
+        <v>45343.0</v>
       </c>
       <c r="J7" t="n" s="0">
-        <v>1000.0</v>
+        <v>1.0</v>
       </c>
       <c r="K7" t="s" s="0">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="L7" t="s" s="0">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
@@ -435,37 +554,37 @@
         <v>8.0</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="G8" t="n" s="0">
-        <v>1.0E7</v>
+        <v>1000000.0</v>
       </c>
       <c r="H8" t="n" s="0">
-        <v>45292.0</v>
+        <v>45343.0</v>
       </c>
       <c r="I8" t="n" s="0">
-        <v>45292.0</v>
+        <v>45343.0</v>
       </c>
       <c r="J8" t="n" s="0">
-        <v>1000.0</v>
+        <v>1.0</v>
       </c>
       <c r="K8" t="s" s="0">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="L8" t="s" s="0">
-        <v>18</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9">
@@ -473,37 +592,75 @@
         <v>9.0</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="G9" t="n" s="0">
-        <v>1.0E7</v>
+        <v>1000000.0</v>
       </c>
       <c r="H9" t="n" s="0">
-        <v>45292.0</v>
+        <v>45343.0</v>
       </c>
       <c r="I9" t="n" s="0">
-        <v>45292.0</v>
+        <v>45343.0</v>
       </c>
       <c r="J9" t="n" s="0">
-        <v>1000.0</v>
+        <v>1.0</v>
       </c>
       <c r="K9" t="s" s="0">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="L9" t="s" s="0">
-        <v>18</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="G10" t="n" s="0">
+        <v>1000000.0</v>
+      </c>
+      <c r="H10" t="n" s="0">
+        <v>45343.0</v>
+      </c>
+      <c r="I10" t="n" s="0">
+        <v>45343.0</v>
+      </c>
+      <c r="J10" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="K10" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="L10" t="s" s="0">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/document/houses.xlsx
+++ b/src/main/webapp/document/houses.xlsx
@@ -6,13 +6,13 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Danh Sách Tài Nhà" r:id="rId3" sheetId="1"/>
+    <sheet name="Danh Sách  Nhà" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="82">
   <si>
     <t>STT</t>
   </si>
@@ -163,22 +163,73 @@
     <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;GT Homestay Đà Lạt HSL49 Căn Hộ View đồi thông, và set up máy chiếu free. Cơ cấu Giao chìa căn hộ 1 giường 1m8&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- Tiện nghi:&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Tủ lạnh , ấm siêu tốc , máy sấy tóc, ổ điện phụ, bếp nấu ăn , quạt , bồn tắm&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;•Bàn ghế ăn , sân BBQ&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• free nước suối , cf và trà có sẵn&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Set up máy chiếu free&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
+    <t>SC23</t>
+  </si>
+  <si>
+    <t>Villa Đà Lạt SC23 - Villa mới toanh theo phong cách hiện đại, sang trọng.</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Địa chỉ: 91 Hùng Vương - Khu Du lịch Nam Hồ Phường 11 - TP. Đà Lạt</t>
+  </si>
+  <si>
+    <t>VILLA CAO CẤP</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Villa Đà Lạt SC23 - Villa mới toanh theo phong cách hiện đại, sang trọng. Nằm trong KDL Biệt thự nghĩ dưỡng Nam Hồ-Khu vực đặc biệt an ninh và yên tĩnh. Cách chợ Đà Lạt 5km với 5-7 phút di chuyển ra trung tâm.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Cơ cấu: &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-14-column-33.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;🤗&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Gồm 4 phòng ngủ: 3 Phòng 1 giường (1m8) và 1 phòng 2 giường (1m6) - 5wc Villa có trang bị thêm nệm dự phòng. Sức chứa 12-15 Khách. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-14-column-33.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;🤗&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;01 Phòng khách , 01 phòng bếp đầy đủ tiện nghi. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-14-column-33.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;🤗&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Sân vườn rộng rãi tiêu chuẩn thích hợp cho BBQ. Đậu xe trong khuôn viên.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>SC27</t>
+  </si>
+  <si>
+    <t>Villa Đà Lạt SC27 - Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng.</t>
+  </si>
+  <si>
+    <t>Địa chỉ :Toạ lạc tại đường Hùng Vương cách chợ khoảng 5km với 7-10 phút chạy xe</t>
+  </si>
+  <si>
+    <t>VILLA VIEW ĐẸP</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Villa Đà Lạt SC27 - Chạm vào hương sắc tình khúc Đà Lạt, tôi ngất ngây.&lt;br&gt;Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng&lt;br&gt;Cơ cấu:&lt;br&gt;Có 3 phòng ngủ (2P đơn và 1P đôi).4wc.&lt;br&gt;Giao chìa khoá nguyên căn.&lt;/p&gt;&lt;p&gt;❇ Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng. &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp;&amp;nbsp;&lt;br&gt;❇️ Sân vườn rộng, với những góc so chill cho những bữa tiệc BBQ quây quần bên gia đình.&lt;/p&gt;&lt;p&gt;❇Toạ lạc tại đường Hùng Vương cách chợ khoảng 5km với 7-10 phút chạy xe&lt;/p&gt;&lt;p&gt;👉 Chắc chắn là nơi nghỉ dưỡng du lịch lý tưởng cho du khách khi đến với thành phố hoa Đà Lạt&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>SC29</t>
+  </si>
+  <si>
+    <t>Villa Đà Lạt SC29 - Villa Sân vườn rộng, với những góc so chill cho những bữa tiệc BBQ quây quần bên gia đình.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Địa chỉ: 91 Hùng Vương - Khu du lịch Nam Hồ </t>
+  </si>
+  <si>
+    <t>VILLA SÂN VƯỜN</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Villa Đà Lạt SC29 - Villa Sân vườn rộng, với những góc so chill cho những bữa tiệc BBQ quây quần bên gia đình.&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;Cơ cấu: 2 đơn + 1 đôi , 4wc. Mỗi căn tiêu chuẩn 10kh (có 2 nệm extra free trong từng căn).&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;❇Toạ lạc tại đường Hùng Vương cách chợ khoảng 5km với 7-10 phút chạy xe. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-3-column-5.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;❇&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt; Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng.&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;❇️ Có 3 phòng ngủ - 4 WC. Giao chìa khoá nguyên căn.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;❇️ Sân vườn rộng, với những góc so chill cho những bữa tiệc BBQ quây quần bên gia đình. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-27-column-15.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;👉&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt; Chắc chắn là nơi nghỉ dưỡng du lịch lý tưởng cho du khách khi đến với thành phố hoa Đà Lạt&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
     <t>SC3</t>
   </si>
   <si>
     <t>VILLA ĐÀ LẠT SC3 - Villa Sân Vườn Thích Hợp Cho Nghĩ Dưỡng Gia Đình</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>Vị trí: Đường Nguyễn Đình Chiểu, Phường 9, Tp. Đà Lạt (Cách Hồ Xuân Hương 1km và cách Trung tâm ~2km)</t>
   </si>
   <si>
-    <t>VILLA CAO CẤP</t>
-  </si>
-  <si>
     <t>&lt;p&gt;Giới thiệu VILLA ĐÀ LẠT SC3 - Villa rộng ~600m2 (Cả sân vườn) với 5 Phòng Ngủ cùng phong cách Bán Cổ Điển&lt;br&gt;🌸Cơ cấu:&amp;nbsp;&lt;br&gt;5 Phòng Ngủ (Giường Size Lớn) + 4 nệm phụ&lt;br&gt;- Máy Lạnh riêng mỗi phòng&amp;nbsp;&lt;br&gt;- Toilet riêng&lt;br&gt;- 1 Phòng Khách có lò sưởi&amp;nbsp;&lt;br&gt;- 1 Sân vườn (Chảo đốt lửa)&amp;nbsp;&lt;br&gt;- Sân đậu được 3-4 ô tô&amp;nbsp;&lt;br&gt;- Tiêu chuẩn 12 Người lớn &amp;amp; 4 Bé (Dưới 6 tuổi)&lt;br&gt;Tiện ích:&amp;nbsp;&lt;br&gt;✅ Mỗi Phòng đều trang bị đầy đủ: Máy Lạnh - Toilet riêng - Smart Tivi - Nước nóng - Giường size lớn&lt;br&gt;✅ Trang bị đầy đủ: Sữa tắm, dầu gội, bàn chải, nước rửa tay, máy sấy, bàn ủi…&lt;br&gt;⚜ Không gian phòng khách và bếp đầy đủ tiện nghi: Lò Sưởi, Tủ Lạnh, Bếp, Máy giặt, Máy Sấy, Loa Marshall ….&lt;br&gt;⚜ Sân rộng thoáng phù hợp cho tiệc BBQ ngoài trời, có cả khu vực đốt lửa (Chảo lửa ngoài trời)&lt;br&gt;⚜ Được trang bị cả không gian giải trí cho bé: 1 bàn Bi-lắc mini, sách truyện, gấu bông ...&lt;br&gt;⚜ Villa nằm trong trong khu vực yên tĩnh, thích hợp cho gia đình nghỉ dưỡng&lt;br&gt;⚜ Đường dễ đi, sân đậu xe thoải mái&lt;br&gt;⚜ Cung đường thuận tiện di chuyển đến các địa điểm ăn uống và du lịch như Hồ Xuân Hương, Vườn Hoa Thành Phố, Thung Lũng Tình Yêu, Đồi Mộng Mơ, XQ Đà Lạt Sử Quán, Vườn Dâu v...v...&lt;br&gt;⚜ Giao chìa khoá nguyên căn&lt;br&gt;——————&lt;br&gt;❌ LƯU Ý:&amp;nbsp;&lt;br&gt;✅ Quý khách không sử dụng Loa Kéo&amp;nbsp;&lt;br&gt;✅ Villa có cọc thêm 2tr tiền đảm bảo tài sản khi check in. Sẽ hoàn lại cho khách khi check out nếu không xảy ra hư hỏng tài sản hoặc phát sinh thêm&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>SC30</t>
+  </si>
+  <si>
+    <t>Villa Đà Lạt SC30 - Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Giới thiệu Villa Đà Lạt SC30&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;🌺Cơ cấu: Cơ cấu: 3 Phòng -3 giường nệm extra&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;❇Toạ lạc tại đường Hùng Vương cách chợ khoảng 5km với 7-10 phút chạy xe. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-3-column-5.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;❇&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;❇️ Có 3 phòng ngủ - 4 WC. Giao chìa khoá nguyên căn.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;❇️ Sân vườn rộng, với những góc so chill cho những bữa tiệc BBQ quây quần bên gia đình. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-27-column-15.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;👉&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;Chắc chắn là nơi nghỉ dưỡng du lịch lý tưởng cho du khách khi đến với thành phố hoa Đà Lạt&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>SC31</t>
@@ -264,7 +315,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -272,7 +323,7 @@
   <cols>
     <col min="1" max="1" width="4.19140625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="6.57421875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="84.55859375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="99.54296875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="9.328125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="6.109375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="97.390625" customWidth="true" bestFit="true"/>
@@ -560,7 +611,7 @@
         <v>50</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s" s="0">
         <v>51</v>
@@ -572,10 +623,10 @@
         <v>1000000.0</v>
       </c>
       <c r="H8" t="n" s="0">
-        <v>45343.0</v>
+        <v>45345.0</v>
       </c>
       <c r="I8" t="n" s="0">
-        <v>45343.0</v>
+        <v>45345.0</v>
       </c>
       <c r="J8" t="n" s="0">
         <v>1.0</v>
@@ -598,7 +649,7 @@
         <v>56</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s" s="0">
         <v>40</v>
@@ -610,10 +661,10 @@
         <v>1000000.0</v>
       </c>
       <c r="H9" t="n" s="0">
-        <v>45343.0</v>
+        <v>45345.0</v>
       </c>
       <c r="I9" t="n" s="0">
-        <v>45343.0</v>
+        <v>45345.0</v>
       </c>
       <c r="J9" t="n" s="0">
         <v>1.0</v>
@@ -636,7 +687,7 @@
         <v>61</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s" s="0">
         <v>40</v>
@@ -648,10 +699,10 @@
         <v>1000000.0</v>
       </c>
       <c r="H10" t="n" s="0">
-        <v>45343.0</v>
+        <v>45345.0</v>
       </c>
       <c r="I10" t="n" s="0">
-        <v>45343.0</v>
+        <v>45345.0</v>
       </c>
       <c r="J10" t="n" s="0">
         <v>1.0</v>
@@ -661,6 +712,158 @@
       </c>
       <c r="L10" t="s" s="0">
         <v>64</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="G11" t="n" s="0">
+        <v>1000000.0</v>
+      </c>
+      <c r="H11" t="n" s="0">
+        <v>45343.0</v>
+      </c>
+      <c r="I11" t="n" s="0">
+        <v>45343.0</v>
+      </c>
+      <c r="J11" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="K11" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="L11" t="s" s="0">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>1000000.0</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>45345.0</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>45345.0</v>
+      </c>
+      <c r="J12" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="K12" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="L12" t="s" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="G13" t="n" s="0">
+        <v>1000000.0</v>
+      </c>
+      <c r="H13" t="n" s="0">
+        <v>45343.0</v>
+      </c>
+      <c r="I13" t="n" s="0">
+        <v>45343.0</v>
+      </c>
+      <c r="J13" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="K13" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="L13" t="s" s="0">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="G14" t="n" s="0">
+        <v>1000000.0</v>
+      </c>
+      <c r="H14" t="n" s="0">
+        <v>45343.0</v>
+      </c>
+      <c r="I14" t="n" s="0">
+        <v>45343.0</v>
+      </c>
+      <c r="J14" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="K14" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="L14" t="s" s="0">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/document/houses.xlsx
+++ b/src/main/webapp/document/houses.xlsx
@@ -80,14 +80,14 @@
     <t>7</t>
   </si>
   <si>
-    <t>📍Địa chỉ: KQH An Sơn P4
+    <t>?Địa chỉ: KQH An Sơn P4
 ❌ Xe 29 chỗ xuống được villa (nhưng có dốc nhẹ,đậu cách 20m). Xe 16,7,4 chỗ đậu trước nhà.</t>
   </si>
   <si>
     <t>BIỆT THỰ SANG TRỌNG</t>
   </si>
   <si>
-    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Giới thiệu Biệt Thự Đà Lạt BT1&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- nằm trong khu biệt thự yên tĩnh, view đồi núi , khuôn viên rộng rãi cực kỳ rộng thích hợp nghỉ dưỡng Cơ Cấu&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;✴️ Thiết kế gồm 7 Phòng Ngủ&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;+ 5 Phòng - 1 giường 1m6&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;+ 1 Phòng- 1 giường 1m6&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;+ 1 nệm 1m4 + 1 Phòng - 2 giường 1m6.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Tổng cộng 7wc&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Tiện ích:&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Phòng khách, bếp đầy đủ tiện nghi, khoảng sân rộng tươi mát,hồ cá Koi tạo cảm thư giãn cho du khách và tổ chức tiệc BBQ thoải mái. 🔅Cách chợ Đà Lạt 5km - nằm trong khu biệt thự yên tĩnh, view đồi núi , khuôn viên rộng rãi cực kỳ rộng thích hợp nghỉ dưỡng.&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
+    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Giới thiệu Biệt Thự Đà Lạt BT1&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- nằm trong khu biệt thự yên tĩnh, view đồi núi , khuôn viên rộng rãi cực kỳ rộng thích hợp nghỉ dưỡng Cơ Cấu&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;✴️ Thiết kế gồm 7 Phòng Ngủ&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;+ 5 Phòng - 1 giường 1m6&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;+ 1 Phòng- 1 giường 1m6&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;+ 1 nệm 1m4 + 1 Phòng - 2 giường 1m6.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Tổng cộng 7wc&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Tiện ích:&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Phòng khách, bếp đầy đủ tiện nghi, khoảng sân rộng tươi mát,hồ cá Koi tạo cảm thư giãn cho du khách và tổ chức tiệc BBQ thoải mái. ?Cách chợ Đà Lạt 5km - nằm trong khu biệt thự yên tĩnh, view đồi núi , khuôn viên rộng rãi cực kỳ rộng thích hợp nghỉ dưỡng.&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>CG8</t>
@@ -178,7 +178,7 @@
     <t>VILLA CAO CẤP</t>
   </si>
   <si>
-    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Villa Đà Lạt SC23 - Villa mới toanh theo phong cách hiện đại, sang trọng. Nằm trong KDL Biệt thự nghĩ dưỡng Nam Hồ-Khu vực đặc biệt an ninh và yên tĩnh. Cách chợ Đà Lạt 5km với 5-7 phút di chuyển ra trung tâm.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Cơ cấu: &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-14-column-33.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;🤗&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Gồm 4 phòng ngủ: 3 Phòng 1 giường (1m8) và 1 phòng 2 giường (1m6) - 5wc Villa có trang bị thêm nệm dự phòng. Sức chứa 12-15 Khách. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-14-column-33.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;🤗&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;01 Phòng khách , 01 phòng bếp đầy đủ tiện nghi. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-14-column-33.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;🤗&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Sân vườn rộng rãi tiêu chuẩn thích hợp cho BBQ. Đậu xe trong khuôn viên.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
+    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Villa Đà Lạt SC23 - Villa mới toanh theo phong cách hiện đại, sang trọng. Nằm trong KDL Biệt thự nghĩ dưỡng Nam Hồ-Khu vực đặc biệt an ninh và yên tĩnh. Cách chợ Đà Lạt 5km với 5-7 phút di chuyển ra trung tâm.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Cơ cấu: &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-14-column-33.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;?&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Gồm 4 phòng ngủ: 3 Phòng 1 giường (1m8) và 1 phòng 2 giường (1m6) - 5wc Villa có trang bị thêm nệm dự phòng. Sức chứa 12-15 Khách. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-14-column-33.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;?&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;01 Phòng khách , 01 phòng bếp đầy đủ tiện nghi. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-14-column-33.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;?&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Sân vườn rộng rãi tiêu chuẩn thích hợp cho BBQ. Đậu xe trong khuôn viên.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>SC27</t>
@@ -193,7 +193,7 @@
     <t>VILLA VIEW ĐẸP</t>
   </si>
   <si>
-    <t>&lt;p&gt;Villa Đà Lạt SC27 - Chạm vào hương sắc tình khúc Đà Lạt, tôi ngất ngây.&lt;br&gt;Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng&lt;br&gt;Cơ cấu:&lt;br&gt;Có 3 phòng ngủ (2P đơn và 1P đôi).4wc.&lt;br&gt;Giao chìa khoá nguyên căn.&lt;/p&gt;&lt;p&gt;❇ Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng. &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp;&amp;nbsp;&lt;br&gt;❇️ Sân vườn rộng, với những góc so chill cho những bữa tiệc BBQ quây quần bên gia đình.&lt;/p&gt;&lt;p&gt;❇Toạ lạc tại đường Hùng Vương cách chợ khoảng 5km với 7-10 phút chạy xe&lt;/p&gt;&lt;p&gt;👉 Chắc chắn là nơi nghỉ dưỡng du lịch lý tưởng cho du khách khi đến với thành phố hoa Đà Lạt&lt;/p&gt;</t>
+    <t>&lt;p&gt;Villa Đà Lạt SC27 - Chạm vào hương sắc tình khúc Đà Lạt, tôi ngất ngây.&lt;br&gt;Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng&lt;br&gt;Cơ cấu:&lt;br&gt;Có 3 phòng ngủ (2P đơn và 1P đôi).4wc.&lt;br&gt;Giao chìa khoá nguyên căn.&lt;/p&gt;&lt;p&gt;❇ Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng. &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp;&amp;nbsp;&lt;br&gt;❇️ Sân vườn rộng, với những góc so chill cho những bữa tiệc BBQ quây quần bên gia đình.&lt;/p&gt;&lt;p&gt;❇Toạ lạc tại đường Hùng Vương cách chợ khoảng 5km với 7-10 phút chạy xe&lt;/p&gt;&lt;p&gt;? Chắc chắn là nơi nghỉ dưỡng du lịch lý tưởng cho du khách khi đến với thành phố hoa Đà Lạt&lt;/p&gt;</t>
   </si>
   <si>
     <t>SC29</t>
@@ -208,7 +208,7 @@
     <t>VILLA SÂN VƯỜN</t>
   </si>
   <si>
-    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Villa Đà Lạt SC29 - Villa Sân vườn rộng, với những góc so chill cho những bữa tiệc BBQ quây quần bên gia đình.&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;Cơ cấu: 2 đơn + 1 đôi , 4wc. Mỗi căn tiêu chuẩn 10kh (có 2 nệm extra free trong từng căn).&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;❇Toạ lạc tại đường Hùng Vương cách chợ khoảng 5km với 7-10 phút chạy xe. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-3-column-5.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;❇&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt; Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng.&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;❇️ Có 3 phòng ngủ - 4 WC. Giao chìa khoá nguyên căn.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;❇️ Sân vườn rộng, với những góc so chill cho những bữa tiệc BBQ quây quần bên gia đình. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-27-column-15.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;👉&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt; Chắc chắn là nơi nghỉ dưỡng du lịch lý tưởng cho du khách khi đến với thành phố hoa Đà Lạt&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
+    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Villa Đà Lạt SC29 - Villa Sân vườn rộng, với những góc so chill cho những bữa tiệc BBQ quây quần bên gia đình.&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;Cơ cấu: 2 đơn + 1 đôi , 4wc. Mỗi căn tiêu chuẩn 10kh (có 2 nệm extra free trong từng căn).&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;❇Toạ lạc tại đường Hùng Vương cách chợ khoảng 5km với 7-10 phút chạy xe. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-3-column-5.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;❇&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt; Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng.&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;❇️ Có 3 phòng ngủ - 4 WC. Giao chìa khoá nguyên căn.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;❇️ Sân vườn rộng, với những góc so chill cho những bữa tiệc BBQ quây quần bên gia đình. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-27-column-15.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;?&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt; Chắc chắn là nơi nghỉ dưỡng du lịch lý tưởng cho du khách khi đến với thành phố hoa Đà Lạt&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>SC3</t>
@@ -220,7 +220,7 @@
     <t>Vị trí: Đường Nguyễn Đình Chiểu, Phường 9, Tp. Đà Lạt (Cách Hồ Xuân Hương 1km và cách Trung tâm ~2km)</t>
   </si>
   <si>
-    <t>&lt;p&gt;Giới thiệu VILLA ĐÀ LẠT SC3 - Villa rộng ~600m2 (Cả sân vườn) với 5 Phòng Ngủ cùng phong cách Bán Cổ Điển&lt;br&gt;🌸Cơ cấu:&amp;nbsp;&lt;br&gt;5 Phòng Ngủ (Giường Size Lớn) + 4 nệm phụ&lt;br&gt;- Máy Lạnh riêng mỗi phòng&amp;nbsp;&lt;br&gt;- Toilet riêng&lt;br&gt;- 1 Phòng Khách có lò sưởi&amp;nbsp;&lt;br&gt;- 1 Sân vườn (Chảo đốt lửa)&amp;nbsp;&lt;br&gt;- Sân đậu được 3-4 ô tô&amp;nbsp;&lt;br&gt;- Tiêu chuẩn 12 Người lớn &amp;amp; 4 Bé (Dưới 6 tuổi)&lt;br&gt;Tiện ích:&amp;nbsp;&lt;br&gt;✅ Mỗi Phòng đều trang bị đầy đủ: Máy Lạnh - Toilet riêng - Smart Tivi - Nước nóng - Giường size lớn&lt;br&gt;✅ Trang bị đầy đủ: Sữa tắm, dầu gội, bàn chải, nước rửa tay, máy sấy, bàn ủi…&lt;br&gt;⚜ Không gian phòng khách và bếp đầy đủ tiện nghi: Lò Sưởi, Tủ Lạnh, Bếp, Máy giặt, Máy Sấy, Loa Marshall ….&lt;br&gt;⚜ Sân rộng thoáng phù hợp cho tiệc BBQ ngoài trời, có cả khu vực đốt lửa (Chảo lửa ngoài trời)&lt;br&gt;⚜ Được trang bị cả không gian giải trí cho bé: 1 bàn Bi-lắc mini, sách truyện, gấu bông ...&lt;br&gt;⚜ Villa nằm trong trong khu vực yên tĩnh, thích hợp cho gia đình nghỉ dưỡng&lt;br&gt;⚜ Đường dễ đi, sân đậu xe thoải mái&lt;br&gt;⚜ Cung đường thuận tiện di chuyển đến các địa điểm ăn uống và du lịch như Hồ Xuân Hương, Vườn Hoa Thành Phố, Thung Lũng Tình Yêu, Đồi Mộng Mơ, XQ Đà Lạt Sử Quán, Vườn Dâu v...v...&lt;br&gt;⚜ Giao chìa khoá nguyên căn&lt;br&gt;——————&lt;br&gt;❌ LƯU Ý:&amp;nbsp;&lt;br&gt;✅ Quý khách không sử dụng Loa Kéo&amp;nbsp;&lt;br&gt;✅ Villa có cọc thêm 2tr tiền đảm bảo tài sản khi check in. Sẽ hoàn lại cho khách khi check out nếu không xảy ra hư hỏng tài sản hoặc phát sinh thêm&lt;/p&gt;</t>
+    <t>&lt;p&gt;Giới thiệu VILLA ĐÀ LẠT SC3 - Villa rộng ~600m2 (Cả sân vườn) với 5 Phòng Ngủ cùng phong cách Bán Cổ Điển&lt;br&gt;?Cơ cấu:&amp;nbsp;&lt;br&gt;5 Phòng Ngủ (Giường Size Lớn) + 4 nệm phụ&lt;br&gt;- Máy Lạnh riêng mỗi phòng&amp;nbsp;&lt;br&gt;- Toilet riêng&lt;br&gt;- 1 Phòng Khách có lò sưởi&amp;nbsp;&lt;br&gt;- 1 Sân vườn (Chảo đốt lửa)&amp;nbsp;&lt;br&gt;- Sân đậu được 3-4 ô tô&amp;nbsp;&lt;br&gt;- Tiêu chuẩn 12 Người lớn &amp;amp; 4 Bé (Dưới 6 tuổi)&lt;br&gt;Tiện ích:&amp;nbsp;&lt;br&gt;✅ Mỗi Phòng đều trang bị đầy đủ: Máy Lạnh - Toilet riêng - Smart Tivi - Nước nóng - Giường size lớn&lt;br&gt;✅ Trang bị đầy đủ: Sữa tắm, dầu gội, bàn chải, nước rửa tay, máy sấy, bàn ủi…&lt;br&gt;⚜ Không gian phòng khách và bếp đầy đủ tiện nghi: Lò Sưởi, Tủ Lạnh, Bếp, Máy giặt, Máy Sấy, Loa Marshall ….&lt;br&gt;⚜ Sân rộng thoáng phù hợp cho tiệc BBQ ngoài trời, có cả khu vực đốt lửa (Chảo lửa ngoài trời)&lt;br&gt;⚜ Được trang bị cả không gian giải trí cho bé: 1 bàn Bi-lắc mini, sách truyện, gấu bông ...&lt;br&gt;⚜ Villa nằm trong trong khu vực yên tĩnh, thích hợp cho gia đình nghỉ dưỡng&lt;br&gt;⚜ Đường dễ đi, sân đậu xe thoải mái&lt;br&gt;⚜ Cung đường thuận tiện di chuyển đến các địa điểm ăn uống và du lịch như Hồ Xuân Hương, Vườn Hoa Thành Phố, Thung Lũng Tình Yêu, Đồi Mộng Mơ, XQ Đà Lạt Sử Quán, Vườn Dâu v...v...&lt;br&gt;⚜ Giao chìa khoá nguyên căn&lt;br&gt;——————&lt;br&gt;❌ LƯU Ý:&amp;nbsp;&lt;br&gt;✅ Quý khách không sử dụng Loa Kéo&amp;nbsp;&lt;br&gt;✅ Villa có cọc thêm 2tr tiền đảm bảo tài sản khi check in. Sẽ hoàn lại cho khách khi check out nếu không xảy ra hư hỏng tài sản hoặc phát sinh thêm&lt;/p&gt;</t>
   </si>
   <si>
     <t>SC30</t>
@@ -229,7 +229,7 @@
     <t>Villa Đà Lạt SC30 - Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng</t>
   </si>
   <si>
-    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Giới thiệu Villa Đà Lạt SC30&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;🌺Cơ cấu: Cơ cấu: 3 Phòng -3 giường nệm extra&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;❇Toạ lạc tại đường Hùng Vương cách chợ khoảng 5km với 7-10 phút chạy xe. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-3-column-5.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;❇&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;❇️ Có 3 phòng ngủ - 4 WC. Giao chìa khoá nguyên căn.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;❇️ Sân vườn rộng, với những góc so chill cho những bữa tiệc BBQ quây quần bên gia đình. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-27-column-15.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;👉&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;Chắc chắn là nơi nghỉ dưỡng du lịch lý tưởng cho du khách khi đến với thành phố hoa Đà Lạt&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
+    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Giới thiệu Villa Đà Lạt SC30&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;?Cơ cấu: Cơ cấu: 3 Phòng -3 giường nệm extra&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;❇Toạ lạc tại đường Hùng Vương cách chợ khoảng 5km với 7-10 phút chạy xe. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-3-column-5.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;❇&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;❇️ Có 3 phòng ngủ - 4 WC. Giao chìa khoá nguyên căn.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;❇️ Sân vườn rộng, với những góc so chill cho những bữa tiệc BBQ quây quần bên gia đình. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-27-column-15.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;?&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;Chắc chắn là nơi nghỉ dưỡng du lịch lý tưởng cho du khách khi đến với thành phố hoa Đà Lạt&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>SC31</t>
@@ -253,13 +253,13 @@
     <t>VILLA Đà Lạt Hồ Bơi HB1 - Có sân thượng ngắm view thành phố</t>
   </si>
   <si>
-    <t>📍 Vị trí : 100/2 Nam Hồ. Trường tiểu học nam hồ đi tới 500m</t>
+    <t>? Vị trí : 100/2 Nam Hồ. Trường tiểu học nam hồ đi tới 500m</t>
   </si>
   <si>
     <t>VILLA HỒ BƠI</t>
   </si>
   <si>
-    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Giới thiệu: VILLA Đà Lạt Hồ Bơi HB1&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- Có sân thượng ngắm view thành phố&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Cơ cấu&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;phòng: 2 đôi 2 đơn. 1 phòng đôi dưới trệt. Wc riêng từng phòng&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;🍀Có 1 phòng có bồn tắm view thành phố&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;🏊‍♂️Có hồ bơi&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;🍖Có sân bbq&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;🚘Bãi xe rộng ( 3 xe 7 chỗ, vô được xe 16 chỗ) Đường nhựa rộng, không dốc, xung quanh homestay villa nhiều&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
+    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Giới thiệu: VILLA Đà Lạt Hồ Bơi HB1&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- Có sân thượng ngắm view thành phố&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Cơ cấu&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;phòng: 2 đôi 2 đơn. 1 phòng đôi dưới trệt. Wc riêng từng phòng&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;?Có 1 phòng có bồn tắm view thành phố&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;?‍♂️Có hồ bơi&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;?Có sân bbq&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;?Bãi xe rộng ( 3 xe 7 chỗ, vô được xe 16 chỗ) Đường nhựa rộng, không dốc, xung quanh homestay villa nhiều&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
   </si>
 </sst>
 </file>

--- a/src/main/webapp/document/houses.xlsx
+++ b/src/main/webapp/document/houses.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="93">
   <si>
     <t>STT</t>
   </si>
@@ -163,6 +163,42 @@
     <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;GT Homestay Đà Lạt HSL49 Căn Hộ View đồi thông, và set up máy chiếu free. Cơ cấu Giao chìa căn hộ 1 giường 1m8&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- Tiện nghi:&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Tủ lạnh , ấm siêu tốc , máy sấy tóc, ổ điện phụ, bếp nấu ăn , quạt , bồn tắm&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;•Bàn ghế ăn , sân BBQ&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• free nước suối , cf và trà có sẵn&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Set up máy chiếu free&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
+    <t>nv001</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>VILLA BÌNH DÂN</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;aaaa&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>nv02</t>
+  </si>
+  <si>
+    <t>aaaa</t>
+  </si>
+  <si>
+    <t>aaaaa</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;aaaaa&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>nv03</t>
+  </si>
+  <si>
+    <t>aaaaaaa</t>
+  </si>
+  <si>
+    <t>nv04</t>
+  </si>
+  <si>
+    <t>aaaaaa</t>
+  </si>
+  <si>
     <t>SC23</t>
   </si>
   <si>
@@ -239,9 +275,6 @@
   </si>
   <si>
     <t>Địa chỉ: KQH Nguyễn tử lực - Phường 8 - Đà Lạt</t>
-  </si>
-  <si>
-    <t>VILLA BÌNH DÂN</t>
   </si>
   <si>
     <t>&lt;p&gt;Giới thiệu: VILLA ĐÀ LẠT SC31 - Villa Ngắm View Nhà Lồng Mang Phong Cách Bắc Âu Cổ Điển&amp;nbsp;&lt;br&gt;☀️ Cơ cấu&lt;br&gt;- 5 phòng đơn&lt;br&gt;- 4wc&lt;br&gt;mỗi phòng đều có ban công view nhà lồng xịn xò&lt;br&gt;- Phòng bếp, phòng khách đầy đủ tiện nghi&lt;br&gt;- Sân bbq đầy đủ dụng cụ&lt;br&gt;- có hỗ trợ thêm nệm&lt;br&gt;- sức chứa 10-15 khách&lt;/p&gt;&lt;p&gt;☀️ Tiện ích&lt;br&gt;- Cách trung tâm chỉ 5-7p chạy xe , gần các địa điểm tham quan.&amp;nbsp;&lt;br&gt;- Khu quy hoạch đường xá thuận tiện, xe hơi tới tận cổng&lt;br&gt;- Home cung cấp đầy đủ dụng cụ vệ sinh cá nhân ( khăn tắm, bàn chải + kđr, máy sấy tóc, bàn ủi)&lt;/p&gt;</t>
@@ -315,7 +348,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -611,31 +644,31 @@
         <v>50</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="G8" t="n" s="0">
+        <v>1000.0</v>
+      </c>
+      <c r="H8" t="n" s="0">
+        <v>45347.0</v>
+      </c>
+      <c r="I8" t="n" s="0">
+        <v>45347.0</v>
+      </c>
+      <c r="J8" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="K8" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="F8" t="s" s="0">
+      <c r="L8" t="s" s="0">
         <v>52</v>
-      </c>
-      <c r="G8" t="n" s="0">
-        <v>1000000.0</v>
-      </c>
-      <c r="H8" t="n" s="0">
-        <v>45345.0</v>
-      </c>
-      <c r="I8" t="n" s="0">
-        <v>45345.0</v>
-      </c>
-      <c r="J8" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="K8" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="L8" t="s" s="0">
-        <v>54</v>
       </c>
     </row>
     <row r="9">
@@ -643,37 +676,37 @@
         <v>9.0</v>
       </c>
       <c r="B9" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="C9" t="s" s="0">
+      <c r="G9" t="n" s="0">
+        <v>1000.0</v>
+      </c>
+      <c r="H9" t="n" s="0">
+        <v>45347.0</v>
+      </c>
+      <c r="I9" t="n" s="0">
+        <v>45347.0</v>
+      </c>
+      <c r="J9" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="K9" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="L9" t="s" s="0">
         <v>56</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="E9" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="F9" t="s" s="0">
-        <v>57</v>
-      </c>
-      <c r="G9" t="n" s="0">
-        <v>1000000.0</v>
-      </c>
-      <c r="H9" t="n" s="0">
-        <v>45345.0</v>
-      </c>
-      <c r="I9" t="n" s="0">
-        <v>45345.0</v>
-      </c>
-      <c r="J9" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="K9" t="s" s="0">
-        <v>58</v>
-      </c>
-      <c r="L9" t="s" s="0">
-        <v>59</v>
       </c>
     </row>
     <row r="10">
@@ -681,37 +714,37 @@
         <v>10.0</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="G10" t="n" s="0">
-        <v>1000000.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H10" t="n" s="0">
-        <v>45345.0</v>
+        <v>45347.0</v>
       </c>
       <c r="I10" t="n" s="0">
-        <v>45345.0</v>
+        <v>45347.0</v>
       </c>
       <c r="J10" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="K10" t="s" s="0">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="L10" t="s" s="0">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11">
@@ -719,37 +752,37 @@
         <v>11.0</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="G11" t="n" s="0">
+        <v>1000.0</v>
+      </c>
+      <c r="H11" t="n" s="0">
+        <v>45347.0</v>
+      </c>
+      <c r="I11" t="n" s="0">
+        <v>45347.0</v>
+      </c>
+      <c r="J11" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="K11" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="E11" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="F11" t="s" s="0">
-        <v>67</v>
-      </c>
-      <c r="G11" t="n" s="0">
-        <v>1000000.0</v>
-      </c>
-      <c r="H11" t="n" s="0">
-        <v>45343.0</v>
-      </c>
-      <c r="I11" t="n" s="0">
-        <v>45343.0</v>
-      </c>
-      <c r="J11" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="K11" t="s" s="0">
-        <v>53</v>
-      </c>
       <c r="L11" t="s" s="0">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12">
@@ -757,19 +790,19 @@
         <v>12.0</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G12" t="n" s="0">
         <v>1000000.0</v>
@@ -784,10 +817,10 @@
         <v>1.0</v>
       </c>
       <c r="K12" t="s" s="0">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="L12" t="s" s="0">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13">
@@ -795,37 +828,37 @@
         <v>13.0</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s" s="0">
         <v>40</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G13" t="n" s="0">
         <v>1000000.0</v>
       </c>
       <c r="H13" t="n" s="0">
-        <v>45343.0</v>
+        <v>45345.0</v>
       </c>
       <c r="I13" t="n" s="0">
-        <v>45343.0</v>
+        <v>45345.0</v>
       </c>
       <c r="J13" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="K13" t="s" s="0">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="L13" t="s" s="0">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
@@ -833,37 +866,189 @@
         <v>14.0</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s" s="0">
         <v>40</v>
       </c>
       <c r="F14" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="G14" t="n" s="0">
+        <v>1000000.0</v>
+      </c>
+      <c r="H14" t="n" s="0">
+        <v>45345.0</v>
+      </c>
+      <c r="I14" t="n" s="0">
+        <v>45345.0</v>
+      </c>
+      <c r="J14" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="K14" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="L14" t="s" s="0">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="F15" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="G14" t="n" s="0">
-        <v>1000000.0</v>
-      </c>
-      <c r="H14" t="n" s="0">
-        <v>45343.0</v>
-      </c>
-      <c r="I14" t="n" s="0">
-        <v>45343.0</v>
-      </c>
-      <c r="J14" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="K14" t="s" s="0">
+      <c r="G15" t="n" s="0">
+        <v>1000000.0</v>
+      </c>
+      <c r="H15" t="n" s="0">
+        <v>45343.0</v>
+      </c>
+      <c r="I15" t="n" s="0">
+        <v>45343.0</v>
+      </c>
+      <c r="J15" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="K15" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="L15" t="s" s="0">
         <v>80</v>
       </c>
-      <c r="L14" t="s" s="0">
+    </row>
+    <row r="16">
+      <c r="A16" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="B16" t="s" s="0">
         <v>81</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="G16" t="n" s="0">
+        <v>1000000.0</v>
+      </c>
+      <c r="H16" t="n" s="0">
+        <v>45345.0</v>
+      </c>
+      <c r="I16" t="n" s="0">
+        <v>45345.0</v>
+      </c>
+      <c r="J16" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="K16" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="L16" t="s" s="0">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="G17" t="n" s="0">
+        <v>1000000.0</v>
+      </c>
+      <c r="H17" t="n" s="0">
+        <v>45343.0</v>
+      </c>
+      <c r="I17" t="n" s="0">
+        <v>45343.0</v>
+      </c>
+      <c r="J17" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="K17" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="L17" t="s" s="0">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="F18" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="G18" t="n" s="0">
+        <v>1000000.0</v>
+      </c>
+      <c r="H18" t="n" s="0">
+        <v>45343.0</v>
+      </c>
+      <c r="I18" t="n" s="0">
+        <v>45343.0</v>
+      </c>
+      <c r="J18" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="K18" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="L18" t="s" s="0">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/document/houses.xlsx
+++ b/src/main/webapp/document/houses.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="98">
   <si>
     <t>STT</t>
   </si>
@@ -80,14 +80,14 @@
     <t>7</t>
   </si>
   <si>
-    <t>?Địa chỉ: KQH An Sơn P4
+    <t>📍Địa chỉ: KQH An Sơn P4
 ❌ Xe 29 chỗ xuống được villa (nhưng có dốc nhẹ,đậu cách 20m). Xe 16,7,4 chỗ đậu trước nhà.</t>
   </si>
   <si>
     <t>BIỆT THỰ SANG TRỌNG</t>
   </si>
   <si>
-    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Giới thiệu Biệt Thự Đà Lạt BT1&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- nằm trong khu biệt thự yên tĩnh, view đồi núi , khuôn viên rộng rãi cực kỳ rộng thích hợp nghỉ dưỡng Cơ Cấu&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;✴️ Thiết kế gồm 7 Phòng Ngủ&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;+ 5 Phòng - 1 giường 1m6&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;+ 1 Phòng- 1 giường 1m6&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;+ 1 nệm 1m4 + 1 Phòng - 2 giường 1m6.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Tổng cộng 7wc&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Tiện ích:&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Phòng khách, bếp đầy đủ tiện nghi, khoảng sân rộng tươi mát,hồ cá Koi tạo cảm thư giãn cho du khách và tổ chức tiệc BBQ thoải mái. ?Cách chợ Đà Lạt 5km - nằm trong khu biệt thự yên tĩnh, view đồi núi , khuôn viên rộng rãi cực kỳ rộng thích hợp nghỉ dưỡng.&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
+    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Giới thiệu Biệt Thự Đà Lạt BT1&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- nằm trong khu biệt thự yên tĩnh, view đồi núi , khuôn viên rộng rãi cực kỳ rộng thích hợp nghỉ dưỡng Cơ Cấu&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;✴️ Thiết kế gồm 7 Phòng Ngủ&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;+ 5 Phòng - 1 giường 1m6&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;+ 1 Phòng- 1 giường 1m6&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;+ 1 nệm 1m4 + 1 Phòng - 2 giường 1m6.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Tổng cộng 7wc&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Tiện ích:&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Phòng khách, bếp đầy đủ tiện nghi, khoảng sân rộng tươi mát,hồ cá Koi tạo cảm thư giãn cho du khách và tổ chức tiệc BBQ thoải mái. 🔅Cách chợ Đà Lạt 5km - nằm trong khu biệt thự yên tĩnh, view đồi núi , khuôn viên rộng rãi cực kỳ rộng thích hợp nghỉ dưỡng.&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>CG8</t>
@@ -163,136 +163,151 @@
     <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;GT Homestay Đà Lạt HSL49 Căn Hộ View đồi thông, và set up máy chiếu free. Cơ cấu Giao chìa căn hộ 1 giường 1m8&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- Tiện nghi:&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Tủ lạnh , ấm siêu tốc , máy sấy tóc, ổ điện phụ, bếp nấu ăn , quạt , bồn tắm&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;•Bàn ghế ăn , sân BBQ&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• free nước suối , cf và trà có sẵn&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Set up máy chiếu free&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
-    <t>nv001</t>
-  </si>
-  <si>
-    <t>aaa</t>
+    <t>SC23</t>
+  </si>
+  <si>
+    <t>Villa Đà Lạt SC23 - Villa mới toanh theo phong cách hiện đại, sang trọng.</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Địa chỉ: 91 Hùng Vương - Khu Du lịch Nam Hồ Phường 11 - TP. Đà Lạt</t>
+  </si>
+  <si>
+    <t>VILLA CAO CẤP</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Villa Đà Lạt SC23 - Villa mới toanh theo phong cách hiện đại, sang trọng. Nằm trong KDL Biệt thự nghĩ dưỡng Nam Hồ-Khu vực đặc biệt an ninh và yên tĩnh. Cách chợ Đà Lạt 5km với 5-7 phút di chuyển ra trung tâm.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Cơ cấu: &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-14-column-33.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;🤗&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Gồm 4 phòng ngủ: 3 Phòng 1 giường (1m8) và 1 phòng 2 giường (1m6) - 5wc Villa có trang bị thêm nệm dự phòng. Sức chứa 12-15 Khách. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-14-column-33.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;🤗&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;01 Phòng khách , 01 phòng bếp đầy đủ tiện nghi. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-14-column-33.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;🤗&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Sân vườn rộng rãi tiêu chuẩn thích hợp cho BBQ. Đậu xe trong khuôn viên.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>SC27</t>
+  </si>
+  <si>
+    <t>Villa Đà Lạt SC27 - Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng.</t>
+  </si>
+  <si>
+    <t>Địa chỉ :Toạ lạc tại đường Hùng Vương cách chợ khoảng 5km với 7-10 phút chạy xe</t>
+  </si>
+  <si>
+    <t>VILLA VIEW ĐẸP</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Villa Đà Lạt SC27 - Chạm vào hương sắc tình khúc Đà Lạt, tôi ngất ngây.&lt;br&gt;Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng&lt;br&gt;Cơ cấu:&lt;br&gt;Có 3 phòng ngủ (2P đơn và 1P đôi).4wc.&lt;br&gt;Giao chìa khoá nguyên căn.&lt;/p&gt;&lt;p&gt;❇ Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng. &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp;&amp;nbsp;&lt;br&gt;❇️ Sân vườn rộng, với những góc so chill cho những bữa tiệc BBQ quây quần bên gia đình.&lt;/p&gt;&lt;p&gt;❇Toạ lạc tại đường Hùng Vương cách chợ khoảng 5km với 7-10 phút chạy xe&lt;/p&gt;&lt;p&gt;👉 Chắc chắn là nơi nghỉ dưỡng du lịch lý tưởng cho du khách khi đến với thành phố hoa Đà Lạt&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>SC29</t>
+  </si>
+  <si>
+    <t>Villa Đà Lạt SC29 - Villa Sân vườn rộng, với những góc so chill cho những bữa tiệc BBQ quây quần bên gia đình.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Địa chỉ: 91 Hùng Vương - Khu du lịch Nam Hồ </t>
+  </si>
+  <si>
+    <t>VILLA SÂN VƯỜN</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Villa Đà Lạt SC29 - Villa Sân vườn rộng, với những góc so chill cho những bữa tiệc BBQ quây quần bên gia đình.&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;Cơ cấu: 2 đơn + 1 đôi , 4wc. Mỗi căn tiêu chuẩn 10kh (có 2 nệm extra free trong từng căn).&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;❇Toạ lạc tại đường Hùng Vương cách chợ khoảng 5km với 7-10 phút chạy xe. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-3-column-5.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;❇&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt; Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng.&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;❇️ Có 3 phòng ngủ - 4 WC. Giao chìa khoá nguyên căn.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;❇️ Sân vườn rộng, với những góc so chill cho những bữa tiệc BBQ quây quần bên gia đình. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-27-column-15.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;👉&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt; Chắc chắn là nơi nghỉ dưỡng du lịch lý tưởng cho du khách khi đến với thành phố hoa Đà Lạt&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>SC3</t>
+  </si>
+  <si>
+    <t>VILLA ĐÀ LẠT SC3 - Villa Sân Vườn Thích Hợp Cho Nghĩ Dưỡng Gia Đình</t>
+  </si>
+  <si>
+    <t>Vị trí: Đường Nguyễn Đình Chiểu, Phường 9, Tp. Đà Lạt (Cách Hồ Xuân Hương 1km và cách Trung tâm ~2km)</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Giới thiệu VILLA ĐÀ LẠT SC3 - Villa rộng ~600m2 (Cả sân vườn) với 5 Phòng Ngủ cùng phong cách Bán Cổ Điển&lt;br&gt;🌸Cơ cấu:&amp;nbsp;&lt;br&gt;5 Phòng Ngủ (Giường Size Lớn) + 4 nệm phụ&lt;br&gt;- Máy Lạnh riêng mỗi phòng&amp;nbsp;&lt;br&gt;- Toilet riêng&lt;br&gt;- 1 Phòng Khách có lò sưởi&amp;nbsp;&lt;br&gt;- 1 Sân vườn (Chảo đốt lửa)&amp;nbsp;&lt;br&gt;- Sân đậu được 3-4 ô tô&amp;nbsp;&lt;br&gt;- Tiêu chuẩn 12 Người lớn &amp;amp; 4 Bé (Dưới 6 tuổi)&lt;br&gt;Tiện ích:&amp;nbsp;&lt;br&gt;✅ Mỗi Phòng đều trang bị đầy đủ: Máy Lạnh - Toilet riêng - Smart Tivi - Nước nóng - Giường size lớn&lt;br&gt;✅ Trang bị đầy đủ: Sữa tắm, dầu gội, bàn chải, nước rửa tay, máy sấy, bàn ủi…&lt;br&gt;⚜ Không gian phòng khách và bếp đầy đủ tiện nghi: Lò Sưởi, Tủ Lạnh, Bếp, Máy giặt, Máy Sấy, Loa Marshall ….&lt;br&gt;⚜ Sân rộng thoáng phù hợp cho tiệc BBQ ngoài trời, có cả khu vực đốt lửa (Chảo lửa ngoài trời)&lt;br&gt;⚜ Được trang bị cả không gian giải trí cho bé: 1 bàn Bi-lắc mini, sách truyện, gấu bông ...&lt;br&gt;⚜ Villa nằm trong trong khu vực yên tĩnh, thích hợp cho gia đình nghỉ dưỡng&lt;br&gt;⚜ Đường dễ đi, sân đậu xe thoải mái&lt;br&gt;⚜ Cung đường thuận tiện di chuyển đến các địa điểm ăn uống và du lịch như Hồ Xuân Hương, Vườn Hoa Thành Phố, Thung Lũng Tình Yêu, Đồi Mộng Mơ, XQ Đà Lạt Sử Quán, Vườn Dâu v...v...&lt;br&gt;⚜ Giao chìa khoá nguyên căn&lt;br&gt;——————&lt;br&gt;❌ LƯU Ý:&amp;nbsp;&lt;br&gt;✅ Quý khách không sử dụng Loa Kéo&amp;nbsp;&lt;br&gt;✅ Villa có cọc thêm 2tr tiền đảm bảo tài sản khi check in. Sẽ hoàn lại cho khách khi check out nếu không xảy ra hư hỏng tài sản hoặc phát sinh thêm&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>SC30</t>
+  </si>
+  <si>
+    <t>Villa Đà Lạt SC30 - Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Giới thiệu Villa Đà Lạt SC30&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;🌺Cơ cấu: Cơ cấu: 3 Phòng -3 giường nệm extra&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;❇Toạ lạc tại đường Hùng Vương cách chợ khoảng 5km với 7-10 phút chạy xe. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-3-column-5.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;❇&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;❇️ Có 3 phòng ngủ - 4 WC. Giao chìa khoá nguyên căn.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;❇️ Sân vườn rộng, với những góc so chill cho những bữa tiệc BBQ quây quần bên gia đình. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-27-column-15.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;👉&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;Chắc chắn là nơi nghỉ dưỡng du lịch lý tưởng cho du khách khi đến với thành phố hoa Đà Lạt&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>SC31</t>
+  </si>
+  <si>
+    <t>VILLA ĐÀ LẠT SC31 - Villa Ngắm View Nhà Lồng Mang Phong Cách Bắc Âu</t>
+  </si>
+  <si>
+    <t>Địa chỉ: KQH Nguyễn tử lực - Phường 8 - Đà Lạt</t>
   </si>
   <si>
     <t>VILLA BÌNH DÂN</t>
   </si>
   <si>
-    <t>&lt;p&gt;aaaa&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>nv02</t>
-  </si>
-  <si>
-    <t>aaaa</t>
-  </si>
-  <si>
-    <t>aaaaa</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;aaaaa&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>nv03</t>
-  </si>
-  <si>
-    <t>aaaaaaa</t>
-  </si>
-  <si>
-    <t>nv04</t>
-  </si>
-  <si>
-    <t>aaaaaa</t>
-  </si>
-  <si>
-    <t>SC23</t>
-  </si>
-  <si>
-    <t>Villa Đà Lạt SC23 - Villa mới toanh theo phong cách hiện đại, sang trọng.</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Địa chỉ: 91 Hùng Vương - Khu Du lịch Nam Hồ Phường 11 - TP. Đà Lạt</t>
-  </si>
-  <si>
-    <t>VILLA CAO CẤP</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Villa Đà Lạt SC23 - Villa mới toanh theo phong cách hiện đại, sang trọng. Nằm trong KDL Biệt thự nghĩ dưỡng Nam Hồ-Khu vực đặc biệt an ninh và yên tĩnh. Cách chợ Đà Lạt 5km với 5-7 phút di chuyển ra trung tâm.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Cơ cấu: &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-14-column-33.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;?&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Gồm 4 phòng ngủ: 3 Phòng 1 giường (1m8) và 1 phòng 2 giường (1m6) - 5wc Villa có trang bị thêm nệm dự phòng. Sức chứa 12-15 Khách. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-14-column-33.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;?&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;01 Phòng khách , 01 phòng bếp đầy đủ tiện nghi. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-14-column-33.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;?&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Sân vườn rộng rãi tiêu chuẩn thích hợp cho BBQ. Đậu xe trong khuôn viên.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>SC27</t>
-  </si>
-  <si>
-    <t>Villa Đà Lạt SC27 - Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng.</t>
-  </si>
-  <si>
-    <t>Địa chỉ :Toạ lạc tại đường Hùng Vương cách chợ khoảng 5km với 7-10 phút chạy xe</t>
-  </si>
-  <si>
-    <t>VILLA VIEW ĐẸP</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Villa Đà Lạt SC27 - Chạm vào hương sắc tình khúc Đà Lạt, tôi ngất ngây.&lt;br&gt;Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng&lt;br&gt;Cơ cấu:&lt;br&gt;Có 3 phòng ngủ (2P đơn và 1P đôi).4wc.&lt;br&gt;Giao chìa khoá nguyên căn.&lt;/p&gt;&lt;p&gt;❇ Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng. &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp;&amp;nbsp;&lt;br&gt;❇️ Sân vườn rộng, với những góc so chill cho những bữa tiệc BBQ quây quần bên gia đình.&lt;/p&gt;&lt;p&gt;❇Toạ lạc tại đường Hùng Vương cách chợ khoảng 5km với 7-10 phút chạy xe&lt;/p&gt;&lt;p&gt;? Chắc chắn là nơi nghỉ dưỡng du lịch lý tưởng cho du khách khi đến với thành phố hoa Đà Lạt&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>SC29</t>
-  </si>
-  <si>
-    <t>Villa Đà Lạt SC29 - Villa Sân vườn rộng, với những góc so chill cho những bữa tiệc BBQ quây quần bên gia đình.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Địa chỉ: 91 Hùng Vương - Khu du lịch Nam Hồ </t>
-  </si>
-  <si>
-    <t>VILLA SÂN VƯỜN</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Villa Đà Lạt SC29 - Villa Sân vườn rộng, với những góc so chill cho những bữa tiệc BBQ quây quần bên gia đình.&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;Cơ cấu: 2 đơn + 1 đôi , 4wc. Mỗi căn tiêu chuẩn 10kh (có 2 nệm extra free trong từng căn).&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;❇Toạ lạc tại đường Hùng Vương cách chợ khoảng 5km với 7-10 phút chạy xe. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-3-column-5.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;❇&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt; Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng.&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;❇️ Có 3 phòng ngủ - 4 WC. Giao chìa khoá nguyên căn.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;❇️ Sân vườn rộng, với những góc so chill cho những bữa tiệc BBQ quây quần bên gia đình. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-27-column-15.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;?&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt; Chắc chắn là nơi nghỉ dưỡng du lịch lý tưởng cho du khách khi đến với thành phố hoa Đà Lạt&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>SC3</t>
-  </si>
-  <si>
-    <t>VILLA ĐÀ LẠT SC3 - Villa Sân Vườn Thích Hợp Cho Nghĩ Dưỡng Gia Đình</t>
-  </si>
-  <si>
-    <t>Vị trí: Đường Nguyễn Đình Chiểu, Phường 9, Tp. Đà Lạt (Cách Hồ Xuân Hương 1km và cách Trung tâm ~2km)</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Giới thiệu VILLA ĐÀ LẠT SC3 - Villa rộng ~600m2 (Cả sân vườn) với 5 Phòng Ngủ cùng phong cách Bán Cổ Điển&lt;br&gt;?Cơ cấu:&amp;nbsp;&lt;br&gt;5 Phòng Ngủ (Giường Size Lớn) + 4 nệm phụ&lt;br&gt;- Máy Lạnh riêng mỗi phòng&amp;nbsp;&lt;br&gt;- Toilet riêng&lt;br&gt;- 1 Phòng Khách có lò sưởi&amp;nbsp;&lt;br&gt;- 1 Sân vườn (Chảo đốt lửa)&amp;nbsp;&lt;br&gt;- Sân đậu được 3-4 ô tô&amp;nbsp;&lt;br&gt;- Tiêu chuẩn 12 Người lớn &amp;amp; 4 Bé (Dưới 6 tuổi)&lt;br&gt;Tiện ích:&amp;nbsp;&lt;br&gt;✅ Mỗi Phòng đều trang bị đầy đủ: Máy Lạnh - Toilet riêng - Smart Tivi - Nước nóng - Giường size lớn&lt;br&gt;✅ Trang bị đầy đủ: Sữa tắm, dầu gội, bàn chải, nước rửa tay, máy sấy, bàn ủi…&lt;br&gt;⚜ Không gian phòng khách và bếp đầy đủ tiện nghi: Lò Sưởi, Tủ Lạnh, Bếp, Máy giặt, Máy Sấy, Loa Marshall ….&lt;br&gt;⚜ Sân rộng thoáng phù hợp cho tiệc BBQ ngoài trời, có cả khu vực đốt lửa (Chảo lửa ngoài trời)&lt;br&gt;⚜ Được trang bị cả không gian giải trí cho bé: 1 bàn Bi-lắc mini, sách truyện, gấu bông ...&lt;br&gt;⚜ Villa nằm trong trong khu vực yên tĩnh, thích hợp cho gia đình nghỉ dưỡng&lt;br&gt;⚜ Đường dễ đi, sân đậu xe thoải mái&lt;br&gt;⚜ Cung đường thuận tiện di chuyển đến các địa điểm ăn uống và du lịch như Hồ Xuân Hương, Vườn Hoa Thành Phố, Thung Lũng Tình Yêu, Đồi Mộng Mơ, XQ Đà Lạt Sử Quán, Vườn Dâu v...v...&lt;br&gt;⚜ Giao chìa khoá nguyên căn&lt;br&gt;——————&lt;br&gt;❌ LƯU Ý:&amp;nbsp;&lt;br&gt;✅ Quý khách không sử dụng Loa Kéo&amp;nbsp;&lt;br&gt;✅ Villa có cọc thêm 2tr tiền đảm bảo tài sản khi check in. Sẽ hoàn lại cho khách khi check out nếu không xảy ra hư hỏng tài sản hoặc phát sinh thêm&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>SC30</t>
-  </si>
-  <si>
-    <t>Villa Đà Lạt SC30 - Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Giới thiệu Villa Đà Lạt SC30&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;?Cơ cấu: Cơ cấu: 3 Phòng -3 giường nệm extra&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;❇Toạ lạc tại đường Hùng Vương cách chợ khoảng 5km với 7-10 phút chạy xe. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-3-column-5.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;❇&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;❇️ Có 3 phòng ngủ - 4 WC. Giao chìa khoá nguyên căn.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;❇️ Sân vườn rộng, với những góc so chill cho những bữa tiệc BBQ quây quần bên gia đình. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-27-column-15.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;?&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;Chắc chắn là nơi nghỉ dưỡng du lịch lý tưởng cho du khách khi đến với thành phố hoa Đà Lạt&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>SC31</t>
-  </si>
-  <si>
-    <t>VILLA ĐÀ LẠT SC31 - Villa Ngắm View Nhà Lồng Mang Phong Cách Bắc Âu</t>
-  </si>
-  <si>
-    <t>Địa chỉ: KQH Nguyễn tử lực - Phường 8 - Đà Lạt</t>
-  </si>
-  <si>
     <t>&lt;p&gt;Giới thiệu: VILLA ĐÀ LẠT SC31 - Villa Ngắm View Nhà Lồng Mang Phong Cách Bắc Âu Cổ Điển&amp;nbsp;&lt;br&gt;☀️ Cơ cấu&lt;br&gt;- 5 phòng đơn&lt;br&gt;- 4wc&lt;br&gt;mỗi phòng đều có ban công view nhà lồng xịn xò&lt;br&gt;- Phòng bếp, phòng khách đầy đủ tiện nghi&lt;br&gt;- Sân bbq đầy đủ dụng cụ&lt;br&gt;- có hỗ trợ thêm nệm&lt;br&gt;- sức chứa 10-15 khách&lt;/p&gt;&lt;p&gt;☀️ Tiện ích&lt;br&gt;- Cách trung tâm chỉ 5-7p chạy xe , gần các địa điểm tham quan.&amp;nbsp;&lt;br&gt;- Khu quy hoạch đường xá thuận tiện, xe hơi tới tận cổng&lt;br&gt;- Home cung cấp đầy đủ dụng cụ vệ sinh cá nhân ( khăn tắm, bàn chải + kđr, máy sấy tóc, bàn ủi)&lt;/p&gt;</t>
   </si>
   <si>
+    <t>text1</t>
+  </si>
+  <si>
+    <t>Vailla 1</t>
+  </si>
+  <si>
+    <t>q3523523532523532</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;2352352525&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>text2</t>
+  </si>
+  <si>
+    <t>345345</t>
+  </si>
+  <si>
+    <t>3632634636534</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;22353215235325&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>text3</t>
+  </si>
+  <si>
+    <t>sdhsrhserthse</t>
+  </si>
+  <si>
+    <t>47rhjrturturtyurty</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;4734754735475&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>text4</t>
+  </si>
+  <si>
+    <t>46446463</t>
+  </si>
+  <si>
+    <t>567347354673457345673456</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;467346734567345654&lt;/p&gt;</t>
+  </si>
+  <si>
     <t>VBT1</t>
   </si>
   <si>
     <t>VILLA Đà Lạt Hồ Bơi HB1 - Có sân thượng ngắm view thành phố</t>
   </si>
   <si>
-    <t>? Vị trí : 100/2 Nam Hồ. Trường tiểu học nam hồ đi tới 500m</t>
+    <t>📍 Vị trí : 100/2 Nam Hồ. Trường tiểu học nam hồ đi tới 500m</t>
   </si>
   <si>
     <t>VILLA HỒ BƠI</t>
   </si>
   <si>
-    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Giới thiệu: VILLA Đà Lạt Hồ Bơi HB1&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- Có sân thượng ngắm view thành phố&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Cơ cấu&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;phòng: 2 đôi 2 đơn. 1 phòng đôi dưới trệt. Wc riêng từng phòng&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;?Có 1 phòng có bồn tắm view thành phố&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;?‍♂️Có hồ bơi&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;?Có sân bbq&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;?Bãi xe rộng ( 3 xe 7 chỗ, vô được xe 16 chỗ) Đường nhựa rộng, không dốc, xung quanh homestay villa nhiều&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
+    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Giới thiệu: VILLA Đà Lạt Hồ Bơi HB1&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- Có sân thượng ngắm view thành phố&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Cơ cấu&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;phòng: 2 đôi 2 đơn. 1 phòng đôi dưới trệt. Wc riêng từng phòng&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;🍀Có 1 phòng có bồn tắm view thành phố&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;🏊‍♂️Có hồ bơi&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;🍖Có sân bbq&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;🚘Bãi xe rộng ( 3 xe 7 chỗ, vô được xe 16 chỗ) Đường nhựa rộng, không dốc, xung quanh homestay villa nhiều&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -644,31 +659,31 @@
         <v>50</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G8" t="n" s="0">
-        <v>1000.0</v>
+        <v>1000000.0</v>
       </c>
       <c r="H8" t="n" s="0">
-        <v>45347.0</v>
+        <v>45345.0</v>
       </c>
       <c r="I8" t="n" s="0">
-        <v>45347.0</v>
+        <v>45345.0</v>
       </c>
       <c r="J8" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="K8" t="s" s="0">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L8" t="s" s="0">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9">
@@ -676,37 +691,37 @@
         <v>9.0</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G9" t="n" s="0">
-        <v>1000.0</v>
+        <v>1000000.0</v>
       </c>
       <c r="H9" t="n" s="0">
-        <v>45347.0</v>
+        <v>45345.0</v>
       </c>
       <c r="I9" t="n" s="0">
-        <v>45347.0</v>
+        <v>45345.0</v>
       </c>
       <c r="J9" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="K9" t="s" s="0">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="L9" t="s" s="0">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10">
@@ -714,37 +729,37 @@
         <v>10.0</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G10" t="n" s="0">
-        <v>1000.0</v>
+        <v>1000000.0</v>
       </c>
       <c r="H10" t="n" s="0">
-        <v>45347.0</v>
+        <v>45345.0</v>
       </c>
       <c r="I10" t="n" s="0">
-        <v>45347.0</v>
+        <v>45345.0</v>
       </c>
       <c r="J10" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="K10" t="s" s="0">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="L10" t="s" s="0">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11">
@@ -752,37 +767,37 @@
         <v>11.0</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G11" t="n" s="0">
-        <v>1000.0</v>
+        <v>1000000.0</v>
       </c>
       <c r="H11" t="n" s="0">
-        <v>45347.0</v>
+        <v>45343.0</v>
       </c>
       <c r="I11" t="n" s="0">
-        <v>45347.0</v>
+        <v>45343.0</v>
       </c>
       <c r="J11" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="K11" t="s" s="0">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L11" t="s" s="0">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12">
@@ -790,19 +805,19 @@
         <v>12.0</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="F12" t="s" s="0">
         <v>62</v>
-      </c>
-      <c r="D12" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="E12" t="s" s="0">
-        <v>63</v>
-      </c>
-      <c r="F12" t="s" s="0">
-        <v>64</v>
       </c>
       <c r="G12" t="n" s="0">
         <v>1000000.0</v>
@@ -817,10 +832,10 @@
         <v>1.0</v>
       </c>
       <c r="K12" t="s" s="0">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="L12" t="s" s="0">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13">
@@ -828,37 +843,37 @@
         <v>13.0</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="E13" t="s" s="0">
         <v>40</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G13" t="n" s="0">
         <v>1000000.0</v>
       </c>
       <c r="H13" t="n" s="0">
-        <v>45345.0</v>
+        <v>45343.0</v>
       </c>
       <c r="I13" t="n" s="0">
-        <v>45345.0</v>
+        <v>45343.0</v>
       </c>
       <c r="J13" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="K13" t="s" s="0">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="L13" t="s" s="0">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14">
@@ -866,28 +881,28 @@
         <v>14.0</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G14" t="n" s="0">
         <v>1000000.0</v>
       </c>
       <c r="H14" t="n" s="0">
-        <v>45345.0</v>
+        <v>45349.0</v>
       </c>
       <c r="I14" t="n" s="0">
-        <v>45345.0</v>
+        <v>45349.0</v>
       </c>
       <c r="J14" t="n" s="0">
         <v>1.0</v>
@@ -896,7 +911,7 @@
         <v>75</v>
       </c>
       <c r="L14" t="s" s="0">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15">
@@ -904,37 +919,37 @@
         <v>15.0</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G15" t="n" s="0">
-        <v>1000000.0</v>
+        <v>4124.0</v>
       </c>
       <c r="H15" t="n" s="0">
-        <v>45343.0</v>
+        <v>45349.0</v>
       </c>
       <c r="I15" t="n" s="0">
-        <v>45343.0</v>
+        <v>45349.0</v>
       </c>
       <c r="J15" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="K15" t="s" s="0">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="L15" t="s" s="0">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16">
@@ -942,37 +957,37 @@
         <v>16.0</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="G16" t="n" s="0">
-        <v>1000000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="H16" t="n" s="0">
-        <v>45345.0</v>
+        <v>45349.0</v>
       </c>
       <c r="I16" t="n" s="0">
-        <v>45345.0</v>
+        <v>45349.0</v>
       </c>
       <c r="J16" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="K16" t="s" s="0">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="L16" t="s" s="0">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17">
@@ -980,37 +995,37 @@
         <v>17.0</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G17" t="n" s="0">
-        <v>1000000.0</v>
+        <v>4124.0</v>
       </c>
       <c r="H17" t="n" s="0">
-        <v>45343.0</v>
+        <v>45349.0</v>
       </c>
       <c r="I17" t="n" s="0">
-        <v>45343.0</v>
+        <v>45349.0</v>
       </c>
       <c r="J17" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="K17" t="s" s="0">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="L17" t="s" s="0">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18">
@@ -1018,10 +1033,10 @@
         <v>18.0</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D18" t="s" s="0">
         <v>40</v>
@@ -1030,7 +1045,7 @@
         <v>40</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G18" t="n" s="0">
         <v>1000000.0</v>
@@ -1045,10 +1060,10 @@
         <v>1.0</v>
       </c>
       <c r="K18" t="s" s="0">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="L18" t="s" s="0">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/document/houses.xlsx
+++ b/src/main/webapp/document/houses.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="94">
   <si>
     <t>STT</t>
   </si>
@@ -80,14 +80,14 @@
     <t>7</t>
   </si>
   <si>
-    <t>📍Địa chỉ: KQH An Sơn P4
+    <t>?Địa chỉ: KQH An Sơn P4
 ❌ Xe 29 chỗ xuống được villa (nhưng có dốc nhẹ,đậu cách 20m). Xe 16,7,4 chỗ đậu trước nhà.</t>
   </si>
   <si>
     <t>BIỆT THỰ SANG TRỌNG</t>
   </si>
   <si>
-    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Giới thiệu Biệt Thự Đà Lạt BT1&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- nằm trong khu biệt thự yên tĩnh, view đồi núi , khuôn viên rộng rãi cực kỳ rộng thích hợp nghỉ dưỡng Cơ Cấu&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;✴️ Thiết kế gồm 7 Phòng Ngủ&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;+ 5 Phòng - 1 giường 1m6&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;+ 1 Phòng- 1 giường 1m6&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;+ 1 nệm 1m4 + 1 Phòng - 2 giường 1m6.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Tổng cộng 7wc&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Tiện ích:&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Phòng khách, bếp đầy đủ tiện nghi, khoảng sân rộng tươi mát,hồ cá Koi tạo cảm thư giãn cho du khách và tổ chức tiệc BBQ thoải mái. 🔅Cách chợ Đà Lạt 5km - nằm trong khu biệt thự yên tĩnh, view đồi núi , khuôn viên rộng rãi cực kỳ rộng thích hợp nghỉ dưỡng.&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
+    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Giới thiệu Biệt Thự Đà Lạt BT1&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- nằm trong khu biệt thự yên tĩnh, view đồi núi , khuôn viên rộng rãi cực kỳ rộng thích hợp nghỉ dưỡng Cơ Cấu&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;✴️ Thiết kế gồm 7 Phòng Ngủ&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;+ 5 Phòng - 1 giường 1m6&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;+ 1 Phòng- 1 giường 1m6&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;+ 1 nệm 1m4 + 1 Phòng - 2 giường 1m6.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Tổng cộng 7wc&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Tiện ích:&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Phòng khách, bếp đầy đủ tiện nghi, khoảng sân rộng tươi mát,hồ cá Koi tạo cảm thư giãn cho du khách và tổ chức tiệc BBQ thoải mái. ?Cách chợ Đà Lạt 5km - nằm trong khu biệt thự yên tĩnh, view đồi núi , khuôn viên rộng rãi cực kỳ rộng thích hợp nghỉ dưỡng.&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>CG8</t>
@@ -178,7 +178,7 @@
     <t>VILLA CAO CẤP</t>
   </si>
   <si>
-    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Villa Đà Lạt SC23 - Villa mới toanh theo phong cách hiện đại, sang trọng. Nằm trong KDL Biệt thự nghĩ dưỡng Nam Hồ-Khu vực đặc biệt an ninh và yên tĩnh. Cách chợ Đà Lạt 5km với 5-7 phút di chuyển ra trung tâm.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Cơ cấu: &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-14-column-33.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;🤗&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Gồm 4 phòng ngủ: 3 Phòng 1 giường (1m8) và 1 phòng 2 giường (1m6) - 5wc Villa có trang bị thêm nệm dự phòng. Sức chứa 12-15 Khách. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-14-column-33.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;🤗&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;01 Phòng khách , 01 phòng bếp đầy đủ tiện nghi. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-14-column-33.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;🤗&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Sân vườn rộng rãi tiêu chuẩn thích hợp cho BBQ. Đậu xe trong khuôn viên.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
+    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Villa Đà Lạt SC23 - Villa mới toanh theo phong cách hiện đại, sang trọng. Nằm trong KDL Biệt thự nghĩ dưỡng Nam Hồ-Khu vực đặc biệt an ninh và yên tĩnh. Cách chợ Đà Lạt 5km với 5-7 phút di chuyển ra trung tâm.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Cơ cấu: &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-14-column-33.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;?&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Gồm 4 phòng ngủ: 3 Phòng 1 giường (1m8) và 1 phòng 2 giường (1m6) - 5wc Villa có trang bị thêm nệm dự phòng. Sức chứa 12-15 Khách. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-14-column-33.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;?&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;01 Phòng khách , 01 phòng bếp đầy đủ tiện nghi. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-14-column-33.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;?&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Sân vườn rộng rãi tiêu chuẩn thích hợp cho BBQ. Đậu xe trong khuôn viên.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>SC27</t>
@@ -193,7 +193,7 @@
     <t>VILLA VIEW ĐẸP</t>
   </si>
   <si>
-    <t>&lt;p&gt;Villa Đà Lạt SC27 - Chạm vào hương sắc tình khúc Đà Lạt, tôi ngất ngây.&lt;br&gt;Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng&lt;br&gt;Cơ cấu:&lt;br&gt;Có 3 phòng ngủ (2P đơn và 1P đôi).4wc.&lt;br&gt;Giao chìa khoá nguyên căn.&lt;/p&gt;&lt;p&gt;❇ Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng. &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp;&amp;nbsp;&lt;br&gt;❇️ Sân vườn rộng, với những góc so chill cho những bữa tiệc BBQ quây quần bên gia đình.&lt;/p&gt;&lt;p&gt;❇Toạ lạc tại đường Hùng Vương cách chợ khoảng 5km với 7-10 phút chạy xe&lt;/p&gt;&lt;p&gt;👉 Chắc chắn là nơi nghỉ dưỡng du lịch lý tưởng cho du khách khi đến với thành phố hoa Đà Lạt&lt;/p&gt;</t>
+    <t>&lt;p&gt;Villa Đà Lạt SC27 - Chạm vào hương sắc tình khúc Đà Lạt, tôi ngất ngây.&lt;br&gt;Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng&lt;br&gt;Cơ cấu:&lt;br&gt;Có 3 phòng ngủ (2P đơn và 1P đôi).4wc.&lt;br&gt;Giao chìa khoá nguyên căn.&lt;/p&gt;&lt;p&gt;❇ Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng. &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp;&amp;nbsp;&lt;br&gt;❇️ Sân vườn rộng, với những góc so chill cho những bữa tiệc BBQ quây quần bên gia đình.&lt;/p&gt;&lt;p&gt;❇Toạ lạc tại đường Hùng Vương cách chợ khoảng 5km với 7-10 phút chạy xe&lt;/p&gt;&lt;p&gt;? Chắc chắn là nơi nghỉ dưỡng du lịch lý tưởng cho du khách khi đến với thành phố hoa Đà Lạt&lt;/p&gt;</t>
   </si>
   <si>
     <t>SC29</t>
@@ -208,7 +208,7 @@
     <t>VILLA SÂN VƯỜN</t>
   </si>
   <si>
-    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Villa Đà Lạt SC29 - Villa Sân vườn rộng, với những góc so chill cho những bữa tiệc BBQ quây quần bên gia đình.&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;Cơ cấu: 2 đơn + 1 đôi , 4wc. Mỗi căn tiêu chuẩn 10kh (có 2 nệm extra free trong từng căn).&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;❇Toạ lạc tại đường Hùng Vương cách chợ khoảng 5km với 7-10 phút chạy xe. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-3-column-5.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;❇&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt; Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng.&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;❇️ Có 3 phòng ngủ - 4 WC. Giao chìa khoá nguyên căn.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;❇️ Sân vườn rộng, với những góc so chill cho những bữa tiệc BBQ quây quần bên gia đình. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-27-column-15.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;👉&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt; Chắc chắn là nơi nghỉ dưỡng du lịch lý tưởng cho du khách khi đến với thành phố hoa Đà Lạt&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
+    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Villa Đà Lạt SC29 - Villa Sân vườn rộng, với những góc so chill cho những bữa tiệc BBQ quây quần bên gia đình.&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;Cơ cấu: 2 đơn + 1 đôi , 4wc. Mỗi căn tiêu chuẩn 10kh (có 2 nệm extra free trong từng căn).&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;❇Toạ lạc tại đường Hùng Vương cách chợ khoảng 5km với 7-10 phút chạy xe. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-3-column-5.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;❇&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt; Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng.&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;❇️ Có 3 phòng ngủ - 4 WC. Giao chìa khoá nguyên căn.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;❇️ Sân vườn rộng, với những góc so chill cho những bữa tiệc BBQ quây quần bên gia đình. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-27-column-15.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;?&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt; Chắc chắn là nơi nghỉ dưỡng du lịch lý tưởng cho du khách khi đến với thành phố hoa Đà Lạt&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>SC3</t>
@@ -220,7 +220,7 @@
     <t>Vị trí: Đường Nguyễn Đình Chiểu, Phường 9, Tp. Đà Lạt (Cách Hồ Xuân Hương 1km và cách Trung tâm ~2km)</t>
   </si>
   <si>
-    <t>&lt;p&gt;Giới thiệu VILLA ĐÀ LẠT SC3 - Villa rộng ~600m2 (Cả sân vườn) với 5 Phòng Ngủ cùng phong cách Bán Cổ Điển&lt;br&gt;🌸Cơ cấu:&amp;nbsp;&lt;br&gt;5 Phòng Ngủ (Giường Size Lớn) + 4 nệm phụ&lt;br&gt;- Máy Lạnh riêng mỗi phòng&amp;nbsp;&lt;br&gt;- Toilet riêng&lt;br&gt;- 1 Phòng Khách có lò sưởi&amp;nbsp;&lt;br&gt;- 1 Sân vườn (Chảo đốt lửa)&amp;nbsp;&lt;br&gt;- Sân đậu được 3-4 ô tô&amp;nbsp;&lt;br&gt;- Tiêu chuẩn 12 Người lớn &amp;amp; 4 Bé (Dưới 6 tuổi)&lt;br&gt;Tiện ích:&amp;nbsp;&lt;br&gt;✅ Mỗi Phòng đều trang bị đầy đủ: Máy Lạnh - Toilet riêng - Smart Tivi - Nước nóng - Giường size lớn&lt;br&gt;✅ Trang bị đầy đủ: Sữa tắm, dầu gội, bàn chải, nước rửa tay, máy sấy, bàn ủi…&lt;br&gt;⚜ Không gian phòng khách và bếp đầy đủ tiện nghi: Lò Sưởi, Tủ Lạnh, Bếp, Máy giặt, Máy Sấy, Loa Marshall ….&lt;br&gt;⚜ Sân rộng thoáng phù hợp cho tiệc BBQ ngoài trời, có cả khu vực đốt lửa (Chảo lửa ngoài trời)&lt;br&gt;⚜ Được trang bị cả không gian giải trí cho bé: 1 bàn Bi-lắc mini, sách truyện, gấu bông ...&lt;br&gt;⚜ Villa nằm trong trong khu vực yên tĩnh, thích hợp cho gia đình nghỉ dưỡng&lt;br&gt;⚜ Đường dễ đi, sân đậu xe thoải mái&lt;br&gt;⚜ Cung đường thuận tiện di chuyển đến các địa điểm ăn uống và du lịch như Hồ Xuân Hương, Vườn Hoa Thành Phố, Thung Lũng Tình Yêu, Đồi Mộng Mơ, XQ Đà Lạt Sử Quán, Vườn Dâu v...v...&lt;br&gt;⚜ Giao chìa khoá nguyên căn&lt;br&gt;——————&lt;br&gt;❌ LƯU Ý:&amp;nbsp;&lt;br&gt;✅ Quý khách không sử dụng Loa Kéo&amp;nbsp;&lt;br&gt;✅ Villa có cọc thêm 2tr tiền đảm bảo tài sản khi check in. Sẽ hoàn lại cho khách khi check out nếu không xảy ra hư hỏng tài sản hoặc phát sinh thêm&lt;/p&gt;</t>
+    <t>&lt;p&gt;Giới thiệu VILLA ĐÀ LẠT SC3 - Villa rộng ~600m2 (Cả sân vườn) với 5 Phòng Ngủ cùng phong cách Bán Cổ Điển&lt;br&gt;?Cơ cấu:&amp;nbsp;&lt;br&gt;5 Phòng Ngủ (Giường Size Lớn) + 4 nệm phụ&lt;br&gt;- Máy Lạnh riêng mỗi phòng&amp;nbsp;&lt;br&gt;- Toilet riêng&lt;br&gt;- 1 Phòng Khách có lò sưởi&amp;nbsp;&lt;br&gt;- 1 Sân vườn (Chảo đốt lửa)&amp;nbsp;&lt;br&gt;- Sân đậu được 3-4 ô tô&amp;nbsp;&lt;br&gt;- Tiêu chuẩn 12 Người lớn &amp;amp; 4 Bé (Dưới 6 tuổi)&lt;br&gt;Tiện ích:&amp;nbsp;&lt;br&gt;✅ Mỗi Phòng đều trang bị đầy đủ: Máy Lạnh - Toilet riêng - Smart Tivi - Nước nóng - Giường size lớn&lt;br&gt;✅ Trang bị đầy đủ: Sữa tắm, dầu gội, bàn chải, nước rửa tay, máy sấy, bàn ủi…&lt;br&gt;⚜ Không gian phòng khách và bếp đầy đủ tiện nghi: Lò Sưởi, Tủ Lạnh, Bếp, Máy giặt, Máy Sấy, Loa Marshall ….&lt;br&gt;⚜ Sân rộng thoáng phù hợp cho tiệc BBQ ngoài trời, có cả khu vực đốt lửa (Chảo lửa ngoài trời)&lt;br&gt;⚜ Được trang bị cả không gian giải trí cho bé: 1 bàn Bi-lắc mini, sách truyện, gấu bông ...&lt;br&gt;⚜ Villa nằm trong trong khu vực yên tĩnh, thích hợp cho gia đình nghỉ dưỡng&lt;br&gt;⚜ Đường dễ đi, sân đậu xe thoải mái&lt;br&gt;⚜ Cung đường thuận tiện di chuyển đến các địa điểm ăn uống và du lịch như Hồ Xuân Hương, Vườn Hoa Thành Phố, Thung Lũng Tình Yêu, Đồi Mộng Mơ, XQ Đà Lạt Sử Quán, Vườn Dâu v...v...&lt;br&gt;⚜ Giao chìa khoá nguyên căn&lt;br&gt;——————&lt;br&gt;❌ LƯU Ý:&amp;nbsp;&lt;br&gt;✅ Quý khách không sử dụng Loa Kéo&amp;nbsp;&lt;br&gt;✅ Villa có cọc thêm 2tr tiền đảm bảo tài sản khi check in. Sẽ hoàn lại cho khách khi check out nếu không xảy ra hư hỏng tài sản hoặc phát sinh thêm&lt;/p&gt;</t>
   </si>
   <si>
     <t>SC30</t>
@@ -229,7 +229,7 @@
     <t>Villa Đà Lạt SC30 - Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng</t>
   </si>
   <si>
-    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Giới thiệu Villa Đà Lạt SC30&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;🌺Cơ cấu: Cơ cấu: 3 Phòng -3 giường nệm extra&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;❇Toạ lạc tại đường Hùng Vương cách chợ khoảng 5km với 7-10 phút chạy xe. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-3-column-5.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;❇&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;❇️ Có 3 phòng ngủ - 4 WC. Giao chìa khoá nguyên căn.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;❇️ Sân vườn rộng, với những góc so chill cho những bữa tiệc BBQ quây quần bên gia đình. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-27-column-15.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;👉&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;Chắc chắn là nơi nghỉ dưỡng du lịch lý tưởng cho du khách khi đến với thành phố hoa Đà Lạt&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
+    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Giới thiệu Villa Đà Lạt SC30&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;?Cơ cấu: Cơ cấu: 3 Phòng -3 giường nệm extra&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;❇Toạ lạc tại đường Hùng Vương cách chợ khoảng 5km với 7-10 phút chạy xe. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-3-column-5.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;❇&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;❇️ Có 3 phòng ngủ - 4 WC. Giao chìa khoá nguyên căn.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;❇️ Sân vườn rộng, với những góc so chill cho những bữa tiệc BBQ quây quần bên gia đình. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-27-column-15.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;?&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;Chắc chắn là nơi nghỉ dưỡng du lịch lý tưởng cho du khách khi đến với thành phố hoa Đà Lạt&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>SC31</t>
@@ -247,52 +247,40 @@
     <t>&lt;p&gt;Giới thiệu: VILLA ĐÀ LẠT SC31 - Villa Ngắm View Nhà Lồng Mang Phong Cách Bắc Âu Cổ Điển&amp;nbsp;&lt;br&gt;☀️ Cơ cấu&lt;br&gt;- 5 phòng đơn&lt;br&gt;- 4wc&lt;br&gt;mỗi phòng đều có ban công view nhà lồng xịn xò&lt;br&gt;- Phòng bếp, phòng khách đầy đủ tiện nghi&lt;br&gt;- Sân bbq đầy đủ dụng cụ&lt;br&gt;- có hỗ trợ thêm nệm&lt;br&gt;- sức chứa 10-15 khách&lt;/p&gt;&lt;p&gt;☀️ Tiện ích&lt;br&gt;- Cách trung tâm chỉ 5-7p chạy xe , gần các địa điểm tham quan.&amp;nbsp;&lt;br&gt;- Khu quy hoạch đường xá thuận tiện, xe hơi tới tận cổng&lt;br&gt;- Home cung cấp đầy đủ dụng cụ vệ sinh cá nhân ( khăn tắm, bàn chải + kđr, máy sấy tóc, bàn ủi)&lt;/p&gt;</t>
   </si>
   <si>
-    <t>text1</t>
-  </si>
-  <si>
-    <t>Vailla 1</t>
-  </si>
-  <si>
-    <t>q3523523532523532</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;2352352525&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>text2</t>
-  </si>
-  <si>
-    <t>345345</t>
-  </si>
-  <si>
-    <t>3632634636534</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;22353215235325&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>text3</t>
-  </si>
-  <si>
-    <t>sdhsrhserthse</t>
-  </si>
-  <si>
-    <t>47rhjrturturtyurty</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;4734754735475&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>text4</t>
-  </si>
-  <si>
-    <t>46446463</t>
-  </si>
-  <si>
-    <t>567347354673457345673456</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;467346734567345654&lt;/p&gt;</t>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>aaaa</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;aaaa&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>dd</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;aaaaa&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>test4</t>
+  </si>
+  <si>
+    <t>aaaaaaa</t>
   </si>
   <si>
     <t>VBT1</t>
@@ -301,13 +289,13 @@
     <t>VILLA Đà Lạt Hồ Bơi HB1 - Có sân thượng ngắm view thành phố</t>
   </si>
   <si>
-    <t>📍 Vị trí : 100/2 Nam Hồ. Trường tiểu học nam hồ đi tới 500m</t>
+    <t>? Vị trí : 100/2 Nam Hồ. Trường tiểu học nam hồ đi tới 500m</t>
   </si>
   <si>
     <t>VILLA HỒ BƠI</t>
   </si>
   <si>
-    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Giới thiệu: VILLA Đà Lạt Hồ Bơi HB1&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- Có sân thượng ngắm view thành phố&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Cơ cấu&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;phòng: 2 đôi 2 đơn. 1 phòng đôi dưới trệt. Wc riêng từng phòng&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;🍀Có 1 phòng có bồn tắm view thành phố&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;🏊‍♂️Có hồ bơi&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;🍖Có sân bbq&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;🚘Bãi xe rộng ( 3 xe 7 chỗ, vô được xe 16 chỗ) Đường nhựa rộng, không dốc, xung quanh homestay villa nhiều&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
+    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Giới thiệu: VILLA Đà Lạt Hồ Bơi HB1&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- Có sân thượng ngắm view thành phố&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Cơ cấu&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;phòng: 2 đôi 2 đơn. 1 phòng đôi dưới trệt. Wc riêng từng phòng&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;?Có 1 phòng có bồn tắm view thành phố&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;?‍♂️Có hồ bơi&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;?Có sân bbq&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;?Bãi xe rộng ( 3 xe 7 chỗ, vô được xe 16 chỗ) Đường nhựa rộng, không dốc, xung quanh homestay villa nhiều&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -887,22 +875,22 @@
         <v>78</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F14" t="s" s="0">
         <v>79</v>
       </c>
       <c r="G14" t="n" s="0">
-        <v>1000000.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H14" t="n" s="0">
-        <v>45349.0</v>
+        <v>45350.0</v>
       </c>
       <c r="I14" t="n" s="0">
-        <v>45349.0</v>
+        <v>45350.0</v>
       </c>
       <c r="J14" t="n" s="0">
         <v>1.0</v>
@@ -928,19 +916,19 @@
         <v>21</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G15" t="n" s="0">
-        <v>4124.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H15" t="n" s="0">
-        <v>45349.0</v>
+        <v>45350.0</v>
       </c>
       <c r="I15" t="n" s="0">
-        <v>45349.0</v>
+        <v>45350.0</v>
       </c>
       <c r="J15" t="n" s="0">
         <v>1.0</v>
@@ -949,7 +937,7 @@
         <v>75</v>
       </c>
       <c r="L15" t="s" s="0">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16">
@@ -957,28 +945,28 @@
         <v>16.0</v>
       </c>
       <c r="B16" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F16" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="C16" t="s" s="0">
-        <v>86</v>
-      </c>
-      <c r="D16" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="E16" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="F16" t="s" s="0">
-        <v>87</v>
-      </c>
       <c r="G16" t="n" s="0">
-        <v>10000.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H16" t="n" s="0">
-        <v>45349.0</v>
+        <v>45350.0</v>
       </c>
       <c r="I16" t="n" s="0">
-        <v>45349.0</v>
+        <v>45350.0</v>
       </c>
       <c r="J16" t="n" s="0">
         <v>1.0</v>
@@ -987,7 +975,7 @@
         <v>75</v>
       </c>
       <c r="L16" t="s" s="0">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17">
@@ -995,28 +983,28 @@
         <v>17.0</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G17" t="n" s="0">
-        <v>4124.0</v>
+        <v>1000.0</v>
       </c>
       <c r="H17" t="n" s="0">
-        <v>45349.0</v>
+        <v>45350.0</v>
       </c>
       <c r="I17" t="n" s="0">
-        <v>45349.0</v>
+        <v>45350.0</v>
       </c>
       <c r="J17" t="n" s="0">
         <v>1.0</v>
@@ -1025,7 +1013,7 @@
         <v>75</v>
       </c>
       <c r="L17" t="s" s="0">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
@@ -1033,10 +1021,10 @@
         <v>18.0</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D18" t="s" s="0">
         <v>40</v>
@@ -1045,7 +1033,7 @@
         <v>40</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G18" t="n" s="0">
         <v>1000000.0</v>
@@ -1060,10 +1048,10 @@
         <v>1.0</v>
       </c>
       <c r="K18" t="s" s="0">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="L18" t="s" s="0">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/document/houses.xlsx
+++ b/src/main/webapp/document/houses.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="82">
   <si>
     <t>STT</t>
   </si>
@@ -245,54 +245,6 @@
   </si>
   <si>
     <t>&lt;p&gt;Giới thiệu: VILLA ĐÀ LẠT SC31 - Villa Ngắm View Nhà Lồng Mang Phong Cách Bắc Âu Cổ Điển&amp;nbsp;&lt;br&gt;☀️ Cơ cấu&lt;br&gt;- 5 phòng đơn&lt;br&gt;- 4wc&lt;br&gt;mỗi phòng đều có ban công view nhà lồng xịn xò&lt;br&gt;- Phòng bếp, phòng khách đầy đủ tiện nghi&lt;br&gt;- Sân bbq đầy đủ dụng cụ&lt;br&gt;- có hỗ trợ thêm nệm&lt;br&gt;- sức chứa 10-15 khách&lt;/p&gt;&lt;p&gt;☀️ Tiện ích&lt;br&gt;- Cách trung tâm chỉ 5-7p chạy xe , gần các địa điểm tham quan.&amp;nbsp;&lt;br&gt;- Khu quy hoạch đường xá thuận tiện, xe hơi tới tận cổng&lt;br&gt;- Home cung cấp đầy đủ dụng cụ vệ sinh cá nhân ( khăn tắm, bàn chải + kđr, máy sấy tóc, bàn ủi)&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>text1</t>
-  </si>
-  <si>
-    <t>Vailla 1</t>
-  </si>
-  <si>
-    <t>q3523523532523532</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;2352352525&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>text2</t>
-  </si>
-  <si>
-    <t>345345</t>
-  </si>
-  <si>
-    <t>3632634636534</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;22353215235325&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>text3</t>
-  </si>
-  <si>
-    <t>sdhsrhserthse</t>
-  </si>
-  <si>
-    <t>47rhjrturturtyurty</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;4734754735475&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>text4</t>
-  </si>
-  <si>
-    <t>46446463</t>
-  </si>
-  <si>
-    <t>567347354673457345673456</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;467346734567345654&lt;/p&gt;</t>
   </si>
   <si>
     <t>VBT1</t>
@@ -363,7 +315,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -887,10 +839,10 @@
         <v>78</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F14" t="s" s="0">
         <v>79</v>
@@ -899,171 +851,19 @@
         <v>1000000.0</v>
       </c>
       <c r="H14" t="n" s="0">
-        <v>45349.0</v>
+        <v>45343.0</v>
       </c>
       <c r="I14" t="n" s="0">
-        <v>45349.0</v>
+        <v>45343.0</v>
       </c>
       <c r="J14" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="K14" t="s" s="0">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L14" t="s" s="0">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n" s="0">
-        <v>15.0</v>
-      </c>
-      <c r="B15" t="s" s="0">
         <v>81</v>
-      </c>
-      <c r="C15" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="D15" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="E15" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="F15" t="s" s="0">
-        <v>83</v>
-      </c>
-      <c r="G15" t="n" s="0">
-        <v>4124.0</v>
-      </c>
-      <c r="H15" t="n" s="0">
-        <v>45349.0</v>
-      </c>
-      <c r="I15" t="n" s="0">
-        <v>45349.0</v>
-      </c>
-      <c r="J15" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="K15" t="s" s="0">
-        <v>75</v>
-      </c>
-      <c r="L15" t="s" s="0">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n" s="0">
-        <v>16.0</v>
-      </c>
-      <c r="B16" t="s" s="0">
-        <v>85</v>
-      </c>
-      <c r="C16" t="s" s="0">
-        <v>86</v>
-      </c>
-      <c r="D16" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="E16" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="F16" t="s" s="0">
-        <v>87</v>
-      </c>
-      <c r="G16" t="n" s="0">
-        <v>10000.0</v>
-      </c>
-      <c r="H16" t="n" s="0">
-        <v>45349.0</v>
-      </c>
-      <c r="I16" t="n" s="0">
-        <v>45349.0</v>
-      </c>
-      <c r="J16" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="K16" t="s" s="0">
-        <v>75</v>
-      </c>
-      <c r="L16" t="s" s="0">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n" s="0">
-        <v>17.0</v>
-      </c>
-      <c r="B17" t="s" s="0">
-        <v>89</v>
-      </c>
-      <c r="C17" t="s" s="0">
-        <v>90</v>
-      </c>
-      <c r="D17" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="E17" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="F17" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="G17" t="n" s="0">
-        <v>4124.0</v>
-      </c>
-      <c r="H17" t="n" s="0">
-        <v>45349.0</v>
-      </c>
-      <c r="I17" t="n" s="0">
-        <v>45349.0</v>
-      </c>
-      <c r="J17" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="K17" t="s" s="0">
-        <v>75</v>
-      </c>
-      <c r="L17" t="s" s="0">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n" s="0">
-        <v>18.0</v>
-      </c>
-      <c r="B18" t="s" s="0">
-        <v>93</v>
-      </c>
-      <c r="C18" t="s" s="0">
-        <v>94</v>
-      </c>
-      <c r="D18" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="E18" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="F18" t="s" s="0">
-        <v>95</v>
-      </c>
-      <c r="G18" t="n" s="0">
-        <v>1000000.0</v>
-      </c>
-      <c r="H18" t="n" s="0">
-        <v>45343.0</v>
-      </c>
-      <c r="I18" t="n" s="0">
-        <v>45343.0</v>
-      </c>
-      <c r="J18" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="K18" t="s" s="0">
-        <v>96</v>
-      </c>
-      <c r="L18" t="s" s="0">
-        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/document/houses.xlsx
+++ b/src/main/webapp/document/houses.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="76">
   <si>
     <t>STT</t>
   </si>
@@ -84,7 +84,7 @@
 ❌ Xe 29 chỗ xuống được villa (nhưng có dốc nhẹ,đậu cách 20m). Xe 16,7,4 chỗ đậu trước nhà.</t>
   </si>
   <si>
-    <t>BIỆT THỰ SANG TRỌNG</t>
+    <t>CĂN HỘ</t>
   </si>
   <si>
     <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Giới thiệu Biệt Thự Đà Lạt BT1&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- nằm trong khu biệt thự yên tĩnh, view đồi núi , khuôn viên rộng rãi cực kỳ rộng thích hợp nghỉ dưỡng Cơ Cấu&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;✴️ Thiết kế gồm 7 Phòng Ngủ&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;+ 5 Phòng - 1 giường 1m6&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;+ 1 Phòng- 1 giường 1m6&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;+ 1 nệm 1m4 + 1 Phòng - 2 giường 1m6.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Tổng cộng 7wc&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Tiện ích:&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Phòng khách, bếp đầy đủ tiện nghi, khoảng sân rộng tươi mát,hồ cá Koi tạo cảm thư giãn cho du khách và tổ chức tiệc BBQ thoải mái. 🔅Cách chợ Đà Lạt 5km - nằm trong khu biệt thự yên tĩnh, view đồi núi , khuôn viên rộng rãi cực kỳ rộng thích hợp nghỉ dưỡng.&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
@@ -105,7 +105,7 @@
     <t>Khu Quy Hoạch An Sơn đường An Sơn phường 4 Đà Lạt</t>
   </si>
   <si>
-    <t>HOMESTAY GỖ VIEW</t>
+    <t>HOMESTAY ĐÀ LẠT</t>
   </si>
   <si>
     <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- Giới Thiệu Homestay Đà Lạt CG8&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;View từ trong nhà ban ngày sẽ có đồi thông núi non, ban đêm sẽ có đèn lồng, nếu bạn đi mùa lạnh sẽ có sương mây và nhà lồng lên đèn đồng loạt, rất tuyệt vời.Đặc biệt Homestay Đà Lạt CG8 - Có Sẵn Máy Chiếu Phim.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- Cơ Cấu Homestay Đà Lạt CG8&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;• 3 phòng ngủ (2p riêng biệt + 1 phòng áp mái không gian mở)&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;• 2 nhà vệ sinh • Phòng khách&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;• Bếp&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;• Sân BBQ ngoài trời và trong nhà&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;• tủ lạnh, máy sấy tóc, bàn ủi, máy nóng lạnh đầy đủ&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- Tiện ích:&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;• máy chiếu&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;• microway&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;• Lò BBQ ngoài trời, bông lò để dùng trong sân khi trời mưa, bếp đủ dụng cụ nấu nướng.&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
@@ -123,9 +123,6 @@
     <t xml:space="preserve"> Địa chỉ: Triệu Việt Vương - Phường 3 - Đà Lạt </t>
   </si>
   <si>
-    <t>KHÁC</t>
-  </si>
-  <si>
     <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Giới thiệu: Homestay Đà Lạt CH1&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- Căn Hộ Du Lịch Xanh Dương 1 Phòng Ngủ Cơ cấu:&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• 1 Phòng ngủ&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• 1 Phòng vệ sinh sạch sẽ, có nóng lạnh đầy đủ đồ vệ sinh cá nhân Tiện ích:&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;•Có khu vực phòng khách nhỏ cho gia đình quây quần.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Bếp đầy đủ dụng cụ nấu nướng cơ bản&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Khu vực sân nướng ngoài trời&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Hầm đậu xe rộng&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
@@ -139,9 +136,6 @@
   </si>
   <si>
     <t>Địa chỉ: An Bình, Phường 3, Đà Lạt</t>
-  </si>
-  <si>
-    <t>HOMESTAY NGUYÊN CĂN</t>
   </si>
   <si>
     <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- Giới Thiệu Homestay Đà Lạt HS1 Chiếc homestay ngắm trọn view Đà Lạt trong lòng, có thể sân mây vào những ngày trời se lạnh.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- Cơ Cấu Homestay Đà Lạt HS11&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Gồm 4p ngủ đơn + 2 nệm phụ sức chứa tối đa 12 người&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• 3WC ( 2WC trong + 1 WC ngoài)&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Phòng khách siêu rộng rãi có smart TV&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Nhà bếp gỗ tách biệt và đầy đủ dụng cụ bếp. - Tiện ích:&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Cách trung tâm khoảng 5p chạy xe ra tới trung tâm&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Đường xá bằng phẳng, ô tô tới tận nơi&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Sân BBQ, sân đốt lửa trại rộng rãi, thoải mái&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• View thung lũng nhà và nhà lồng&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
@@ -157,9 +151,6 @@
 - Cách trung tâm (5-7ph) đi xe</t>
   </si>
   <si>
-    <t>HOMESTAY BỒN TẮM</t>
-  </si>
-  <si>
     <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;GT Homestay Đà Lạt HSL49 Căn Hộ View đồi thông, và set up máy chiếu free. Cơ cấu Giao chìa căn hộ 1 giường 1m8&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- Tiện nghi:&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Tủ lạnh , ấm siêu tốc , máy sấy tóc, ổ điện phụ, bếp nấu ăn , quạt , bồn tắm&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;•Bàn ghế ăn , sân BBQ&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• free nước suối , cf và trà có sẵn&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Set up máy chiếu free&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
@@ -190,7 +181,7 @@
     <t>Địa chỉ :Toạ lạc tại đường Hùng Vương cách chợ khoảng 5km với 7-10 phút chạy xe</t>
   </si>
   <si>
-    <t>VILLA VIEW ĐẸP</t>
+    <t>VILLA BÌNH DÂN</t>
   </si>
   <si>
     <t>&lt;p&gt;Villa Đà Lạt SC27 - Chạm vào hương sắc tình khúc Đà Lạt, tôi ngất ngây.&lt;br&gt;Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng&lt;br&gt;Cơ cấu:&lt;br&gt;Có 3 phòng ngủ (2P đơn và 1P đôi).4wc.&lt;br&gt;Giao chìa khoá nguyên căn.&lt;/p&gt;&lt;p&gt;❇ Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng. &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp;&amp;nbsp;&lt;br&gt;❇️ Sân vườn rộng, với những góc so chill cho những bữa tiệc BBQ quây quần bên gia đình.&lt;/p&gt;&lt;p&gt;❇Toạ lạc tại đường Hùng Vương cách chợ khoảng 5km với 7-10 phút chạy xe&lt;/p&gt;&lt;p&gt;👉 Chắc chắn là nơi nghỉ dưỡng du lịch lý tưởng cho du khách khi đến với thành phố hoa Đà Lạt&lt;/p&gt;</t>
@@ -205,9 +196,6 @@
     <t xml:space="preserve">Địa chỉ: 91 Hùng Vương - Khu du lịch Nam Hồ </t>
   </si>
   <si>
-    <t>VILLA SÂN VƯỜN</t>
-  </si>
-  <si>
     <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Villa Đà Lạt SC29 - Villa Sân vườn rộng, với những góc so chill cho những bữa tiệc BBQ quây quần bên gia đình.&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;Cơ cấu: 2 đơn + 1 đôi , 4wc. Mỗi căn tiêu chuẩn 10kh (có 2 nệm extra free trong từng căn).&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;❇Toạ lạc tại đường Hùng Vương cách chợ khoảng 5km với 7-10 phút chạy xe. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-3-column-5.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;❇&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt; Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng.&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;❇️ Có 3 phòng ngủ - 4 WC. Giao chìa khoá nguyên căn.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;❇️ Sân vườn rộng, với những góc so chill cho những bữa tiệc BBQ quây quần bên gia đình. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-27-column-15.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;👉&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt; Chắc chắn là nơi nghỉ dưỡng du lịch lý tưởng cho du khách khi đến với thành phố hoa Đà Lạt&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
@@ -241,9 +229,6 @@
     <t>Địa chỉ: KQH Nguyễn tử lực - Phường 8 - Đà Lạt</t>
   </si>
   <si>
-    <t>VILLA BÌNH DÂN</t>
-  </si>
-  <si>
     <t>&lt;p&gt;Giới thiệu: VILLA ĐÀ LẠT SC31 - Villa Ngắm View Nhà Lồng Mang Phong Cách Bắc Âu Cổ Điển&amp;nbsp;&lt;br&gt;☀️ Cơ cấu&lt;br&gt;- 5 phòng đơn&lt;br&gt;- 4wc&lt;br&gt;mỗi phòng đều có ban công view nhà lồng xịn xò&lt;br&gt;- Phòng bếp, phòng khách đầy đủ tiện nghi&lt;br&gt;- Sân bbq đầy đủ dụng cụ&lt;br&gt;- có hỗ trợ thêm nệm&lt;br&gt;- sức chứa 10-15 khách&lt;/p&gt;&lt;p&gt;☀️ Tiện ích&lt;br&gt;- Cách trung tâm chỉ 5-7p chạy xe , gần các địa điểm tham quan.&amp;nbsp;&lt;br&gt;- Khu quy hoạch đường xá thuận tiện, xe hơi tới tận cổng&lt;br&gt;- Home cung cấp đầy đủ dụng cụ vệ sinh cá nhân ( khăn tắm, bàn chải + kđr, máy sấy tóc, bàn ủi)&lt;/p&gt;</t>
   </si>
   <si>
@@ -254,9 +239,6 @@
   </si>
   <si>
     <t>📍 Vị trí : 100/2 Nam Hồ. Trường tiểu học nam hồ đi tới 500m</t>
-  </si>
-  <si>
-    <t>VILLA HỒ BƠI</t>
   </si>
   <si>
     <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Giới thiệu: VILLA Đà Lạt Hồ Bơi HB1&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- Có sân thượng ngắm view thành phố&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Cơ cấu&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;phòng: 2 đôi 2 đơn. 1 phòng đôi dưới trệt. Wc riêng từng phòng&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;🍀Có 1 phòng có bồn tắm view thành phố&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;🏊‍♂️Có hồ bơi&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;🍖Có sân bbq&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;🚘Bãi xe rộng ( 3 xe 7 chỗ, vô được xe 16 chỗ) Đường nhựa rộng, không dốc, xung quanh homestay villa nhiều&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
@@ -331,7 +313,7 @@
     <col min="8" max="8" width="9.328125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.78125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="5.45703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="23.89453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="18.16015625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -518,10 +500,10 @@
         <v>1.0</v>
       </c>
       <c r="K5" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="L5" t="s" s="0">
         <v>36</v>
-      </c>
-      <c r="L5" t="s" s="0">
-        <v>37</v>
       </c>
     </row>
     <row r="6">
@@ -529,37 +511,37 @@
         <v>6.0</v>
       </c>
       <c r="B6" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="D6" t="s" s="0">
         <v>39</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>40</v>
       </c>
       <c r="E6" t="s" s="0">
         <v>27</v>
       </c>
       <c r="F6" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>1000000.0</v>
+      </c>
+      <c r="H6" t="n" s="0">
+        <v>45343.0</v>
+      </c>
+      <c r="I6" t="n" s="0">
+        <v>45343.0</v>
+      </c>
+      <c r="J6" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="K6" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="L6" t="s" s="0">
         <v>41</v>
-      </c>
-      <c r="G6" t="n" s="0">
-        <v>1000000.0</v>
-      </c>
-      <c r="H6" t="n" s="0">
-        <v>45343.0</v>
-      </c>
-      <c r="I6" t="n" s="0">
-        <v>45343.0</v>
-      </c>
-      <c r="J6" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="K6" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="L6" t="s" s="0">
-        <v>43</v>
       </c>
     </row>
     <row r="7">
@@ -567,10 +549,10 @@
         <v>7.0</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s" s="0">
         <v>34</v>
@@ -579,7 +561,7 @@
         <v>34</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G7" t="n" s="0">
         <v>1000000.0</v>
@@ -594,10 +576,10 @@
         <v>1.0</v>
       </c>
       <c r="K7" t="s" s="0">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="L7" t="s" s="0">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8">
@@ -605,19 +587,19 @@
         <v>8.0</v>
       </c>
       <c r="B8" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="F8" t="s" s="0">
         <v>49</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="D8" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="E8" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="F8" t="s" s="0">
-        <v>52</v>
       </c>
       <c r="G8" t="n" s="0">
         <v>1000000.0</v>
@@ -632,10 +614,10 @@
         <v>1.0</v>
       </c>
       <c r="K8" t="s" s="0">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L8" t="s" s="0">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
@@ -643,19 +625,19 @@
         <v>9.0</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s" s="0">
         <v>27</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G9" t="n" s="0">
         <v>1000000.0</v>
@@ -670,10 +652,10 @@
         <v>1.0</v>
       </c>
       <c r="K9" t="s" s="0">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="L9" t="s" s="0">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10">
@@ -681,19 +663,19 @@
         <v>10.0</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s" s="0">
         <v>27</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G10" t="n" s="0">
         <v>1000000.0</v>
@@ -708,10 +690,10 @@
         <v>1.0</v>
       </c>
       <c r="K10" t="s" s="0">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="L10" t="s" s="0">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -719,19 +701,19 @@
         <v>11.0</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G11" t="n" s="0">
         <v>1000000.0</v>
@@ -746,10 +728,10 @@
         <v>1.0</v>
       </c>
       <c r="K11" t="s" s="0">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L11" t="s" s="0">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
@@ -757,19 +739,19 @@
         <v>12.0</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D12" t="s" s="0">
         <v>27</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G12" t="n" s="0">
         <v>1000000.0</v>
@@ -784,10 +766,10 @@
         <v>1.0</v>
       </c>
       <c r="K12" t="s" s="0">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="L12" t="s" s="0">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13">
@@ -795,19 +777,19 @@
         <v>13.0</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G13" t="n" s="0">
         <v>1000000.0</v>
@@ -822,10 +804,10 @@
         <v>1.0</v>
       </c>
       <c r="K13" t="s" s="0">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="L13" t="s" s="0">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
@@ -833,19 +815,19 @@
         <v>14.0</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G14" t="n" s="0">
         <v>1000000.0</v>
@@ -860,10 +842,10 @@
         <v>1.0</v>
       </c>
       <c r="K14" t="s" s="0">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="L14" t="s" s="0">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/document/houses.xlsx
+++ b/src/main/webapp/document/houses.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="86">
   <si>
     <t>STT</t>
   </si>
@@ -163,6 +163,21 @@
     <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;GT Homestay Đà Lạt HSL49 Căn Hộ View đồi thông, và set up máy chiếu free. Cơ cấu Giao chìa căn hộ 1 giường 1m8&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- Tiện nghi:&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Tủ lạnh , ấm siêu tốc , máy sấy tóc, ổ điện phụ, bếp nấu ăn , quạt , bồn tắm&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;•Bàn ghế ăn , sân BBQ&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• free nước suối , cf và trà có sẵn&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Set up máy chiếu free&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
+    <t>SC18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Villa Đà Lạt SC18 - Villa được thiết kế theo phong cách cổ điển với không gian mở ra sân vườn, tất cả phòng đều có cửa sổ thoáng mát đặc biệt là view nhà lồng về đêm đầy lung linh. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Villa nằm trong khu villa toạ lạc tại đường Vạn Hạnh cách trung tâm thành phố Đà Lạt khoảng 2,5km tầm 5-7phút di chuyển ra trung tâm. </t>
+  </si>
+  <si>
+    <t>VILLA VIEW ĐẸP</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Villa Đà Lạt SC18 - Villa được thiết kế theo phong cách cổ điển với không gian mở ra sân vườn, tất cả phòng đều có cửa sổ thoáng mát đặc biệt là view nhà lồng về đêm đầy lung linh. Số Lượng Khách: 16-18 Số Phòng Ngủ: 7 Số Wc: 7 Giới thiệu: Villa Đà Lạt SC18 - Villa được thiết kế theo phong cách cổ điển với không gian mở ra sân vườn, tất cả phòng đều có cửa sổ thoáng mát đặc biệt là view nhà lồng về đêm đầy lung linh. 🏡Góc phố nhỏ, hương cà phê, và chuyện đời ở Đà Lạt. Villa nằm trong khu villa toạ lạc tại đường Vạn Hạnh cách trung tâm thành phố Đà Lạt khoảng 2,5km tầm 5-7phút di chuyển ra trung tâm. ⚜Villa có tất cả 7 Phòng: - 4 Phòng 1 giường (1m8). (Wc trong) - 1 Phòng Áp mái 2 giường 1m6 (wc ngoài) - 1 Phòng Áp mái 1 giường 1m4 (wc ngoài) - 1 Phòng 1 giường 1m6. (Wc ngoài) 4wc trong, 3wc ngoài ⚜️ Phòng khách, Bếp trang bị đầy đủ thiết bị, dụng cụ cho bữa cơm quây quần bên gia đình. Có phòng giặt và sấy quần áo. ⚜️ Sân vườn cực rộng với nhiều góc check-in, tiệc BBQ...&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
     <t>SC23</t>
   </si>
   <si>
@@ -190,9 +205,6 @@
     <t>Địa chỉ :Toạ lạc tại đường Hùng Vương cách chợ khoảng 5km với 7-10 phút chạy xe</t>
   </si>
   <si>
-    <t>VILLA VIEW ĐẸP</t>
-  </si>
-  <si>
     <t>&lt;p&gt;Villa Đà Lạt SC27 - Chạm vào hương sắc tình khúc Đà Lạt, tôi ngất ngây.&lt;br&gt;Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng&lt;br&gt;Cơ cấu:&lt;br&gt;Có 3 phòng ngủ (2P đơn và 1P đôi).4wc.&lt;br&gt;Giao chìa khoá nguyên căn.&lt;/p&gt;&lt;p&gt;❇ Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng. &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp;&amp;nbsp;&lt;br&gt;❇️ Sân vườn rộng, với những góc so chill cho những bữa tiệc BBQ quây quần bên gia đình.&lt;/p&gt;&lt;p&gt;❇Toạ lạc tại đường Hùng Vương cách chợ khoảng 5km với 7-10 phút chạy xe&lt;/p&gt;&lt;p&gt;? Chắc chắn là nơi nghỉ dưỡng du lịch lý tưởng cho du khách khi đến với thành phố hoa Đà Lạt&lt;/p&gt;</t>
   </si>
   <si>
@@ -245,42 +257,6 @@
   </si>
   <si>
     <t>&lt;p&gt;Giới thiệu: VILLA ĐÀ LẠT SC31 - Villa Ngắm View Nhà Lồng Mang Phong Cách Bắc Âu Cổ Điển&amp;nbsp;&lt;br&gt;☀️ Cơ cấu&lt;br&gt;- 5 phòng đơn&lt;br&gt;- 4wc&lt;br&gt;mỗi phòng đều có ban công view nhà lồng xịn xò&lt;br&gt;- Phòng bếp, phòng khách đầy đủ tiện nghi&lt;br&gt;- Sân bbq đầy đủ dụng cụ&lt;br&gt;- có hỗ trợ thêm nệm&lt;br&gt;- sức chứa 10-15 khách&lt;/p&gt;&lt;p&gt;☀️ Tiện ích&lt;br&gt;- Cách trung tâm chỉ 5-7p chạy xe , gần các địa điểm tham quan.&amp;nbsp;&lt;br&gt;- Khu quy hoạch đường xá thuận tiện, xe hơi tới tận cổng&lt;br&gt;- Home cung cấp đầy đủ dụng cụ vệ sinh cá nhân ( khăn tắm, bàn chải + kđr, máy sấy tóc, bàn ủi)&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>test1</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>aaaa</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;aaaa&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>test2</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>test3</t>
-  </si>
-  <si>
-    <t>dd</t>
-  </si>
-  <si>
-    <t>aaa</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;aaaaa&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>test4</t>
-  </si>
-  <si>
-    <t>aaaaaaa</t>
   </si>
   <si>
     <t>VBT1</t>
@@ -351,7 +327,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -359,11 +335,11 @@
   <cols>
     <col min="1" max="1" width="4.19140625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="6.57421875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="99.54296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="163.234375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="9.328125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="6.109375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="97.390625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="8.84375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="123.93359375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="11.07421875" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="9.328125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.78125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="5.45703125" customWidth="true" bestFit="true"/>
@@ -647,31 +623,31 @@
         <v>50</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="F8" t="s" s="0">
+      <c r="G8" t="n" s="0">
+        <v>1.0E8</v>
+      </c>
+      <c r="H8" t="n" s="0">
+        <v>45351.0</v>
+      </c>
+      <c r="I8" t="n" s="0">
+        <v>45351.0</v>
+      </c>
+      <c r="J8" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="K8" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="G8" t="n" s="0">
-        <v>1000000.0</v>
-      </c>
-      <c r="H8" t="n" s="0">
-        <v>45345.0</v>
-      </c>
-      <c r="I8" t="n" s="0">
-        <v>45345.0</v>
-      </c>
-      <c r="J8" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="K8" t="s" s="0">
+      <c r="L8" t="s" s="0">
         <v>53</v>
-      </c>
-      <c r="L8" t="s" s="0">
-        <v>54</v>
       </c>
     </row>
     <row r="9">
@@ -679,16 +655,16 @@
         <v>9.0</v>
       </c>
       <c r="B9" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="C9" t="s" s="0">
+      <c r="D9" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s" s="0">
         <v>56</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="E9" t="s" s="0">
-        <v>40</v>
       </c>
       <c r="F9" t="s" s="0">
         <v>57</v>
@@ -744,10 +720,10 @@
         <v>1.0</v>
       </c>
       <c r="K10" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="L10" t="s" s="0">
         <v>63</v>
-      </c>
-      <c r="L10" t="s" s="0">
-        <v>64</v>
       </c>
     </row>
     <row r="11">
@@ -755,34 +731,34 @@
         <v>11.0</v>
       </c>
       <c r="B11" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="C11" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="C11" t="s" s="0">
+      <c r="D11" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="F11" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="D11" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="E11" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="F11" t="s" s="0">
+      <c r="G11" t="n" s="0">
+        <v>1000000.0</v>
+      </c>
+      <c r="H11" t="n" s="0">
+        <v>45345.0</v>
+      </c>
+      <c r="I11" t="n" s="0">
+        <v>45345.0</v>
+      </c>
+      <c r="J11" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="K11" t="s" s="0">
         <v>67</v>
-      </c>
-      <c r="G11" t="n" s="0">
-        <v>1000000.0</v>
-      </c>
-      <c r="H11" t="n" s="0">
-        <v>45343.0</v>
-      </c>
-      <c r="I11" t="n" s="0">
-        <v>45343.0</v>
-      </c>
-      <c r="J11" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="K11" t="s" s="0">
-        <v>53</v>
       </c>
       <c r="L11" t="s" s="0">
         <v>68</v>
@@ -799,22 +775,22 @@
         <v>70</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="G12" t="n" s="0">
         <v>1000000.0</v>
       </c>
       <c r="H12" t="n" s="0">
-        <v>45345.0</v>
+        <v>45343.0</v>
       </c>
       <c r="I12" t="n" s="0">
-        <v>45345.0</v>
+        <v>45343.0</v>
       </c>
       <c r="J12" t="n" s="0">
         <v>1.0</v>
@@ -823,7 +799,7 @@
         <v>58</v>
       </c>
       <c r="L12" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13">
@@ -831,37 +807,37 @@
         <v>13.0</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s" s="0">
         <v>40</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G13" t="n" s="0">
         <v>1000000.0</v>
       </c>
       <c r="H13" t="n" s="0">
-        <v>45343.0</v>
+        <v>45345.0</v>
       </c>
       <c r="I13" t="n" s="0">
-        <v>45343.0</v>
+        <v>45345.0</v>
       </c>
       <c r="J13" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="K13" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="L13" t="s" s="0">
         <v>75</v>
-      </c>
-      <c r="L13" t="s" s="0">
-        <v>76</v>
       </c>
     </row>
     <row r="14">
@@ -869,34 +845,34 @@
         <v>14.0</v>
       </c>
       <c r="B14" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="C14" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="C14" t="s" s="0">
+      <c r="D14" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="F14" t="s" s="0">
         <v>78</v>
       </c>
-      <c r="D14" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="E14" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="F14" t="s" s="0">
+      <c r="G14" t="n" s="0">
+        <v>1000000.0</v>
+      </c>
+      <c r="H14" t="n" s="0">
+        <v>45343.0</v>
+      </c>
+      <c r="I14" t="n" s="0">
+        <v>45343.0</v>
+      </c>
+      <c r="J14" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="K14" t="s" s="0">
         <v>79</v>
-      </c>
-      <c r="G14" t="n" s="0">
-        <v>1000.0</v>
-      </c>
-      <c r="H14" t="n" s="0">
-        <v>45350.0</v>
-      </c>
-      <c r="I14" t="n" s="0">
-        <v>45350.0</v>
-      </c>
-      <c r="J14" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="K14" t="s" s="0">
-        <v>75</v>
       </c>
       <c r="L14" t="s" s="0">
         <v>80</v>
@@ -913,145 +889,31 @@
         <v>82</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G15" t="n" s="0">
-        <v>1000.0</v>
+        <v>1000000.0</v>
       </c>
       <c r="H15" t="n" s="0">
-        <v>45350.0</v>
+        <v>45343.0</v>
       </c>
       <c r="I15" t="n" s="0">
-        <v>45350.0</v>
+        <v>45343.0</v>
       </c>
       <c r="J15" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="K15" t="s" s="0">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L15" t="s" s="0">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n" s="0">
-        <v>16.0</v>
-      </c>
-      <c r="B16" t="s" s="0">
-        <v>83</v>
-      </c>
-      <c r="C16" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="D16" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="E16" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="F16" t="s" s="0">
         <v>85</v>
-      </c>
-      <c r="G16" t="n" s="0">
-        <v>1000.0</v>
-      </c>
-      <c r="H16" t="n" s="0">
-        <v>45350.0</v>
-      </c>
-      <c r="I16" t="n" s="0">
-        <v>45350.0</v>
-      </c>
-      <c r="J16" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="K16" t="s" s="0">
-        <v>75</v>
-      </c>
-      <c r="L16" t="s" s="0">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n" s="0">
-        <v>17.0</v>
-      </c>
-      <c r="B17" t="s" s="0">
-        <v>87</v>
-      </c>
-      <c r="C17" t="s" s="0">
-        <v>88</v>
-      </c>
-      <c r="D17" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="E17" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="F17" t="s" s="0">
-        <v>79</v>
-      </c>
-      <c r="G17" t="n" s="0">
-        <v>1000.0</v>
-      </c>
-      <c r="H17" t="n" s="0">
-        <v>45350.0</v>
-      </c>
-      <c r="I17" t="n" s="0">
-        <v>45350.0</v>
-      </c>
-      <c r="J17" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="K17" t="s" s="0">
-        <v>75</v>
-      </c>
-      <c r="L17" t="s" s="0">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n" s="0">
-        <v>18.0</v>
-      </c>
-      <c r="B18" t="s" s="0">
-        <v>89</v>
-      </c>
-      <c r="C18" t="s" s="0">
-        <v>90</v>
-      </c>
-      <c r="D18" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="E18" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="F18" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="G18" t="n" s="0">
-        <v>1000000.0</v>
-      </c>
-      <c r="H18" t="n" s="0">
-        <v>45343.0</v>
-      </c>
-      <c r="I18" t="n" s="0">
-        <v>45343.0</v>
-      </c>
-      <c r="J18" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="K18" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="L18" t="s" s="0">
-        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/document/houses.xlsx
+++ b/src/main/webapp/document/houses.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="76">
   <si>
     <t>STT</t>
   </si>
@@ -84,7 +84,7 @@
 ❌ Xe 29 chỗ xuống được villa (nhưng có dốc nhẹ,đậu cách 20m). Xe 16,7,4 chỗ đậu trước nhà.</t>
   </si>
   <si>
-    <t>BIỆT THỰ SANG TRỌNG</t>
+    <t>CĂN HỘ</t>
   </si>
   <si>
     <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Giới thiệu Biệt Thự Đà Lạt BT1&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- nằm trong khu biệt thự yên tĩnh, view đồi núi , khuôn viên rộng rãi cực kỳ rộng thích hợp nghỉ dưỡng Cơ Cấu&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;✴️ Thiết kế gồm 7 Phòng Ngủ&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;+ 5 Phòng - 1 giường 1m6&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;+ 1 Phòng- 1 giường 1m6&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;+ 1 nệm 1m4 + 1 Phòng - 2 giường 1m6.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Tổng cộng 7wc&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Tiện ích:&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Phòng khách, bếp đầy đủ tiện nghi, khoảng sân rộng tươi mát,hồ cá Koi tạo cảm thư giãn cho du khách và tổ chức tiệc BBQ thoải mái. ?Cách chợ Đà Lạt 5km - nằm trong khu biệt thự yên tĩnh, view đồi núi , khuôn viên rộng rãi cực kỳ rộng thích hợp nghỉ dưỡng.&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
@@ -105,7 +105,7 @@
     <t>Khu Quy Hoạch An Sơn đường An Sơn phường 4 Đà Lạt</t>
   </si>
   <si>
-    <t>HOMESTAY GỖ VIEW</t>
+    <t>HOMESTAY ĐÀ LẠT</t>
   </si>
   <si>
     <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- Giới Thiệu Homestay Đà Lạt CG8&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;View từ trong nhà ban ngày sẽ có đồi thông núi non, ban đêm sẽ có đèn lồng, nếu bạn đi mùa lạnh sẽ có sương mây và nhà lồng lên đèn đồng loạt, rất tuyệt vời.Đặc biệt Homestay Đà Lạt CG8 - Có Sẵn Máy Chiếu Phim.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- Cơ Cấu Homestay Đà Lạt CG8&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;• 3 phòng ngủ (2p riêng biệt + 1 phòng áp mái không gian mở)&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;• 2 nhà vệ sinh • Phòng khách&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;• Bếp&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;• Sân BBQ ngoài trời và trong nhà&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;• tủ lạnh, máy sấy tóc, bàn ủi, máy nóng lạnh đầy đủ&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- Tiện ích:&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;• máy chiếu&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;• microway&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;• Lò BBQ ngoài trời, bông lò để dùng trong sân khi trời mưa, bếp đủ dụng cụ nấu nướng.&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
@@ -123,9 +123,6 @@
     <t xml:space="preserve"> Địa chỉ: Triệu Việt Vương - Phường 3 - Đà Lạt </t>
   </si>
   <si>
-    <t>KHÁC</t>
-  </si>
-  <si>
     <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Giới thiệu: Homestay Đà Lạt CH1&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- Căn Hộ Du Lịch Xanh Dương 1 Phòng Ngủ Cơ cấu:&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• 1 Phòng ngủ&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• 1 Phòng vệ sinh sạch sẽ, có nóng lạnh đầy đủ đồ vệ sinh cá nhân Tiện ích:&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;•Có khu vực phòng khách nhỏ cho gia đình quây quần.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Bếp đầy đủ dụng cụ nấu nướng cơ bản&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Khu vực sân nướng ngoài trời&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Hầm đậu xe rộng&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
@@ -139,9 +136,6 @@
   </si>
   <si>
     <t>Địa chỉ: An Bình, Phường 3, Đà Lạt</t>
-  </si>
-  <si>
-    <t>HOMESTAY NGUYÊN CĂN</t>
   </si>
   <si>
     <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- Giới Thiệu Homestay Đà Lạt HS1 Chiếc homestay ngắm trọn view Đà Lạt trong lòng, có thể sân mây vào những ngày trời se lạnh.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- Cơ Cấu Homestay Đà Lạt HS11&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Gồm 4p ngủ đơn + 2 nệm phụ sức chứa tối đa 12 người&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• 3WC ( 2WC trong + 1 WC ngoài)&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Phòng khách siêu rộng rãi có smart TV&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Nhà bếp gỗ tách biệt và đầy đủ dụng cụ bếp. - Tiện ích:&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Cách trung tâm khoảng 5p chạy xe ra tới trung tâm&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Đường xá bằng phẳng, ô tô tới tận nơi&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Sân BBQ, sân đốt lửa trại rộng rãi, thoải mái&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• View thung lũng nhà và nhà lồng&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
@@ -157,27 +151,9 @@
 - Cách trung tâm (5-7ph) đi xe</t>
   </si>
   <si>
-    <t>HOMESTAY BỒN TẮM</t>
-  </si>
-  <si>
     <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;GT Homestay Đà Lạt HSL49 Căn Hộ View đồi thông, và set up máy chiếu free. Cơ cấu Giao chìa căn hộ 1 giường 1m8&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- Tiện nghi:&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Tủ lạnh , ấm siêu tốc , máy sấy tóc, ổ điện phụ, bếp nấu ăn , quạt , bồn tắm&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;•Bàn ghế ăn , sân BBQ&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• free nước suối , cf và trà có sẵn&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Set up máy chiếu free&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
-    <t>SC18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Villa Đà Lạt SC18 - Villa được thiết kế theo phong cách cổ điển với không gian mở ra sân vườn, tất cả phòng đều có cửa sổ thoáng mát đặc biệt là view nhà lồng về đêm đầy lung linh. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Villa nằm trong khu villa toạ lạc tại đường Vạn Hạnh cách trung tâm thành phố Đà Lạt khoảng 2,5km tầm 5-7phút di chuyển ra trung tâm. </t>
-  </si>
-  <si>
-    <t>VILLA VIEW ĐẸP</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Villa Đà Lạt SC18 - Villa được thiết kế theo phong cách cổ điển với không gian mở ra sân vườn, tất cả phòng đều có cửa sổ thoáng mát đặc biệt là view nhà lồng về đêm đầy lung linh. Số Lượng Khách: 16-18 Số Phòng Ngủ: 7 Số Wc: 7 Giới thiệu: Villa Đà Lạt SC18 - Villa được thiết kế theo phong cách cổ điển với không gian mở ra sân vườn, tất cả phòng đều có cửa sổ thoáng mát đặc biệt là view nhà lồng về đêm đầy lung linh. 🏡Góc phố nhỏ, hương cà phê, và chuyện đời ở Đà Lạt. Villa nằm trong khu villa toạ lạc tại đường Vạn Hạnh cách trung tâm thành phố Đà Lạt khoảng 2,5km tầm 5-7phút di chuyển ra trung tâm. ⚜Villa có tất cả 7 Phòng: - 4 Phòng 1 giường (1m8). (Wc trong) - 1 Phòng Áp mái 2 giường 1m6 (wc ngoài) - 1 Phòng Áp mái 1 giường 1m4 (wc ngoài) - 1 Phòng 1 giường 1m6. (Wc ngoài) 4wc trong, 3wc ngoài ⚜️ Phòng khách, Bếp trang bị đầy đủ thiết bị, dụng cụ cho bữa cơm quây quần bên gia đình. Có phòng giặt và sấy quần áo. ⚜️ Sân vườn cực rộng với nhiều góc check-in, tiệc BBQ...&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>SC23</t>
   </si>
   <si>
@@ -205,6 +181,9 @@
     <t>Địa chỉ :Toạ lạc tại đường Hùng Vương cách chợ khoảng 5km với 7-10 phút chạy xe</t>
   </si>
   <si>
+    <t>VILLA BÌNH DÂN</t>
+  </si>
+  <si>
     <t>&lt;p&gt;Villa Đà Lạt SC27 - Chạm vào hương sắc tình khúc Đà Lạt, tôi ngất ngây.&lt;br&gt;Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng&lt;br&gt;Cơ cấu:&lt;br&gt;Có 3 phòng ngủ (2P đơn và 1P đôi).4wc.&lt;br&gt;Giao chìa khoá nguyên căn.&lt;/p&gt;&lt;p&gt;❇ Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng. &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp;&amp;nbsp;&lt;br&gt;❇️ Sân vườn rộng, với những góc so chill cho những bữa tiệc BBQ quây quần bên gia đình.&lt;/p&gt;&lt;p&gt;❇Toạ lạc tại đường Hùng Vương cách chợ khoảng 5km với 7-10 phút chạy xe&lt;/p&gt;&lt;p&gt;? Chắc chắn là nơi nghỉ dưỡng du lịch lý tưởng cho du khách khi đến với thành phố hoa Đà Lạt&lt;/p&gt;</t>
   </si>
   <si>
@@ -217,9 +196,6 @@
     <t xml:space="preserve">Địa chỉ: 91 Hùng Vương - Khu du lịch Nam Hồ </t>
   </si>
   <si>
-    <t>VILLA SÂN VƯỜN</t>
-  </si>
-  <si>
     <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Villa Đà Lạt SC29 - Villa Sân vườn rộng, với những góc so chill cho những bữa tiệc BBQ quây quần bên gia đình.&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;Cơ cấu: 2 đơn + 1 đôi , 4wc. Mỗi căn tiêu chuẩn 10kh (có 2 nệm extra free trong từng căn).&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;❇Toạ lạc tại đường Hùng Vương cách chợ khoảng 5km với 7-10 phút chạy xe. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-3-column-5.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;❇&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt; Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng.&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;❇️ Có 3 phòng ngủ - 4 WC. Giao chìa khoá nguyên căn.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;❇️ Sân vườn rộng, với những góc so chill cho những bữa tiệc BBQ quây quần bên gia đình. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-27-column-15.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;?&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt; Chắc chắn là nơi nghỉ dưỡng du lịch lý tưởng cho du khách khi đến với thành phố hoa Đà Lạt&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
@@ -253,9 +229,6 @@
     <t>Địa chỉ: KQH Nguyễn tử lực - Phường 8 - Đà Lạt</t>
   </si>
   <si>
-    <t>VILLA BÌNH DÂN</t>
-  </si>
-  <si>
     <t>&lt;p&gt;Giới thiệu: VILLA ĐÀ LẠT SC31 - Villa Ngắm View Nhà Lồng Mang Phong Cách Bắc Âu Cổ Điển&amp;nbsp;&lt;br&gt;☀️ Cơ cấu&lt;br&gt;- 5 phòng đơn&lt;br&gt;- 4wc&lt;br&gt;mỗi phòng đều có ban công view nhà lồng xịn xò&lt;br&gt;- Phòng bếp, phòng khách đầy đủ tiện nghi&lt;br&gt;- Sân bbq đầy đủ dụng cụ&lt;br&gt;- có hỗ trợ thêm nệm&lt;br&gt;- sức chứa 10-15 khách&lt;/p&gt;&lt;p&gt;☀️ Tiện ích&lt;br&gt;- Cách trung tâm chỉ 5-7p chạy xe , gần các địa điểm tham quan.&amp;nbsp;&lt;br&gt;- Khu quy hoạch đường xá thuận tiện, xe hơi tới tận cổng&lt;br&gt;- Home cung cấp đầy đủ dụng cụ vệ sinh cá nhân ( khăn tắm, bàn chải + kđr, máy sấy tóc, bàn ủi)&lt;/p&gt;</t>
   </si>
   <si>
@@ -266,9 +239,6 @@
   </si>
   <si>
     <t>? Vị trí : 100/2 Nam Hồ. Trường tiểu học nam hồ đi tới 500m</t>
-  </si>
-  <si>
-    <t>VILLA HỒ BƠI</t>
   </si>
   <si>
     <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Giới thiệu: VILLA Đà Lạt Hồ Bơi HB1&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- Có sân thượng ngắm view thành phố&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Cơ cấu&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;phòng: 2 đôi 2 đơn. 1 phòng đôi dưới trệt. Wc riêng từng phòng&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;?Có 1 phòng có bồn tắm view thành phố&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;?‍♂️Có hồ bơi&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;?Có sân bbq&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;?Bãi xe rộng ( 3 xe 7 chỗ, vô được xe 16 chỗ) Đường nhựa rộng, không dốc, xung quanh homestay villa nhiều&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
@@ -327,7 +297,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -335,15 +305,15 @@
   <cols>
     <col min="1" max="1" width="4.19140625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="6.57421875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="163.234375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="99.54296875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="9.328125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="6.109375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="123.93359375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="11.07421875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="97.390625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="8.84375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="9.328125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.78125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="5.45703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="23.89453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="18.16015625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -530,10 +500,10 @@
         <v>1.0</v>
       </c>
       <c r="K5" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="L5" t="s" s="0">
         <v>36</v>
-      </c>
-      <c r="L5" t="s" s="0">
-        <v>37</v>
       </c>
     </row>
     <row r="6">
@@ -541,37 +511,37 @@
         <v>6.0</v>
       </c>
       <c r="B6" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="D6" t="s" s="0">
         <v>39</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>40</v>
       </c>
       <c r="E6" t="s" s="0">
         <v>27</v>
       </c>
       <c r="F6" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>1000000.0</v>
+      </c>
+      <c r="H6" t="n" s="0">
+        <v>45343.0</v>
+      </c>
+      <c r="I6" t="n" s="0">
+        <v>45343.0</v>
+      </c>
+      <c r="J6" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="K6" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="L6" t="s" s="0">
         <v>41</v>
-      </c>
-      <c r="G6" t="n" s="0">
-        <v>1000000.0</v>
-      </c>
-      <c r="H6" t="n" s="0">
-        <v>45343.0</v>
-      </c>
-      <c r="I6" t="n" s="0">
-        <v>45343.0</v>
-      </c>
-      <c r="J6" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="K6" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="L6" t="s" s="0">
-        <v>43</v>
       </c>
     </row>
     <row r="7">
@@ -579,10 +549,10 @@
         <v>7.0</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s" s="0">
         <v>34</v>
@@ -591,7 +561,7 @@
         <v>34</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G7" t="n" s="0">
         <v>1000000.0</v>
@@ -606,10 +576,10 @@
         <v>1.0</v>
       </c>
       <c r="K7" t="s" s="0">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="L7" t="s" s="0">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8">
@@ -617,37 +587,37 @@
         <v>8.0</v>
       </c>
       <c r="B8" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="F8" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="C8" t="s" s="0">
+      <c r="G8" t="n" s="0">
+        <v>1000000.0</v>
+      </c>
+      <c r="H8" t="n" s="0">
+        <v>45345.0</v>
+      </c>
+      <c r="I8" t="n" s="0">
+        <v>45345.0</v>
+      </c>
+      <c r="J8" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="K8" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="D8" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="E8" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="F8" t="s" s="0">
+      <c r="L8" t="s" s="0">
         <v>51</v>
-      </c>
-      <c r="G8" t="n" s="0">
-        <v>1.0E8</v>
-      </c>
-      <c r="H8" t="n" s="0">
-        <v>45351.0</v>
-      </c>
-      <c r="I8" t="n" s="0">
-        <v>45351.0</v>
-      </c>
-      <c r="J8" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="K8" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="L8" t="s" s="0">
-        <v>53</v>
       </c>
     </row>
     <row r="9">
@@ -655,19 +625,19 @@
         <v>9.0</v>
       </c>
       <c r="B9" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F9" t="s" s="0">
         <v>54</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="E9" t="s" s="0">
-        <v>56</v>
-      </c>
-      <c r="F9" t="s" s="0">
-        <v>57</v>
       </c>
       <c r="G9" t="n" s="0">
         <v>1000000.0</v>
@@ -682,10 +652,10 @@
         <v>1.0</v>
       </c>
       <c r="K9" t="s" s="0">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="L9" t="s" s="0">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10">
@@ -693,19 +663,19 @@
         <v>10.0</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s" s="0">
         <v>27</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G10" t="n" s="0">
         <v>1000000.0</v>
@@ -720,10 +690,10 @@
         <v>1.0</v>
       </c>
       <c r="K10" t="s" s="0">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L10" t="s" s="0">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -731,37 +701,37 @@
         <v>11.0</v>
       </c>
       <c r="B11" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="G11" t="n" s="0">
+        <v>1000000.0</v>
+      </c>
+      <c r="H11" t="n" s="0">
+        <v>45343.0</v>
+      </c>
+      <c r="I11" t="n" s="0">
+        <v>45343.0</v>
+      </c>
+      <c r="J11" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="K11" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="L11" t="s" s="0">
         <v>64</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>65</v>
-      </c>
-      <c r="D11" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="E11" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="F11" t="s" s="0">
-        <v>66</v>
-      </c>
-      <c r="G11" t="n" s="0">
-        <v>1000000.0</v>
-      </c>
-      <c r="H11" t="n" s="0">
-        <v>45345.0</v>
-      </c>
-      <c r="I11" t="n" s="0">
-        <v>45345.0</v>
-      </c>
-      <c r="J11" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="K11" t="s" s="0">
-        <v>67</v>
-      </c>
-      <c r="L11" t="s" s="0">
-        <v>68</v>
       </c>
     </row>
     <row r="12">
@@ -769,37 +739,37 @@
         <v>12.0</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="G12" t="n" s="0">
         <v>1000000.0</v>
       </c>
       <c r="H12" t="n" s="0">
-        <v>45343.0</v>
+        <v>45345.0</v>
       </c>
       <c r="I12" t="n" s="0">
-        <v>45343.0</v>
+        <v>45345.0</v>
       </c>
       <c r="J12" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="K12" t="s" s="0">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="L12" t="s" s="0">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13">
@@ -807,37 +777,37 @@
         <v>13.0</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G13" t="n" s="0">
         <v>1000000.0</v>
       </c>
       <c r="H13" t="n" s="0">
-        <v>45345.0</v>
+        <v>45343.0</v>
       </c>
       <c r="I13" t="n" s="0">
-        <v>45345.0</v>
+        <v>45343.0</v>
       </c>
       <c r="J13" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="K13" t="s" s="0">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L13" t="s" s="0">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
@@ -845,19 +815,19 @@
         <v>14.0</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G14" t="n" s="0">
         <v>1000000.0</v>
@@ -872,48 +842,10 @@
         <v>1.0</v>
       </c>
       <c r="K14" t="s" s="0">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="L14" t="s" s="0">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n" s="0">
-        <v>15.0</v>
-      </c>
-      <c r="B15" t="s" s="0">
-        <v>81</v>
-      </c>
-      <c r="C15" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="D15" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="E15" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="F15" t="s" s="0">
-        <v>83</v>
-      </c>
-      <c r="G15" t="n" s="0">
-        <v>1000000.0</v>
-      </c>
-      <c r="H15" t="n" s="0">
-        <v>45343.0</v>
-      </c>
-      <c r="I15" t="n" s="0">
-        <v>45343.0</v>
-      </c>
-      <c r="J15" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="K15" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="L15" t="s" s="0">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/document/houses.xlsx
+++ b/src/main/webapp/document/houses.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="76">
   <si>
     <t>STT</t>
   </si>
@@ -80,14 +80,14 @@
     <t>7</t>
   </si>
   <si>
-    <t>?Địa chỉ: KQH An Sơn P4
+    <t>📍Địa chỉ: KQH An Sơn P4
 ❌ Xe 29 chỗ xuống được villa (nhưng có dốc nhẹ,đậu cách 20m). Xe 16,7,4 chỗ đậu trước nhà.</t>
   </si>
   <si>
-    <t>BIỆT THỰ SANG TRỌNG</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Giới thiệu Biệt Thự Đà Lạt BT1&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- nằm trong khu biệt thự yên tĩnh, view đồi núi , khuôn viên rộng rãi cực kỳ rộng thích hợp nghỉ dưỡng Cơ Cấu&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;✴️ Thiết kế gồm 7 Phòng Ngủ&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;+ 5 Phòng - 1 giường 1m6&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;+ 1 Phòng- 1 giường 1m6&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;+ 1 nệm 1m4 + 1 Phòng - 2 giường 1m6.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Tổng cộng 7wc&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Tiện ích:&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Phòng khách, bếp đầy đủ tiện nghi, khoảng sân rộng tươi mát,hồ cá Koi tạo cảm thư giãn cho du khách và tổ chức tiệc BBQ thoải mái. ?Cách chợ Đà Lạt 5km - nằm trong khu biệt thự yên tĩnh, view đồi núi , khuôn viên rộng rãi cực kỳ rộng thích hợp nghỉ dưỡng.&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
+    <t>CĂN HỘ</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Giới thiệu Biệt Thự Đà Lạt BT1&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- nằm trong khu biệt thự yên tĩnh, view đồi núi , khuôn viên rộng rãi cực kỳ rộng thích hợp nghỉ dưỡng Cơ Cấu&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;✴️ Thiết kế gồm 7 Phòng Ngủ&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;+ 5 Phòng - 1 giường 1m6&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;+ 1 Phòng- 1 giường 1m6&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;+ 1 nệm 1m4 + 1 Phòng - 2 giường 1m6.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Tổng cộng 7wc&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Tiện ích:&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Phòng khách, bếp đầy đủ tiện nghi, khoảng sân rộng tươi mát,hồ cá Koi tạo cảm thư giãn cho du khách và tổ chức tiệc BBQ thoải mái. 🔅Cách chợ Đà Lạt 5km - nằm trong khu biệt thự yên tĩnh, view đồi núi , khuôn viên rộng rãi cực kỳ rộng thích hợp nghỉ dưỡng.&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>CG8</t>
@@ -105,7 +105,7 @@
     <t>Khu Quy Hoạch An Sơn đường An Sơn phường 4 Đà Lạt</t>
   </si>
   <si>
-    <t>HOMESTAY GỖ VIEW</t>
+    <t>HOMESTAY ĐÀ LẠT</t>
   </si>
   <si>
     <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- Giới Thiệu Homestay Đà Lạt CG8&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;View từ trong nhà ban ngày sẽ có đồi thông núi non, ban đêm sẽ có đèn lồng, nếu bạn đi mùa lạnh sẽ có sương mây và nhà lồng lên đèn đồng loạt, rất tuyệt vời.Đặc biệt Homestay Đà Lạt CG8 - Có Sẵn Máy Chiếu Phim.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- Cơ Cấu Homestay Đà Lạt CG8&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;• 3 phòng ngủ (2p riêng biệt + 1 phòng áp mái không gian mở)&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;• 2 nhà vệ sinh • Phòng khách&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;• Bếp&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;• Sân BBQ ngoài trời và trong nhà&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;• tủ lạnh, máy sấy tóc, bàn ủi, máy nóng lạnh đầy đủ&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- Tiện ích:&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;• máy chiếu&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;• microway&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;• Lò BBQ ngoài trời, bông lò để dùng trong sân khi trời mưa, bếp đủ dụng cụ nấu nướng.&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
@@ -123,9 +123,6 @@
     <t xml:space="preserve"> Địa chỉ: Triệu Việt Vương - Phường 3 - Đà Lạt </t>
   </si>
   <si>
-    <t>KHÁC</t>
-  </si>
-  <si>
     <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Giới thiệu: Homestay Đà Lạt CH1&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- Căn Hộ Du Lịch Xanh Dương 1 Phòng Ngủ Cơ cấu:&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• 1 Phòng ngủ&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• 1 Phòng vệ sinh sạch sẽ, có nóng lạnh đầy đủ đồ vệ sinh cá nhân Tiện ích:&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;•Có khu vực phòng khách nhỏ cho gia đình quây quần.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Bếp đầy đủ dụng cụ nấu nướng cơ bản&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Khu vực sân nướng ngoài trời&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Hầm đậu xe rộng&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
@@ -139,9 +136,6 @@
   </si>
   <si>
     <t>Địa chỉ: An Bình, Phường 3, Đà Lạt</t>
-  </si>
-  <si>
-    <t>HOMESTAY NGUYÊN CĂN</t>
   </si>
   <si>
     <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- Giới Thiệu Homestay Đà Lạt HS1 Chiếc homestay ngắm trọn view Đà Lạt trong lòng, có thể sân mây vào những ngày trời se lạnh.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- Cơ Cấu Homestay Đà Lạt HS11&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Gồm 4p ngủ đơn + 2 nệm phụ sức chứa tối đa 12 người&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• 3WC ( 2WC trong + 1 WC ngoài)&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Phòng khách siêu rộng rãi có smart TV&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Nhà bếp gỗ tách biệt và đầy đủ dụng cụ bếp. - Tiện ích:&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Cách trung tâm khoảng 5p chạy xe ra tới trung tâm&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Đường xá bằng phẳng, ô tô tới tận nơi&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Sân BBQ, sân đốt lửa trại rộng rãi, thoải mái&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• View thung lũng nhà và nhà lồng&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
@@ -157,27 +151,9 @@
 - Cách trung tâm (5-7ph) đi xe</t>
   </si>
   <si>
-    <t>HOMESTAY BỒN TẮM</t>
-  </si>
-  <si>
     <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;GT Homestay Đà Lạt HSL49 Căn Hộ View đồi thông, và set up máy chiếu free. Cơ cấu Giao chìa căn hộ 1 giường 1m8&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- Tiện nghi:&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Tủ lạnh , ấm siêu tốc , máy sấy tóc, ổ điện phụ, bếp nấu ăn , quạt , bồn tắm&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;•Bàn ghế ăn , sân BBQ&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• free nước suối , cf và trà có sẵn&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Set up máy chiếu free&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
-    <t>SC18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Villa Đà Lạt SC18 - Villa được thiết kế theo phong cách cổ điển với không gian mở ra sân vườn, tất cả phòng đều có cửa sổ thoáng mát đặc biệt là view nhà lồng về đêm đầy lung linh. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Villa nằm trong khu villa toạ lạc tại đường Vạn Hạnh cách trung tâm thành phố Đà Lạt khoảng 2,5km tầm 5-7phút di chuyển ra trung tâm. </t>
-  </si>
-  <si>
-    <t>VILLA VIEW ĐẸP</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Villa Đà Lạt SC18 - Villa được thiết kế theo phong cách cổ điển với không gian mở ra sân vườn, tất cả phòng đều có cửa sổ thoáng mát đặc biệt là view nhà lồng về đêm đầy lung linh. Số Lượng Khách: 16-18 Số Phòng Ngủ: 7 Số Wc: 7 Giới thiệu: Villa Đà Lạt SC18 - Villa được thiết kế theo phong cách cổ điển với không gian mở ra sân vườn, tất cả phòng đều có cửa sổ thoáng mát đặc biệt là view nhà lồng về đêm đầy lung linh. 🏡Góc phố nhỏ, hương cà phê, và chuyện đời ở Đà Lạt. Villa nằm trong khu villa toạ lạc tại đường Vạn Hạnh cách trung tâm thành phố Đà Lạt khoảng 2,5km tầm 5-7phút di chuyển ra trung tâm. ⚜Villa có tất cả 7 Phòng: - 4 Phòng 1 giường (1m8). (Wc trong) - 1 Phòng Áp mái 2 giường 1m6 (wc ngoài) - 1 Phòng Áp mái 1 giường 1m4 (wc ngoài) - 1 Phòng 1 giường 1m6. (Wc ngoài) 4wc trong, 3wc ngoài ⚜️ Phòng khách, Bếp trang bị đầy đủ thiết bị, dụng cụ cho bữa cơm quây quần bên gia đình. Có phòng giặt và sấy quần áo. ⚜️ Sân vườn cực rộng với nhiều góc check-in, tiệc BBQ...&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>SC23</t>
   </si>
   <si>
@@ -193,7 +169,7 @@
     <t>VILLA CAO CẤP</t>
   </si>
   <si>
-    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Villa Đà Lạt SC23 - Villa mới toanh theo phong cách hiện đại, sang trọng. Nằm trong KDL Biệt thự nghĩ dưỡng Nam Hồ-Khu vực đặc biệt an ninh và yên tĩnh. Cách chợ Đà Lạt 5km với 5-7 phút di chuyển ra trung tâm.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Cơ cấu: &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-14-column-33.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;?&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Gồm 4 phòng ngủ: 3 Phòng 1 giường (1m8) và 1 phòng 2 giường (1m6) - 5wc Villa có trang bị thêm nệm dự phòng. Sức chứa 12-15 Khách. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-14-column-33.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;?&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;01 Phòng khách , 01 phòng bếp đầy đủ tiện nghi. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-14-column-33.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;?&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Sân vườn rộng rãi tiêu chuẩn thích hợp cho BBQ. Đậu xe trong khuôn viên.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
+    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Villa Đà Lạt SC23 - Villa mới toanh theo phong cách hiện đại, sang trọng. Nằm trong KDL Biệt thự nghĩ dưỡng Nam Hồ-Khu vực đặc biệt an ninh và yên tĩnh. Cách chợ Đà Lạt 5km với 5-7 phút di chuyển ra trung tâm.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Cơ cấu: &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-14-column-33.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;🤗&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Gồm 4 phòng ngủ: 3 Phòng 1 giường (1m8) và 1 phòng 2 giường (1m6) - 5wc Villa có trang bị thêm nệm dự phòng. Sức chứa 12-15 Khách. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-14-column-33.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;🤗&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;01 Phòng khách , 01 phòng bếp đầy đủ tiện nghi. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-14-column-33.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;🤗&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Sân vườn rộng rãi tiêu chuẩn thích hợp cho BBQ. Đậu xe trong khuôn viên.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>SC27</t>
@@ -205,7 +181,10 @@
     <t>Địa chỉ :Toạ lạc tại đường Hùng Vương cách chợ khoảng 5km với 7-10 phút chạy xe</t>
   </si>
   <si>
-    <t>&lt;p&gt;Villa Đà Lạt SC27 - Chạm vào hương sắc tình khúc Đà Lạt, tôi ngất ngây.&lt;br&gt;Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng&lt;br&gt;Cơ cấu:&lt;br&gt;Có 3 phòng ngủ (2P đơn và 1P đôi).4wc.&lt;br&gt;Giao chìa khoá nguyên căn.&lt;/p&gt;&lt;p&gt;❇ Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng. &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp;&amp;nbsp;&lt;br&gt;❇️ Sân vườn rộng, với những góc so chill cho những bữa tiệc BBQ quây quần bên gia đình.&lt;/p&gt;&lt;p&gt;❇Toạ lạc tại đường Hùng Vương cách chợ khoảng 5km với 7-10 phút chạy xe&lt;/p&gt;&lt;p&gt;? Chắc chắn là nơi nghỉ dưỡng du lịch lý tưởng cho du khách khi đến với thành phố hoa Đà Lạt&lt;/p&gt;</t>
+    <t>VILLA BÌNH DÂN</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Villa Đà Lạt SC27 - Chạm vào hương sắc tình khúc Đà Lạt, tôi ngất ngây.&lt;br&gt;Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng&lt;br&gt;Cơ cấu:&lt;br&gt;Có 3 phòng ngủ (2P đơn và 1P đôi).4wc.&lt;br&gt;Giao chìa khoá nguyên căn.&lt;/p&gt;&lt;p&gt;❇ Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng. &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp;&amp;nbsp;&lt;br&gt;❇️ Sân vườn rộng, với những góc so chill cho những bữa tiệc BBQ quây quần bên gia đình.&lt;/p&gt;&lt;p&gt;❇Toạ lạc tại đường Hùng Vương cách chợ khoảng 5km với 7-10 phút chạy xe&lt;/p&gt;&lt;p&gt;👉 Chắc chắn là nơi nghỉ dưỡng du lịch lý tưởng cho du khách khi đến với thành phố hoa Đà Lạt&lt;/p&gt;</t>
   </si>
   <si>
     <t>SC29</t>
@@ -217,10 +196,7 @@
     <t xml:space="preserve">Địa chỉ: 91 Hùng Vương - Khu du lịch Nam Hồ </t>
   </si>
   <si>
-    <t>VILLA SÂN VƯỜN</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Villa Đà Lạt SC29 - Villa Sân vườn rộng, với những góc so chill cho những bữa tiệc BBQ quây quần bên gia đình.&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;Cơ cấu: 2 đơn + 1 đôi , 4wc. Mỗi căn tiêu chuẩn 10kh (có 2 nệm extra free trong từng căn).&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;❇Toạ lạc tại đường Hùng Vương cách chợ khoảng 5km với 7-10 phút chạy xe. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-3-column-5.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;❇&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt; Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng.&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;❇️ Có 3 phòng ngủ - 4 WC. Giao chìa khoá nguyên căn.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;❇️ Sân vườn rộng, với những góc so chill cho những bữa tiệc BBQ quây quần bên gia đình. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-27-column-15.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;?&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt; Chắc chắn là nơi nghỉ dưỡng du lịch lý tưởng cho du khách khi đến với thành phố hoa Đà Lạt&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
+    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Villa Đà Lạt SC29 - Villa Sân vườn rộng, với những góc so chill cho những bữa tiệc BBQ quây quần bên gia đình.&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;Cơ cấu: 2 đơn + 1 đôi , 4wc. Mỗi căn tiêu chuẩn 10kh (có 2 nệm extra free trong từng căn).&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;❇Toạ lạc tại đường Hùng Vương cách chợ khoảng 5km với 7-10 phút chạy xe. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-3-column-5.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;❇&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt; Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng.&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;❇️ Có 3 phòng ngủ - 4 WC. Giao chìa khoá nguyên căn.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;❇️ Sân vườn rộng, với những góc so chill cho những bữa tiệc BBQ quây quần bên gia đình. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-27-column-15.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;👉&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt; Chắc chắn là nơi nghỉ dưỡng du lịch lý tưởng cho du khách khi đến với thành phố hoa Đà Lạt&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>SC3</t>
@@ -232,7 +208,7 @@
     <t>Vị trí: Đường Nguyễn Đình Chiểu, Phường 9, Tp. Đà Lạt (Cách Hồ Xuân Hương 1km và cách Trung tâm ~2km)</t>
   </si>
   <si>
-    <t>&lt;p&gt;Giới thiệu VILLA ĐÀ LẠT SC3 - Villa rộng ~600m2 (Cả sân vườn) với 5 Phòng Ngủ cùng phong cách Bán Cổ Điển&lt;br&gt;?Cơ cấu:&amp;nbsp;&lt;br&gt;5 Phòng Ngủ (Giường Size Lớn) + 4 nệm phụ&lt;br&gt;- Máy Lạnh riêng mỗi phòng&amp;nbsp;&lt;br&gt;- Toilet riêng&lt;br&gt;- 1 Phòng Khách có lò sưởi&amp;nbsp;&lt;br&gt;- 1 Sân vườn (Chảo đốt lửa)&amp;nbsp;&lt;br&gt;- Sân đậu được 3-4 ô tô&amp;nbsp;&lt;br&gt;- Tiêu chuẩn 12 Người lớn &amp;amp; 4 Bé (Dưới 6 tuổi)&lt;br&gt;Tiện ích:&amp;nbsp;&lt;br&gt;✅ Mỗi Phòng đều trang bị đầy đủ: Máy Lạnh - Toilet riêng - Smart Tivi - Nước nóng - Giường size lớn&lt;br&gt;✅ Trang bị đầy đủ: Sữa tắm, dầu gội, bàn chải, nước rửa tay, máy sấy, bàn ủi…&lt;br&gt;⚜ Không gian phòng khách và bếp đầy đủ tiện nghi: Lò Sưởi, Tủ Lạnh, Bếp, Máy giặt, Máy Sấy, Loa Marshall ….&lt;br&gt;⚜ Sân rộng thoáng phù hợp cho tiệc BBQ ngoài trời, có cả khu vực đốt lửa (Chảo lửa ngoài trời)&lt;br&gt;⚜ Được trang bị cả không gian giải trí cho bé: 1 bàn Bi-lắc mini, sách truyện, gấu bông ...&lt;br&gt;⚜ Villa nằm trong trong khu vực yên tĩnh, thích hợp cho gia đình nghỉ dưỡng&lt;br&gt;⚜ Đường dễ đi, sân đậu xe thoải mái&lt;br&gt;⚜ Cung đường thuận tiện di chuyển đến các địa điểm ăn uống và du lịch như Hồ Xuân Hương, Vườn Hoa Thành Phố, Thung Lũng Tình Yêu, Đồi Mộng Mơ, XQ Đà Lạt Sử Quán, Vườn Dâu v...v...&lt;br&gt;⚜ Giao chìa khoá nguyên căn&lt;br&gt;——————&lt;br&gt;❌ LƯU Ý:&amp;nbsp;&lt;br&gt;✅ Quý khách không sử dụng Loa Kéo&amp;nbsp;&lt;br&gt;✅ Villa có cọc thêm 2tr tiền đảm bảo tài sản khi check in. Sẽ hoàn lại cho khách khi check out nếu không xảy ra hư hỏng tài sản hoặc phát sinh thêm&lt;/p&gt;</t>
+    <t>&lt;p&gt;Giới thiệu VILLA ĐÀ LẠT SC3 - Villa rộng ~600m2 (Cả sân vườn) với 5 Phòng Ngủ cùng phong cách Bán Cổ Điển&lt;br&gt;🌸Cơ cấu:&amp;nbsp;&lt;br&gt;5 Phòng Ngủ (Giường Size Lớn) + 4 nệm phụ&lt;br&gt;- Máy Lạnh riêng mỗi phòng&amp;nbsp;&lt;br&gt;- Toilet riêng&lt;br&gt;- 1 Phòng Khách có lò sưởi&amp;nbsp;&lt;br&gt;- 1 Sân vườn (Chảo đốt lửa)&amp;nbsp;&lt;br&gt;- Sân đậu được 3-4 ô tô&amp;nbsp;&lt;br&gt;- Tiêu chuẩn 12 Người lớn &amp;amp; 4 Bé (Dưới 6 tuổi)&lt;br&gt;Tiện ích:&amp;nbsp;&lt;br&gt;✅ Mỗi Phòng đều trang bị đầy đủ: Máy Lạnh - Toilet riêng - Smart Tivi - Nước nóng - Giường size lớn&lt;br&gt;✅ Trang bị đầy đủ: Sữa tắm, dầu gội, bàn chải, nước rửa tay, máy sấy, bàn ủi…&lt;br&gt;⚜ Không gian phòng khách và bếp đầy đủ tiện nghi: Lò Sưởi, Tủ Lạnh, Bếp, Máy giặt, Máy Sấy, Loa Marshall ….&lt;br&gt;⚜ Sân rộng thoáng phù hợp cho tiệc BBQ ngoài trời, có cả khu vực đốt lửa (Chảo lửa ngoài trời)&lt;br&gt;⚜ Được trang bị cả không gian giải trí cho bé: 1 bàn Bi-lắc mini, sách truyện, gấu bông ...&lt;br&gt;⚜ Villa nằm trong trong khu vực yên tĩnh, thích hợp cho gia đình nghỉ dưỡng&lt;br&gt;⚜ Đường dễ đi, sân đậu xe thoải mái&lt;br&gt;⚜ Cung đường thuận tiện di chuyển đến các địa điểm ăn uống và du lịch như Hồ Xuân Hương, Vườn Hoa Thành Phố, Thung Lũng Tình Yêu, Đồi Mộng Mơ, XQ Đà Lạt Sử Quán, Vườn Dâu v...v...&lt;br&gt;⚜ Giao chìa khoá nguyên căn&lt;br&gt;——————&lt;br&gt;❌ LƯU Ý:&amp;nbsp;&lt;br&gt;✅ Quý khách không sử dụng Loa Kéo&amp;nbsp;&lt;br&gt;✅ Villa có cọc thêm 2tr tiền đảm bảo tài sản khi check in. Sẽ hoàn lại cho khách khi check out nếu không xảy ra hư hỏng tài sản hoặc phát sinh thêm&lt;/p&gt;</t>
   </si>
   <si>
     <t>SC30</t>
@@ -241,7 +217,7 @@
     <t>Villa Đà Lạt SC30 - Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng</t>
   </si>
   <si>
-    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Giới thiệu Villa Đà Lạt SC30&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;?Cơ cấu: Cơ cấu: 3 Phòng -3 giường nệm extra&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;❇Toạ lạc tại đường Hùng Vương cách chợ khoảng 5km với 7-10 phút chạy xe. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-3-column-5.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;❇&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;❇️ Có 3 phòng ngủ - 4 WC. Giao chìa khoá nguyên căn.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;❇️ Sân vườn rộng, với những góc so chill cho những bữa tiệc BBQ quây quần bên gia đình. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-27-column-15.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;?&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;Chắc chắn là nơi nghỉ dưỡng du lịch lý tưởng cho du khách khi đến với thành phố hoa Đà Lạt&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
+    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Giới thiệu Villa Đà Lạt SC30&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;🌺Cơ cấu: Cơ cấu: 3 Phòng -3 giường nệm extra&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;❇Toạ lạc tại đường Hùng Vương cách chợ khoảng 5km với 7-10 phút chạy xe. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-3-column-5.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;❇&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;❇️ Có 3 phòng ngủ - 4 WC. Giao chìa khoá nguyên căn.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;❇️ Sân vườn rộng, với những góc so chill cho những bữa tiệc BBQ quây quần bên gia đình. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-27-column-15.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;👉&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;Chắc chắn là nơi nghỉ dưỡng du lịch lý tưởng cho du khách khi đến với thành phố hoa Đà Lạt&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>SC31</t>
@@ -253,9 +229,6 @@
     <t>Địa chỉ: KQH Nguyễn tử lực - Phường 8 - Đà Lạt</t>
   </si>
   <si>
-    <t>VILLA BÌNH DÂN</t>
-  </si>
-  <si>
     <t>&lt;p&gt;Giới thiệu: VILLA ĐÀ LẠT SC31 - Villa Ngắm View Nhà Lồng Mang Phong Cách Bắc Âu Cổ Điển&amp;nbsp;&lt;br&gt;☀️ Cơ cấu&lt;br&gt;- 5 phòng đơn&lt;br&gt;- 4wc&lt;br&gt;mỗi phòng đều có ban công view nhà lồng xịn xò&lt;br&gt;- Phòng bếp, phòng khách đầy đủ tiện nghi&lt;br&gt;- Sân bbq đầy đủ dụng cụ&lt;br&gt;- có hỗ trợ thêm nệm&lt;br&gt;- sức chứa 10-15 khách&lt;/p&gt;&lt;p&gt;☀️ Tiện ích&lt;br&gt;- Cách trung tâm chỉ 5-7p chạy xe , gần các địa điểm tham quan.&amp;nbsp;&lt;br&gt;- Khu quy hoạch đường xá thuận tiện, xe hơi tới tận cổng&lt;br&gt;- Home cung cấp đầy đủ dụng cụ vệ sinh cá nhân ( khăn tắm, bàn chải + kđr, máy sấy tóc, bàn ủi)&lt;/p&gt;</t>
   </si>
   <si>
@@ -265,13 +238,10 @@
     <t>VILLA Đà Lạt Hồ Bơi HB1 - Có sân thượng ngắm view thành phố</t>
   </si>
   <si>
-    <t>? Vị trí : 100/2 Nam Hồ. Trường tiểu học nam hồ đi tới 500m</t>
-  </si>
-  <si>
-    <t>VILLA HỒ BƠI</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Giới thiệu: VILLA Đà Lạt Hồ Bơi HB1&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- Có sân thượng ngắm view thành phố&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Cơ cấu&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;phòng: 2 đôi 2 đơn. 1 phòng đôi dưới trệt. Wc riêng từng phòng&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;?Có 1 phòng có bồn tắm view thành phố&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;?‍♂️Có hồ bơi&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;?Có sân bbq&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;?Bãi xe rộng ( 3 xe 7 chỗ, vô được xe 16 chỗ) Đường nhựa rộng, không dốc, xung quanh homestay villa nhiều&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
+    <t>📍 Vị trí : 100/2 Nam Hồ. Trường tiểu học nam hồ đi tới 500m</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Giới thiệu: VILLA Đà Lạt Hồ Bơi HB1&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- Có sân thượng ngắm view thành phố&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Cơ cấu&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;phòng: 2 đôi 2 đơn. 1 phòng đôi dưới trệt. Wc riêng từng phòng&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;🍀Có 1 phòng có bồn tắm view thành phố&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;🏊‍♂️Có hồ bơi&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;🍖Có sân bbq&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;🚘Bãi xe rộng ( 3 xe 7 chỗ, vô được xe 16 chỗ) Đường nhựa rộng, không dốc, xung quanh homestay villa nhiều&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -327,7 +297,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -335,15 +305,15 @@
   <cols>
     <col min="1" max="1" width="4.19140625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="6.57421875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="163.234375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="99.54296875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="9.328125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="6.109375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="123.93359375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="11.07421875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="97.390625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="8.84375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="9.328125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.78125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="5.45703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="23.89453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="18.16015625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -530,10 +500,10 @@
         <v>1.0</v>
       </c>
       <c r="K5" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="L5" t="s" s="0">
         <v>36</v>
-      </c>
-      <c r="L5" t="s" s="0">
-        <v>37</v>
       </c>
     </row>
     <row r="6">
@@ -541,37 +511,37 @@
         <v>6.0</v>
       </c>
       <c r="B6" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="D6" t="s" s="0">
         <v>39</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>40</v>
       </c>
       <c r="E6" t="s" s="0">
         <v>27</v>
       </c>
       <c r="F6" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>1000000.0</v>
+      </c>
+      <c r="H6" t="n" s="0">
+        <v>45343.0</v>
+      </c>
+      <c r="I6" t="n" s="0">
+        <v>45343.0</v>
+      </c>
+      <c r="J6" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="K6" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="L6" t="s" s="0">
         <v>41</v>
-      </c>
-      <c r="G6" t="n" s="0">
-        <v>1000000.0</v>
-      </c>
-      <c r="H6" t="n" s="0">
-        <v>45343.0</v>
-      </c>
-      <c r="I6" t="n" s="0">
-        <v>45343.0</v>
-      </c>
-      <c r="J6" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="K6" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="L6" t="s" s="0">
-        <v>43</v>
       </c>
     </row>
     <row r="7">
@@ -579,10 +549,10 @@
         <v>7.0</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s" s="0">
         <v>34</v>
@@ -591,7 +561,7 @@
         <v>34</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G7" t="n" s="0">
         <v>1000000.0</v>
@@ -606,10 +576,10 @@
         <v>1.0</v>
       </c>
       <c r="K7" t="s" s="0">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="L7" t="s" s="0">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8">
@@ -617,37 +587,37 @@
         <v>8.0</v>
       </c>
       <c r="B8" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="F8" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="C8" t="s" s="0">
+      <c r="G8" t="n" s="0">
+        <v>1000000.0</v>
+      </c>
+      <c r="H8" t="n" s="0">
+        <v>45345.0</v>
+      </c>
+      <c r="I8" t="n" s="0">
+        <v>45345.0</v>
+      </c>
+      <c r="J8" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="K8" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="D8" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="E8" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="F8" t="s" s="0">
+      <c r="L8" t="s" s="0">
         <v>51</v>
-      </c>
-      <c r="G8" t="n" s="0">
-        <v>1.0E8</v>
-      </c>
-      <c r="H8" t="n" s="0">
-        <v>45351.0</v>
-      </c>
-      <c r="I8" t="n" s="0">
-        <v>45351.0</v>
-      </c>
-      <c r="J8" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="K8" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="L8" t="s" s="0">
-        <v>53</v>
       </c>
     </row>
     <row r="9">
@@ -655,19 +625,19 @@
         <v>9.0</v>
       </c>
       <c r="B9" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F9" t="s" s="0">
         <v>54</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="E9" t="s" s="0">
-        <v>56</v>
-      </c>
-      <c r="F9" t="s" s="0">
-        <v>57</v>
       </c>
       <c r="G9" t="n" s="0">
         <v>1000000.0</v>
@@ -682,10 +652,10 @@
         <v>1.0</v>
       </c>
       <c r="K9" t="s" s="0">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="L9" t="s" s="0">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10">
@@ -693,19 +663,19 @@
         <v>10.0</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s" s="0">
         <v>27</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G10" t="n" s="0">
         <v>1000000.0</v>
@@ -720,10 +690,10 @@
         <v>1.0</v>
       </c>
       <c r="K10" t="s" s="0">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L10" t="s" s="0">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -731,37 +701,37 @@
         <v>11.0</v>
       </c>
       <c r="B11" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="G11" t="n" s="0">
+        <v>1000000.0</v>
+      </c>
+      <c r="H11" t="n" s="0">
+        <v>45343.0</v>
+      </c>
+      <c r="I11" t="n" s="0">
+        <v>45343.0</v>
+      </c>
+      <c r="J11" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="K11" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="L11" t="s" s="0">
         <v>64</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>65</v>
-      </c>
-      <c r="D11" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="E11" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="F11" t="s" s="0">
-        <v>66</v>
-      </c>
-      <c r="G11" t="n" s="0">
-        <v>1000000.0</v>
-      </c>
-      <c r="H11" t="n" s="0">
-        <v>45345.0</v>
-      </c>
-      <c r="I11" t="n" s="0">
-        <v>45345.0</v>
-      </c>
-      <c r="J11" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="K11" t="s" s="0">
-        <v>67</v>
-      </c>
-      <c r="L11" t="s" s="0">
-        <v>68</v>
       </c>
     </row>
     <row r="12">
@@ -769,37 +739,37 @@
         <v>12.0</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="G12" t="n" s="0">
         <v>1000000.0</v>
       </c>
       <c r="H12" t="n" s="0">
-        <v>45343.0</v>
+        <v>45345.0</v>
       </c>
       <c r="I12" t="n" s="0">
-        <v>45343.0</v>
+        <v>45345.0</v>
       </c>
       <c r="J12" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="K12" t="s" s="0">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="L12" t="s" s="0">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13">
@@ -807,37 +777,37 @@
         <v>13.0</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G13" t="n" s="0">
         <v>1000000.0</v>
       </c>
       <c r="H13" t="n" s="0">
-        <v>45345.0</v>
+        <v>45343.0</v>
       </c>
       <c r="I13" t="n" s="0">
-        <v>45345.0</v>
+        <v>45343.0</v>
       </c>
       <c r="J13" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="K13" t="s" s="0">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L13" t="s" s="0">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
@@ -845,19 +815,19 @@
         <v>14.0</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G14" t="n" s="0">
         <v>1000000.0</v>
@@ -872,48 +842,10 @@
         <v>1.0</v>
       </c>
       <c r="K14" t="s" s="0">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="L14" t="s" s="0">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n" s="0">
-        <v>15.0</v>
-      </c>
-      <c r="B15" t="s" s="0">
-        <v>81</v>
-      </c>
-      <c r="C15" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="D15" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="E15" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="F15" t="s" s="0">
-        <v>83</v>
-      </c>
-      <c r="G15" t="n" s="0">
-        <v>1000000.0</v>
-      </c>
-      <c r="H15" t="n" s="0">
-        <v>45343.0</v>
-      </c>
-      <c r="I15" t="n" s="0">
-        <v>45343.0</v>
-      </c>
-      <c r="J15" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="K15" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="L15" t="s" s="0">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/document/houses.xlsx
+++ b/src/main/webapp/document/houses.xlsx
@@ -80,14 +80,14 @@
     <t>7</t>
   </si>
   <si>
-    <t>?Địa chỉ: KQH An Sơn P4
+    <t>📍Địa chỉ: KQH An Sơn P4
 ❌ Xe 29 chỗ xuống được villa (nhưng có dốc nhẹ,đậu cách 20m). Xe 16,7,4 chỗ đậu trước nhà.</t>
   </si>
   <si>
     <t>CĂN HỘ</t>
   </si>
   <si>
-    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Giới thiệu Biệt Thự Đà Lạt BT1&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- nằm trong khu biệt thự yên tĩnh, view đồi núi , khuôn viên rộng rãi cực kỳ rộng thích hợp nghỉ dưỡng Cơ Cấu&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;✴️ Thiết kế gồm 7 Phòng Ngủ&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;+ 5 Phòng - 1 giường 1m6&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;+ 1 Phòng- 1 giường 1m6&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;+ 1 nệm 1m4 + 1 Phòng - 2 giường 1m6.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Tổng cộng 7wc&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Tiện ích:&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Phòng khách, bếp đầy đủ tiện nghi, khoảng sân rộng tươi mát,hồ cá Koi tạo cảm thư giãn cho du khách và tổ chức tiệc BBQ thoải mái. ?Cách chợ Đà Lạt 5km - nằm trong khu biệt thự yên tĩnh, view đồi núi , khuôn viên rộng rãi cực kỳ rộng thích hợp nghỉ dưỡng.&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
+    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Giới thiệu Biệt Thự Đà Lạt BT1&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- nằm trong khu biệt thự yên tĩnh, view đồi núi , khuôn viên rộng rãi cực kỳ rộng thích hợp nghỉ dưỡng Cơ Cấu&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;✴️ Thiết kế gồm 7 Phòng Ngủ&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;+ 5 Phòng - 1 giường 1m6&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;+ 1 Phòng- 1 giường 1m6&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;+ 1 nệm 1m4 + 1 Phòng - 2 giường 1m6.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Tổng cộng 7wc&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Tiện ích:&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Phòng khách, bếp đầy đủ tiện nghi, khoảng sân rộng tươi mát,hồ cá Koi tạo cảm thư giãn cho du khách và tổ chức tiệc BBQ thoải mái. 🔅Cách chợ Đà Lạt 5km - nằm trong khu biệt thự yên tĩnh, view đồi núi , khuôn viên rộng rãi cực kỳ rộng thích hợp nghỉ dưỡng.&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>CG8</t>
@@ -169,7 +169,7 @@
     <t>VILLA CAO CẤP</t>
   </si>
   <si>
-    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Villa Đà Lạt SC23 - Villa mới toanh theo phong cách hiện đại, sang trọng. Nằm trong KDL Biệt thự nghĩ dưỡng Nam Hồ-Khu vực đặc biệt an ninh và yên tĩnh. Cách chợ Đà Lạt 5km với 5-7 phút di chuyển ra trung tâm.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Cơ cấu: &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-14-column-33.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;?&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Gồm 4 phòng ngủ: 3 Phòng 1 giường (1m8) và 1 phòng 2 giường (1m6) - 5wc Villa có trang bị thêm nệm dự phòng. Sức chứa 12-15 Khách. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-14-column-33.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;?&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;01 Phòng khách , 01 phòng bếp đầy đủ tiện nghi. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-14-column-33.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;?&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Sân vườn rộng rãi tiêu chuẩn thích hợp cho BBQ. Đậu xe trong khuôn viên.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
+    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Villa Đà Lạt SC23 - Villa mới toanh theo phong cách hiện đại, sang trọng. Nằm trong KDL Biệt thự nghĩ dưỡng Nam Hồ-Khu vực đặc biệt an ninh và yên tĩnh. Cách chợ Đà Lạt 5km với 5-7 phút di chuyển ra trung tâm.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Cơ cấu: &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-14-column-33.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;🤗&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Gồm 4 phòng ngủ: 3 Phòng 1 giường (1m8) và 1 phòng 2 giường (1m6) - 5wc Villa có trang bị thêm nệm dự phòng. Sức chứa 12-15 Khách. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-14-column-33.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;🤗&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;01 Phòng khách , 01 phòng bếp đầy đủ tiện nghi. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-14-column-33.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;🤗&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Sân vườn rộng rãi tiêu chuẩn thích hợp cho BBQ. Đậu xe trong khuôn viên.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>SC27</t>
@@ -184,7 +184,7 @@
     <t>VILLA BÌNH DÂN</t>
   </si>
   <si>
-    <t>&lt;p&gt;Villa Đà Lạt SC27 - Chạm vào hương sắc tình khúc Đà Lạt, tôi ngất ngây.&lt;br&gt;Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng&lt;br&gt;Cơ cấu:&lt;br&gt;Có 3 phòng ngủ (2P đơn và 1P đôi).4wc.&lt;br&gt;Giao chìa khoá nguyên căn.&lt;/p&gt;&lt;p&gt;❇ Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng. &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp;&amp;nbsp;&lt;br&gt;❇️ Sân vườn rộng, với những góc so chill cho những bữa tiệc BBQ quây quần bên gia đình.&lt;/p&gt;&lt;p&gt;❇Toạ lạc tại đường Hùng Vương cách chợ khoảng 5km với 7-10 phút chạy xe&lt;/p&gt;&lt;p&gt;? Chắc chắn là nơi nghỉ dưỡng du lịch lý tưởng cho du khách khi đến với thành phố hoa Đà Lạt&lt;/p&gt;</t>
+    <t>&lt;p&gt;Villa Đà Lạt SC27 - Chạm vào hương sắc tình khúc Đà Lạt, tôi ngất ngây.&lt;br&gt;Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng&lt;br&gt;Cơ cấu:&lt;br&gt;Có 3 phòng ngủ (2P đơn và 1P đôi).4wc.&lt;br&gt;Giao chìa khoá nguyên căn.&lt;/p&gt;&lt;p&gt;❇ Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng. &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp;&amp;nbsp;&lt;br&gt;❇️ Sân vườn rộng, với những góc so chill cho những bữa tiệc BBQ quây quần bên gia đình.&lt;/p&gt;&lt;p&gt;❇Toạ lạc tại đường Hùng Vương cách chợ khoảng 5km với 7-10 phút chạy xe&lt;/p&gt;&lt;p&gt;👉 Chắc chắn là nơi nghỉ dưỡng du lịch lý tưởng cho du khách khi đến với thành phố hoa Đà Lạt&lt;/p&gt;</t>
   </si>
   <si>
     <t>SC29</t>
@@ -196,7 +196,7 @@
     <t xml:space="preserve">Địa chỉ: 91 Hùng Vương - Khu du lịch Nam Hồ </t>
   </si>
   <si>
-    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Villa Đà Lạt SC29 - Villa Sân vườn rộng, với những góc so chill cho những bữa tiệc BBQ quây quần bên gia đình.&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;Cơ cấu: 2 đơn + 1 đôi , 4wc. Mỗi căn tiêu chuẩn 10kh (có 2 nệm extra free trong từng căn).&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;❇Toạ lạc tại đường Hùng Vương cách chợ khoảng 5km với 7-10 phút chạy xe. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-3-column-5.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;❇&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt; Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng.&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;❇️ Có 3 phòng ngủ - 4 WC. Giao chìa khoá nguyên căn.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;❇️ Sân vườn rộng, với những góc so chill cho những bữa tiệc BBQ quây quần bên gia đình. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-27-column-15.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;?&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt; Chắc chắn là nơi nghỉ dưỡng du lịch lý tưởng cho du khách khi đến với thành phố hoa Đà Lạt&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
+    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Villa Đà Lạt SC29 - Villa Sân vườn rộng, với những góc so chill cho những bữa tiệc BBQ quây quần bên gia đình.&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;Cơ cấu: 2 đơn + 1 đôi , 4wc. Mỗi căn tiêu chuẩn 10kh (có 2 nệm extra free trong từng căn).&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;❇Toạ lạc tại đường Hùng Vương cách chợ khoảng 5km với 7-10 phút chạy xe. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-3-column-5.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;❇&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt; Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng.&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;❇️ Có 3 phòng ngủ - 4 WC. Giao chìa khoá nguyên căn.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;❇️ Sân vườn rộng, với những góc so chill cho những bữa tiệc BBQ quây quần bên gia đình. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-27-column-15.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;👉&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt; Chắc chắn là nơi nghỉ dưỡng du lịch lý tưởng cho du khách khi đến với thành phố hoa Đà Lạt&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>SC3</t>
@@ -208,7 +208,7 @@
     <t>Vị trí: Đường Nguyễn Đình Chiểu, Phường 9, Tp. Đà Lạt (Cách Hồ Xuân Hương 1km và cách Trung tâm ~2km)</t>
   </si>
   <si>
-    <t>&lt;p&gt;Giới thiệu VILLA ĐÀ LẠT SC3 - Villa rộng ~600m2 (Cả sân vườn) với 5 Phòng Ngủ cùng phong cách Bán Cổ Điển&lt;br&gt;?Cơ cấu:&amp;nbsp;&lt;br&gt;5 Phòng Ngủ (Giường Size Lớn) + 4 nệm phụ&lt;br&gt;- Máy Lạnh riêng mỗi phòng&amp;nbsp;&lt;br&gt;- Toilet riêng&lt;br&gt;- 1 Phòng Khách có lò sưởi&amp;nbsp;&lt;br&gt;- 1 Sân vườn (Chảo đốt lửa)&amp;nbsp;&lt;br&gt;- Sân đậu được 3-4 ô tô&amp;nbsp;&lt;br&gt;- Tiêu chuẩn 12 Người lớn &amp;amp; 4 Bé (Dưới 6 tuổi)&lt;br&gt;Tiện ích:&amp;nbsp;&lt;br&gt;✅ Mỗi Phòng đều trang bị đầy đủ: Máy Lạnh - Toilet riêng - Smart Tivi - Nước nóng - Giường size lớn&lt;br&gt;✅ Trang bị đầy đủ: Sữa tắm, dầu gội, bàn chải, nước rửa tay, máy sấy, bàn ủi…&lt;br&gt;⚜ Không gian phòng khách và bếp đầy đủ tiện nghi: Lò Sưởi, Tủ Lạnh, Bếp, Máy giặt, Máy Sấy, Loa Marshall ….&lt;br&gt;⚜ Sân rộng thoáng phù hợp cho tiệc BBQ ngoài trời, có cả khu vực đốt lửa (Chảo lửa ngoài trời)&lt;br&gt;⚜ Được trang bị cả không gian giải trí cho bé: 1 bàn Bi-lắc mini, sách truyện, gấu bông ...&lt;br&gt;⚜ Villa nằm trong trong khu vực yên tĩnh, thích hợp cho gia đình nghỉ dưỡng&lt;br&gt;⚜ Đường dễ đi, sân đậu xe thoải mái&lt;br&gt;⚜ Cung đường thuận tiện di chuyển đến các địa điểm ăn uống và du lịch như Hồ Xuân Hương, Vườn Hoa Thành Phố, Thung Lũng Tình Yêu, Đồi Mộng Mơ, XQ Đà Lạt Sử Quán, Vườn Dâu v...v...&lt;br&gt;⚜ Giao chìa khoá nguyên căn&lt;br&gt;——————&lt;br&gt;❌ LƯU Ý:&amp;nbsp;&lt;br&gt;✅ Quý khách không sử dụng Loa Kéo&amp;nbsp;&lt;br&gt;✅ Villa có cọc thêm 2tr tiền đảm bảo tài sản khi check in. Sẽ hoàn lại cho khách khi check out nếu không xảy ra hư hỏng tài sản hoặc phát sinh thêm&lt;/p&gt;</t>
+    <t>&lt;p&gt;Giới thiệu VILLA ĐÀ LẠT SC3 - Villa rộng ~600m2 (Cả sân vườn) với 5 Phòng Ngủ cùng phong cách Bán Cổ Điển&lt;br&gt;🌸Cơ cấu:&amp;nbsp;&lt;br&gt;5 Phòng Ngủ (Giường Size Lớn) + 4 nệm phụ&lt;br&gt;- Máy Lạnh riêng mỗi phòng&amp;nbsp;&lt;br&gt;- Toilet riêng&lt;br&gt;- 1 Phòng Khách có lò sưởi&amp;nbsp;&lt;br&gt;- 1 Sân vườn (Chảo đốt lửa)&amp;nbsp;&lt;br&gt;- Sân đậu được 3-4 ô tô&amp;nbsp;&lt;br&gt;- Tiêu chuẩn 12 Người lớn &amp;amp; 4 Bé (Dưới 6 tuổi)&lt;br&gt;Tiện ích:&amp;nbsp;&lt;br&gt;✅ Mỗi Phòng đều trang bị đầy đủ: Máy Lạnh - Toilet riêng - Smart Tivi - Nước nóng - Giường size lớn&lt;br&gt;✅ Trang bị đầy đủ: Sữa tắm, dầu gội, bàn chải, nước rửa tay, máy sấy, bàn ủi…&lt;br&gt;⚜ Không gian phòng khách và bếp đầy đủ tiện nghi: Lò Sưởi, Tủ Lạnh, Bếp, Máy giặt, Máy Sấy, Loa Marshall ….&lt;br&gt;⚜ Sân rộng thoáng phù hợp cho tiệc BBQ ngoài trời, có cả khu vực đốt lửa (Chảo lửa ngoài trời)&lt;br&gt;⚜ Được trang bị cả không gian giải trí cho bé: 1 bàn Bi-lắc mini, sách truyện, gấu bông ...&lt;br&gt;⚜ Villa nằm trong trong khu vực yên tĩnh, thích hợp cho gia đình nghỉ dưỡng&lt;br&gt;⚜ Đường dễ đi, sân đậu xe thoải mái&lt;br&gt;⚜ Cung đường thuận tiện di chuyển đến các địa điểm ăn uống và du lịch như Hồ Xuân Hương, Vườn Hoa Thành Phố, Thung Lũng Tình Yêu, Đồi Mộng Mơ, XQ Đà Lạt Sử Quán, Vườn Dâu v...v...&lt;br&gt;⚜ Giao chìa khoá nguyên căn&lt;br&gt;——————&lt;br&gt;❌ LƯU Ý:&amp;nbsp;&lt;br&gt;✅ Quý khách không sử dụng Loa Kéo&amp;nbsp;&lt;br&gt;✅ Villa có cọc thêm 2tr tiền đảm bảo tài sản khi check in. Sẽ hoàn lại cho khách khi check out nếu không xảy ra hư hỏng tài sản hoặc phát sinh thêm&lt;/p&gt;</t>
   </si>
   <si>
     <t>SC30</t>
@@ -217,7 +217,7 @@
     <t>Villa Đà Lạt SC30 - Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng</t>
   </si>
   <si>
-    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Giới thiệu Villa Đà Lạt SC30&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;?Cơ cấu: Cơ cấu: 3 Phòng -3 giường nệm extra&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;❇Toạ lạc tại đường Hùng Vương cách chợ khoảng 5km với 7-10 phút chạy xe. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-3-column-5.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;❇&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;❇️ Có 3 phòng ngủ - 4 WC. Giao chìa khoá nguyên căn.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;❇️ Sân vườn rộng, với những góc so chill cho những bữa tiệc BBQ quây quần bên gia đình. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-27-column-15.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;?&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;Chắc chắn là nơi nghỉ dưỡng du lịch lý tưởng cho du khách khi đến với thành phố hoa Đà Lạt&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
+    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Giới thiệu Villa Đà Lạt SC30&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;🌺Cơ cấu: Cơ cấu: 3 Phòng -3 giường nệm extra&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;❇Toạ lạc tại đường Hùng Vương cách chợ khoảng 5km với 7-10 phút chạy xe. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-3-column-5.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;❇&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;❇️ Có 3 phòng ngủ - 4 WC. Giao chìa khoá nguyên căn.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;❇️ Sân vườn rộng, với những góc so chill cho những bữa tiệc BBQ quây quần bên gia đình. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-27-column-15.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;👉&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;Chắc chắn là nơi nghỉ dưỡng du lịch lý tưởng cho du khách khi đến với thành phố hoa Đà Lạt&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>SC31</t>
@@ -238,10 +238,10 @@
     <t>VILLA Đà Lạt Hồ Bơi HB1 - Có sân thượng ngắm view thành phố</t>
   </si>
   <si>
-    <t>? Vị trí : 100/2 Nam Hồ. Trường tiểu học nam hồ đi tới 500m</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Giới thiệu: VILLA Đà Lạt Hồ Bơi HB1&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- Có sân thượng ngắm view thành phố&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Cơ cấu&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;phòng: 2 đôi 2 đơn. 1 phòng đôi dưới trệt. Wc riêng từng phòng&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;?Có 1 phòng có bồn tắm view thành phố&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;?‍♂️Có hồ bơi&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;?Có sân bbq&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;?Bãi xe rộng ( 3 xe 7 chỗ, vô được xe 16 chỗ) Đường nhựa rộng, không dốc, xung quanh homestay villa nhiều&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
+    <t>📍 Vị trí : 100/2 Nam Hồ. Trường tiểu học nam hồ đi tới 500m</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Giới thiệu: VILLA Đà Lạt Hồ Bơi HB1&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- Có sân thượng ngắm view thành phố&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Cơ cấu&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;phòng: 2 đôi 2 đơn. 1 phòng đôi dưới trệt. Wc riêng từng phòng&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;🍀Có 1 phòng có bồn tắm view thành phố&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;🏊‍♂️Có hồ bơi&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;🍖Có sân bbq&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;🚘Bãi xe rộng ( 3 xe 7 chỗ, vô được xe 16 chỗ) Đường nhựa rộng, không dốc, xung quanh homestay villa nhiều&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
   </si>
 </sst>
 </file>

--- a/src/main/webapp/document/houses.xlsx
+++ b/src/main/webapp/document/houses.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
   <si>
     <t>STT</t>
   </si>
@@ -65,7 +65,7 @@
     <t>đường Xô Viết Nghệ Tĩnh. (UBND phường 7 đi vô)</t>
   </si>
   <si>
-    <t>VILLA TẦM TRUNG</t>
+    <t>VILLA LUXURY</t>
   </si>
   <si>
     <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- Giới Thiệu Villa SC85 Ra mắt em villa xịn sò với lối thiết kế hiện đại, tiện nghi, view nhà lồng hứa hẹn kỳ nghỉ đáng nhớ tại Đà Lạt&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- Cơ Cấu&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Gồm 8 phòng ngủ đơn&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Tầng trệt và tầng lầu: 4 phòng đơn, 5wc&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Tầng bán hầm: 2 căn hộ. Mỗi căn hộ 2 phòng đơn, 1wc. Tiện ích:&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Phòng được set up sẵn khăn, bàn chải, dầu gội, sữa tắm, máy sấy..&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Phòng khách ấm cúng để gia đình ngồi quây quần trò chuyện với nhau Không gian bếp rộng rãi đầy đủ tiện ích : bếp, tủ lạnh, nồi niêu, lò vi sóng..để bạn thỏa sức nấu những món ăn ngon cho người thân yêu.&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;• Sân&amp;nbsp;đậu xe thoải mái • Sân BBQ ngoài trời rộng&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
@@ -80,96 +80,50 @@
     <t>7</t>
   </si>
   <si>
-    <t>📍Địa chỉ: KQH An Sơn P4
+    <t>?Địa chỉ: KQH An Sơn P4
 ❌ Xe 29 chỗ xuống được villa (nhưng có dốc nhẹ,đậu cách 20m). Xe 16,7,4 chỗ đậu trước nhà.</t>
   </si>
   <si>
-    <t>CĂN HỘ</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Giới thiệu Biệt Thự Đà Lạt BT1&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- nằm trong khu biệt thự yên tĩnh, view đồi núi , khuôn viên rộng rãi cực kỳ rộng thích hợp nghỉ dưỡng Cơ Cấu&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;✴️ Thiết kế gồm 7 Phòng Ngủ&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;+ 5 Phòng - 1 giường 1m6&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;+ 1 Phòng- 1 giường 1m6&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;+ 1 nệm 1m4 + 1 Phòng - 2 giường 1m6.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Tổng cộng 7wc&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Tiện ích:&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Phòng khách, bếp đầy đủ tiện nghi, khoảng sân rộng tươi mát,hồ cá Koi tạo cảm thư giãn cho du khách và tổ chức tiệc BBQ thoải mái. 🔅Cách chợ Đà Lạt 5km - nằm trong khu biệt thự yên tĩnh, view đồi núi , khuôn viên rộng rãi cực kỳ rộng thích hợp nghỉ dưỡng.&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>CG8</t>
-  </si>
-  <si>
-    <t>Homestay Đà Lạt CG8 - Có Sẵn Máy Chiếu Phim View Đẹp</t>
+    <t>APARTMENT</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Giới thiệu Biệt Thự Đà Lạt BT1&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- nằm trong khu biệt thự yên tĩnh, view đồi núi , khuôn viên rộng rãi cực kỳ rộng thích hợp nghỉ dưỡng Cơ Cấu&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;✴️ Thiết kế gồm 7 Phòng Ngủ&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;+ 5 Phòng - 1 giường 1m6&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;+ 1 Phòng- 1 giường 1m6&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;+ 1 nệm 1m4 + 1 Phòng - 2 giường 1m6.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Tổng cộng 7wc&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Tiện ích:&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Phòng khách, bếp đầy đủ tiện nghi, khoảng sân rộng tươi mát,hồ cá Koi tạo cảm thư giãn cho du khách và tổ chức tiệc BBQ thoải mái. ?Cách chợ Đà Lạt 5km - nằm trong khu biệt thự yên tĩnh, view đồi núi , khuôn viên rộng rãi cực kỳ rộng thích hợp nghỉ dưỡng.&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>HS3</t>
+  </si>
+  <si>
+    <t>Homestay Đà Lạt HS3 - Home Nhà Gỗ Nằm Ngay Trung Tâm &amp; Hồ Cá Koi</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Khu Quy Hoạch An Sơn đường An Sơn phường 4 Đà Lạt</t>
-  </si>
-  <si>
-    <t>HOMESTAY ĐÀ LẠT</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- Giới Thiệu Homestay Đà Lạt CG8&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;View từ trong nhà ban ngày sẽ có đồi thông núi non, ban đêm sẽ có đèn lồng, nếu bạn đi mùa lạnh sẽ có sương mây và nhà lồng lên đèn đồng loạt, rất tuyệt vời.Đặc biệt Homestay Đà Lạt CG8 - Có Sẵn Máy Chiếu Phim.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- Cơ Cấu Homestay Đà Lạt CG8&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;• 3 phòng ngủ (2p riêng biệt + 1 phòng áp mái không gian mở)&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;• 2 nhà vệ sinh • Phòng khách&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;• Bếp&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;• Sân BBQ ngoài trời và trong nhà&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;• tủ lạnh, máy sấy tóc, bàn ủi, máy nóng lạnh đầy đủ&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- Tiện ích:&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;• máy chiếu&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;• microway&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;• Lò BBQ ngoài trời, bông lò để dùng trong sân khi trời mưa, bếp đủ dụng cụ nấu nướng.&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>CH1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Homestay Đà Lạt CH1 - Căn Hộ Du Lịch Xanh Dương </t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Địa chỉ: Triệu Việt Vương - Phường 3 - Đà Lạt </t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Giới thiệu: Homestay Đà Lạt CH1&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- Căn Hộ Du Lịch Xanh Dương 1 Phòng Ngủ Cơ cấu:&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• 1 Phòng ngủ&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• 1 Phòng vệ sinh sạch sẽ, có nóng lạnh đầy đủ đồ vệ sinh cá nhân Tiện ích:&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;•Có khu vực phòng khách nhỏ cho gia đình quây quần.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Bếp đầy đủ dụng cụ nấu nướng cơ bản&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Khu vực sân nướng ngoài trời&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Hầm đậu xe rộng&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>HS11</t>
-  </si>
-  <si>
-    <t>Homestay Đà Lạt HS11- Homestay ngắm trọn view thung lũng &amp; đốt lửa cực chill</t>
+    <t>14/2 Gio An - P.5 - TP.Đà Lạt</t>
+  </si>
+  <si>
+    <t>VILLA BÌNH DÂN</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&amp;nbsp;&lt;span style="background-color:rgb(255,255,255);color:rgb(13,13,13);font-family:Söhne, ui-sans-serif, system-ui, -apple-system, &amp;quot;Segoe UI&amp;quot;, Roboto, Ubuntu, Cantarell, &amp;quot;Noto Sans&amp;quot;, sans-serif, &amp;quot;Helvetica Neue&amp;quot;, Arial, &amp;quot;Apple Color Emoji&amp;quot;, &amp;quot;Segoe UI Emoji&amp;quot;, &amp;quot;Segoe UI Symbol&amp;quot;, &amp;quot;Noto Color Emoji&amp;quot;;font-size:16px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:normal;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Dạo này, mọi người đang cảm thấy mệt mỏi với nhịp sống hối hả và tiêu cực? Đừng lo lắng nữa! Hãy để Homestay Đà Lạt HS3 là điểm dừng chân lý tưởng của bạn để tìm lại sự bình yên và hạnh phúc!&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p style="--tw-backdrop-blur:;--tw-backdrop-brightness:;--tw-backdrop-contrast:;--tw-backdrop-grayscale:;--tw-backdrop-hue-rotate:;--tw-backdrop-invert:;--tw-backdrop-opacity:;--tw-backdrop-saturate:;--tw-backdrop-sepia:;--tw-blur:;--tw-border-spacing-x:0;--tw-border-spacing-y:0;--tw-brightness:;--tw-contrast:;--tw-drop-shadow:;--tw-gradient-from-position:;--tw-gradient-to-position:;--tw-gradient-via-position:;--tw-grayscale:;--tw-hue-rotate:;--tw-invert:;--tw-numeric-figure:;--tw-numeric-fraction:;--tw-numeric-spacing:;--tw-ordinal:;--tw-pan-x:;--tw-pan-y:;--tw-pinch-zoom:;--tw-ring-color:rgba(69,89,164,.5);--tw-ring-inset:;--tw-ring-offset-color:#fff;--tw-ring-offset-shadow:0 0 transparent;--tw-ring-offset-width:0px;--tw-ring-shadow:0 0 transparent;--tw-rotate:0;--tw-saturate:;--tw-scale-x:1;--tw-scale-y:1;--tw-scroll-snap-strictness:proximity;--tw-sepia:;--tw-shadow-colored:0 0 transparent;--tw-shadow:0 0 transparent;--tw-skew-x:0;--tw-skew-y:0;--tw-slashed-zero:;--tw-translate-x:0;--tw-translate-y:0;-webkit-text-stroke-width:0px;background-color:rgb(255, 255, 255);border:0px solid rgb(227, 227, 227);box-sizing:border-box;color:rgb(13, 13, 13);font-family:Söhne, ui-sans-serif, system-ui, -apple-system, &amp;quot;Segoe UI&amp;quot;, Roboto, Ubuntu, Cantarell, &amp;quot;Noto Sans&amp;quot;, sans-serif, &amp;quot;Helvetica Neue&amp;quot;, Arial, &amp;quot;Apple Color Emoji&amp;quot;, &amp;quot;Segoe UI Emoji&amp;quot;, &amp;quot;Segoe UI Symbol&amp;quot;, &amp;quot;Noto Color Emoji&amp;quot;;font-size:16px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:normal;margin:1.25em 0px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;📌 Cơ cấu: 3 phòng ngủ - 3 toilet, thiết kế sang trọng và ấm cúng.&amp;nbsp;&lt;/p&gt;&lt;p style="--tw-backdrop-blur:;--tw-backdrop-brightness:;--tw-backdrop-contrast:;--tw-backdrop-grayscale:;--tw-backdrop-hue-rotate:;--tw-backdrop-invert:;--tw-backdrop-opacity:;--tw-backdrop-saturate:;--tw-backdrop-sepia:;--tw-blur:;--tw-border-spacing-x:0;--tw-border-spacing-y:0;--tw-brightness:;--tw-contrast:;--tw-drop-shadow:;--tw-gradient-from-position:;--tw-gradient-to-position:;--tw-gradient-via-position:;--tw-grayscale:;--tw-hue-rotate:;--tw-invert:;--tw-numeric-figure:;--tw-numeric-fraction:;--tw-numeric-spacing:;--tw-ordinal:;--tw-pan-x:;--tw-pan-y:;--tw-pinch-zoom:;--tw-ring-color:rgba(69,89,164,.5);--tw-ring-inset:;--tw-ring-offset-color:#fff;--tw-ring-offset-shadow:0 0 transparent;--tw-ring-offset-width:0px;--tw-ring-shadow:0 0 transparent;--tw-rotate:0;--tw-saturate:;--tw-scale-x:1;--tw-scale-y:1;--tw-scroll-snap-strictness:proximity;--tw-sepia:;--tw-shadow-colored:0 0 transparent;--tw-shadow:0 0 transparent;--tw-skew-x:0;--tw-skew-y:0;--tw-slashed-zero:;--tw-translate-x:0;--tw-translate-y:0;-webkit-text-stroke-width:0px;background-color:rgb(255, 255, 255);border:0px solid rgb(227, 227, 227);box-sizing:border-box;color:rgb(13, 13, 13);font-family:Söhne, ui-sans-serif, system-ui, -apple-system, &amp;quot;Segoe UI&amp;quot;, Roboto, Ubuntu, Cantarell, &amp;quot;Noto Sans&amp;quot;, sans-serif, &amp;quot;Helvetica Neue&amp;quot;, Arial, &amp;quot;Apple Color Emoji&amp;quot;, &amp;quot;Segoe UI Emoji&amp;quot;, &amp;quot;Segoe UI Symbol&amp;quot;, &amp;quot;Noto Color Emoji&amp;quot;;font-size:16px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:normal;margin:1.25em 0px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;👩‍🍳 Bếp Ngọt Ngào: Không gian bếp ấm áp với những dụng cụ nấu nướng đầy đủ, cho bạn tự do sáng tạo và thưởng thức những món ngon.&lt;/p&gt;&lt;p style="--tw-backdrop-blur:;--tw-backdrop-brightness:;--tw-backdrop-contrast:;--tw-backdrop-grayscale:;--tw-backdrop-hue-rotate:;--tw-backdrop-invert:;--tw-backdrop-opacity:;--tw-backdrop-saturate:;--tw-backdrop-sepia:;--tw-blur:;--tw-border-spacing-x:0;--tw-border-spacing-y:0;--tw-brightness:;--tw-contrast:;--tw-drop-shadow:;--tw-gradient-from-position:;--tw-gradient-to-position:;--tw-gradient-via-position:;--tw-grayscale:;--tw-hue-rotate:;--tw-invert:;--tw-numeric-figure:;--tw-numeric-fraction:;--tw-numeric-spacing:;--tw-ordinal:;--tw-pan-x:;--tw-pan-y:;--tw-pinch-zoom:;--tw-ring-color:rgba(69,89,164,.5);--tw-ring-inset:;--tw-ring-offset-color:#fff;--tw-ring-offset-shadow:0 0 transparent;--tw-ring-offset-width:0px;--tw-ring-shadow:0 0 transparent;--tw-rotate:0;--tw-saturate:;--tw-scale-x:1;--tw-scale-y:1;--tw-scroll-snap-strictness:proximity;--tw-sepia:;--tw-shadow-colored:0 0 transparent;--tw-shadow:0 0 transparent;--tw-skew-x:0;--tw-skew-y:0;--tw-slashed-zero:;--tw-translate-x:0;--tw-translate-y:0;-webkit-text-stroke-width:0px;background-color:rgb(255, 255, 255);border:0px solid rgb(227, 227, 227);box-sizing:border-box;color:rgb(13, 13, 13);font-family:Söhne, ui-sans-serif, system-ui, -apple-system, &amp;quot;Segoe UI&amp;quot;, Roboto, Ubuntu, Cantarell, &amp;quot;Noto Sans&amp;quot;, sans-serif, &amp;quot;Helvetica Neue&amp;quot;, Arial, &amp;quot;Apple Color Emoji&amp;quot;, &amp;quot;Segoe UI Emoji&amp;quot;, &amp;quot;Segoe UI Symbol&amp;quot;, &amp;quot;Noto Color Emoji&amp;quot;;font-size:16px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:normal;margin:1.25em 0px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;🫶🏻 Sân BBQ : Sân BBQ thoáng đãng, là nơi lý tưởng cho các buổi tiệc nướng vui vẻ và đầy ấm áp.&amp;nbsp;&lt;/p&gt;&lt;p style="--tw-backdrop-blur:;--tw-backdrop-brightness:;--tw-backdrop-contrast:;--tw-backdrop-grayscale:;--tw-backdrop-hue-rotate:;--tw-backdrop-invert:;--tw-backdrop-opacity:;--tw-backdrop-saturate:;--tw-backdrop-sepia:;--tw-blur:;--tw-border-spacing-x:0;--tw-border-spacing-y:0;--tw-brightness:;--tw-contrast:;--tw-drop-shadow:;--tw-gradient-from-position:;--tw-gradient-to-position:;--tw-gradient-via-position:;--tw-grayscale:;--tw-hue-rotate:;--tw-invert:;--tw-numeric-figure:;--tw-numeric-fraction:;--tw-numeric-spacing:;--tw-ordinal:;--tw-pan-x:;--tw-pan-y:;--tw-pinch-zoom:;--tw-ring-color:rgba(69,89,164,.5);--tw-ring-inset:;--tw-ring-offset-color:#fff;--tw-ring-offset-shadow:0 0 transparent;--tw-ring-offset-width:0px;--tw-ring-shadow:0 0 transparent;--tw-rotate:0;--tw-saturate:;--tw-scale-x:1;--tw-scale-y:1;--tw-scroll-snap-strictness:proximity;--tw-sepia:;--tw-shadow-colored:0 0 transparent;--tw-shadow:0 0 transparent;--tw-skew-x:0;--tw-skew-y:0;--tw-slashed-zero:;--tw-translate-x:0;--tw-translate-y:0;-webkit-text-stroke-width:0px;background-color:rgb(255, 255, 255);border:0px solid rgb(227, 227, 227);box-sizing:border-box;color:rgb(13, 13, 13);font-family:Söhne, ui-sans-serif, system-ui, -apple-system, &amp;quot;Segoe UI&amp;quot;, Roboto, Ubuntu, Cantarell, &amp;quot;Noto Sans&amp;quot;, sans-serif, &amp;quot;Helvetica Neue&amp;quot;, Arial, &amp;quot;Apple Color Emoji&amp;quot;, &amp;quot;Segoe UI Emoji&amp;quot;, &amp;quot;Segoe UI Symbol&amp;quot;, &amp;quot;Noto Color Emoji&amp;quot;;font-size:16px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:normal;margin:1.25em 0px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;📌 Máy Nước Nóng: Sẵn có nước nóng 24/7, đảm bảo bạn luôn cảm thấy thoải mái và thư giãn.&amp;nbsp;&lt;/p&gt;&lt;p style="--tw-backdrop-blur:;--tw-backdrop-brightness:;--tw-backdrop-contrast:;--tw-backdrop-grayscale:;--tw-backdrop-hue-rotate:;--tw-backdrop-invert:;--tw-backdrop-opacity:;--tw-backdrop-saturate:;--tw-backdrop-sepia:;--tw-blur:;--tw-border-spacing-x:0;--tw-border-spacing-y:0;--tw-brightness:;--tw-contrast:;--tw-drop-shadow:;--tw-gradient-from-position:;--tw-gradient-to-position:;--tw-gradient-via-position:;--tw-grayscale:;--tw-hue-rotate:;--tw-invert:;--tw-numeric-figure:;--tw-numeric-fraction:;--tw-numeric-spacing:;--tw-ordinal:;--tw-pan-x:;--tw-pan-y:;--tw-pinch-zoom:;--tw-ring-color:rgba(69,89,164,.5);--tw-ring-inset:;--tw-ring-offset-color:#fff;--tw-ring-offset-shadow:0 0 transparent;--tw-ring-offset-width:0px;--tw-ring-shadow:0 0 transparent;--tw-rotate:0;--tw-saturate:;--tw-scale-x:1;--tw-scale-y:1;--tw-scroll-snap-strictness:proximity;--tw-sepia:;--tw-shadow-colored:0 0 transparent;--tw-shadow:0 0 transparent;--tw-skew-x:0;--tw-skew-y:0;--tw-slashed-zero:;--tw-translate-x:0;--tw-translate-y:0;-webkit-text-stroke-width:0px;background-color:rgb(255, 255, 255);border:0px solid rgb(227, 227, 227);box-sizing:border-box;color:rgb(13, 13, 13);font-family:Söhne, ui-sans-serif, system-ui, -apple-system, &amp;quot;Segoe UI&amp;quot;, Roboto, Ubuntu, Cantarell, &amp;quot;Noto Sans&amp;quot;, sans-serif, &amp;quot;Helvetica Neue&amp;quot;, Arial, &amp;quot;Apple Color Emoji&amp;quot;, &amp;quot;Segoe UI Emoji&amp;quot;, &amp;quot;Segoe UI Symbol&amp;quot;, &amp;quot;Noto Color Emoji&amp;quot;;font-size:16px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:normal;margin:1.25em 0px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;📌 Đèn Chiếu Sáng: Hãy thư giãn dưới ánh đèn màu vàng ấm áp, tạo không gian lý tưởng cho việc đọc sách và tận hưởng khoảnh khắc riêng tư.&amp;nbsp;&lt;/p&gt;&lt;p style="--tw-backdrop-blur:;--tw-backdrop-brightness:;--tw-backdrop-contrast:;--tw-backdrop-grayscale:;--tw-backdrop-hue-rotate:;--tw-backdrop-invert:;--tw-backdrop-opacity:;--tw-backdrop-saturate:;--tw-backdrop-sepia:;--tw-blur:;--tw-border-spacing-x:0;--tw-border-spacing-y:0;--tw-brightness:;--tw-contrast:;--tw-drop-shadow:;--tw-gradient-from-position:;--tw-gradient-to-position:;--tw-gradient-via-position:;--tw-grayscale:;--tw-hue-rotate:;--tw-invert:;--tw-numeric-figure:;--tw-numeric-fraction:;--tw-numeric-spacing:;--tw-ordinal:;--tw-pan-x:;--tw-pan-y:;--tw-pinch-zoom:;--tw-ring-color:rgba(69,89,164,.5);--tw-ring-inset:;--tw-ring-offset-color:#fff;--tw-ring-offset-shadow:0 0 transparent;--tw-ring-offset-width:0px;--tw-ring-shadow:0 0 transparent;--tw-rotate:0;--tw-saturate:;--tw-scale-x:1;--tw-scale-y:1;--tw-scroll-snap-strictness:proximity;--tw-sepia:;--tw-shadow-colored:0 0 transparent;--tw-shadow:0 0 transparent;--tw-skew-x:0;--tw-skew-y:0;--tw-slashed-zero:;--tw-translate-x:0;--tw-translate-y:0;-webkit-text-stroke-width:0px;background-color:rgb(255, 255, 255);border:0px solid rgb(227, 227, 227);box-sizing:border-box;color:rgb(13, 13, 13);font-family:Söhne, ui-sans-serif, system-ui, -apple-system, &amp;quot;Segoe UI&amp;quot;, Roboto, Ubuntu, Cantarell, &amp;quot;Noto Sans&amp;quot;, sans-serif, &amp;quot;Helvetica Neue&amp;quot;, Arial, &amp;quot;Apple Color Emoji&amp;quot;, &amp;quot;Segoe UI Emoji&amp;quot;, &amp;quot;Segoe UI Symbol&amp;quot;, &amp;quot;Noto Color Emoji&amp;quot;;font-size:16px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:normal;margin:1.25em 0px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;🏡 Địa chỉ: 14/2 Gio An - P.5 - TP.Đà Lạt&amp;nbsp;&lt;/p&gt;&lt;p style="--tw-backdrop-blur:;--tw-backdrop-brightness:;--tw-backdrop-contrast:;--tw-backdrop-grayscale:;--tw-backdrop-hue-rotate:;--tw-backdrop-invert:;--tw-backdrop-opacity:;--tw-backdrop-saturate:;--tw-backdrop-sepia:;--tw-blur:;--tw-border-spacing-x:0;--tw-border-spacing-y:0;--tw-brightness:;--tw-contrast:;--tw-drop-shadow:;--tw-gradient-from-position:;--tw-gradient-to-position:;--tw-gradient-via-position:;--tw-grayscale:;--tw-hue-rotate:;--tw-invert:;--tw-numeric-figure:;--tw-numeric-fraction:;--tw-numeric-spacing:;--tw-ordinal:;--tw-pan-x:;--tw-pan-y:;--tw-pinch-zoom:;--tw-ring-color:rgba(69,89,164,.5);--tw-ring-inset:;--tw-ring-offset-color:#fff;--tw-ring-offset-shadow:0 0 transparent;--tw-ring-offset-width:0px;--tw-ring-shadow:0 0 transparent;--tw-rotate:0;--tw-saturate:;--tw-scale-x:1;--tw-scale-y:1;--tw-scroll-snap-strictness:proximity;--tw-sepia:;--tw-shadow-colored:0 0 transparent;--tw-shadow:0 0 transparent;--tw-skew-x:0;--tw-skew-y:0;--tw-slashed-zero:;--tw-translate-x:0;--tw-translate-y:0;-webkit-text-stroke-width:0px;background-color:rgb(255, 255, 255);border:0px solid rgb(227, 227, 227);box-sizing:border-box;color:rgb(13, 13, 13);font-family:Söhne, ui-sans-serif, system-ui, -apple-system, &amp;quot;Segoe UI&amp;quot;, Roboto, Ubuntu, Cantarell, &amp;quot;Noto Sans&amp;quot;, sans-serif, &amp;quot;Helvetica Neue&amp;quot;, Arial, &amp;quot;Apple Color Emoji&amp;quot;, &amp;quot;Segoe UI Emoji&amp;quot;, &amp;quot;Segoe UI Symbol&amp;quot;, &amp;quot;Noto Color Emoji&amp;quot;;font-size:16px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:normal;margin:1.25em 0px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;🛵 Chỉ cách trung tâm 5 phút đi xe máy.&lt;/p&gt;&lt;p style="--tw-backdrop-blur:;--tw-backdrop-brightness:;--tw-backdrop-contrast:;--tw-backdrop-grayscale:;--tw-backdrop-hue-rotate:;--tw-backdrop-invert:;--tw-backdrop-opacity:;--tw-backdrop-saturate:;--tw-backdrop-sepia:;--tw-blur:;--tw-border-spacing-x:0;--tw-border-spacing-y:0;--tw-brightness:;--tw-contrast:;--tw-drop-shadow:;--tw-gradient-from-position:;--tw-gradient-to-position:;--tw-gradient-via-position:;--tw-grayscale:;--tw-hue-rotate:;--tw-invert:;--tw-numeric-figure:;--tw-numeric-fraction:;--tw-numeric-spacing:;--tw-ordinal:;--tw-pan-x:;--tw-pan-y:;--tw-pinch-zoom:;--tw-ring-color:rgba(69,89,164,.5);--tw-ring-inset:;--tw-ring-offset-color:#fff;--tw-ring-offset-shadow:0 0 transparent;--tw-ring-offset-width:0px;--tw-ring-shadow:0 0 transparent;--tw-rotate:0;--tw-saturate:;--tw-scale-x:1;--tw-scale-y:1;--tw-scroll-snap-strictness:proximity;--tw-sepia:;--tw-shadow-colored:0 0 transparent;--tw-shadow:0 0 transparent;--tw-skew-x:0;--tw-skew-y:0;--tw-slashed-zero:;--tw-translate-x:0;--tw-translate-y:0;-webkit-text-stroke-width:0px;background-color:rgb(255, 255, 255);border:0px solid rgb(227, 227, 227);box-sizing:border-box;color:rgb(13, 13, 13);font-family:Söhne, ui-sans-serif, system-ui, -apple-system, &amp;quot;Segoe UI&amp;quot;, Roboto, Ubuntu, Cantarell, &amp;quot;Noto Sans&amp;quot;, sans-serif, &amp;quot;Helvetica Neue&amp;quot;, Arial, &amp;quot;Apple Color Emoji&amp;quot;, &amp;quot;Segoe UI Emoji&amp;quot;, &amp;quot;Segoe UI Symbol&amp;quot;, &amp;quot;Noto Color Emoji&amp;quot;;font-size:16px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:normal;margin:1.25em 0px 0px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Homestay Đà Lạt HS3 không chỉ là nơi dừng chân lý tưởng, mà còn là điểm đến tuyệt vời để bạn tận hưởng những khoảnh khắc thư giãn và đắm chìm trong không gian bình yên của Đà Lạt. Hãy đặt phòng ngay hôm nay để có một trải nghiệm đáng nhớ nhất! 🌲🌲🌲&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>SC23</t>
+  </si>
+  <si>
+    <t>Villa Đà Lạt SC23 - Villa mới toanh theo phong cách hiện đại, sang trọng.</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>Địa chỉ: An Bình, Phường 3, Đà Lạt</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- Giới Thiệu Homestay Đà Lạt HS1 Chiếc homestay ngắm trọn view Đà Lạt trong lòng, có thể sân mây vào những ngày trời se lạnh.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- Cơ Cấu Homestay Đà Lạt HS11&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Gồm 4p ngủ đơn + 2 nệm phụ sức chứa tối đa 12 người&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• 3WC ( 2WC trong + 1 WC ngoài)&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Phòng khách siêu rộng rãi có smart TV&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Nhà bếp gỗ tách biệt và đầy đủ dụng cụ bếp. - Tiện ích:&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Cách trung tâm khoảng 5p chạy xe ra tới trung tâm&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Đường xá bằng phẳng, ô tô tới tận nơi&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Sân BBQ, sân đốt lửa trại rộng rãi, thoải mái&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• View thung lũng nhà và nhà lồng&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>HSL49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Homestay Đà Lạt HSL49 - Có Sẵn Máy Chiếu Phim, Bồn Tắm, View Đẹp </t>
-  </si>
-  <si>
-    <t>Hẻm 3 đặng thái thân , p3 , đà lạt
-- Cách trung tâm (5-7ph) đi xe</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;GT Homestay Đà Lạt HSL49 Căn Hộ View đồi thông, và set up máy chiếu free. Cơ cấu Giao chìa căn hộ 1 giường 1m8&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- Tiện nghi:&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Tủ lạnh , ấm siêu tốc , máy sấy tóc, ổ điện phụ, bếp nấu ăn , quạt , bồn tắm&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;•Bàn ghế ăn , sân BBQ&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• free nước suối , cf và trà có sẵn&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Set up máy chiếu free&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>SC23</t>
-  </si>
-  <si>
-    <t>Villa Đà Lạt SC23 - Villa mới toanh theo phong cách hiện đại, sang trọng.</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
     <t>Địa chỉ: 91 Hùng Vương - Khu Du lịch Nam Hồ Phường 11 - TP. Đà Lạt</t>
   </si>
   <si>
-    <t>VILLA CAO CẤP</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Villa Đà Lạt SC23 - Villa mới toanh theo phong cách hiện đại, sang trọng. Nằm trong KDL Biệt thự nghĩ dưỡng Nam Hồ-Khu vực đặc biệt an ninh và yên tĩnh. Cách chợ Đà Lạt 5km với 5-7 phút di chuyển ra trung tâm.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Cơ cấu: &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-14-column-33.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;🤗&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Gồm 4 phòng ngủ: 3 Phòng 1 giường (1m8) và 1 phòng 2 giường (1m6) - 5wc Villa có trang bị thêm nệm dự phòng. Sức chứa 12-15 Khách. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-14-column-33.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;🤗&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;01 Phòng khách , 01 phòng bếp đầy đủ tiện nghi. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-14-column-33.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;🤗&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Sân vườn rộng rãi tiêu chuẩn thích hợp cho BBQ. Đậu xe trong khuôn viên.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
+    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Villa Đà Lạt SC23 - Villa mới toanh theo phong cách hiện đại, sang trọng. Nằm trong KDL Biệt thự nghĩ dưỡng Nam Hồ-Khu vực đặc biệt an ninh và yên tĩnh. Cách chợ Đà Lạt 5km với 5-7 phút di chuyển ra trung tâm.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Cơ cấu: &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-14-column-33.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;?&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Gồm 4 phòng ngủ: 3 Phòng 1 giường (1m8) và 1 phòng 2 giường (1m6) - 5wc Villa có trang bị thêm nệm dự phòng. Sức chứa 12-15 Khách. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-14-column-33.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;?&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;01 Phòng khách , 01 phòng bếp đầy đủ tiện nghi. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-14-column-33.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;?&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Sân vườn rộng rãi tiêu chuẩn thích hợp cho BBQ. Đậu xe trong khuôn viên.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>SC27</t>
@@ -181,10 +135,7 @@
     <t>Địa chỉ :Toạ lạc tại đường Hùng Vương cách chợ khoảng 5km với 7-10 phút chạy xe</t>
   </si>
   <si>
-    <t>VILLA BÌNH DÂN</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Villa Đà Lạt SC27 - Chạm vào hương sắc tình khúc Đà Lạt, tôi ngất ngây.&lt;br&gt;Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng&lt;br&gt;Cơ cấu:&lt;br&gt;Có 3 phòng ngủ (2P đơn và 1P đôi).4wc.&lt;br&gt;Giao chìa khoá nguyên căn.&lt;/p&gt;&lt;p&gt;❇ Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng. &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp;&amp;nbsp;&lt;br&gt;❇️ Sân vườn rộng, với những góc so chill cho những bữa tiệc BBQ quây quần bên gia đình.&lt;/p&gt;&lt;p&gt;❇Toạ lạc tại đường Hùng Vương cách chợ khoảng 5km với 7-10 phút chạy xe&lt;/p&gt;&lt;p&gt;👉 Chắc chắn là nơi nghỉ dưỡng du lịch lý tưởng cho du khách khi đến với thành phố hoa Đà Lạt&lt;/p&gt;</t>
+    <t>&lt;p&gt;Villa Đà Lạt SC27 - Chạm vào hương sắc tình khúc Đà Lạt, tôi ngất ngây.&lt;br&gt;Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng&lt;br&gt;Cơ cấu:&lt;br&gt;Có 3 phòng ngủ (2P đơn và 1P đôi).4wc.&lt;br&gt;Giao chìa khoá nguyên căn.&lt;/p&gt;&lt;p&gt;❇ Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng. &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp;&amp;nbsp;&lt;br&gt;❇️ Sân vườn rộng, với những góc so chill cho những bữa tiệc BBQ quây quần bên gia đình.&lt;/p&gt;&lt;p&gt;❇Toạ lạc tại đường Hùng Vương cách chợ khoảng 5km với 7-10 phút chạy xe&lt;/p&gt;&lt;p&gt;? Chắc chắn là nơi nghỉ dưỡng du lịch lý tưởng cho du khách khi đến với thành phố hoa Đà Lạt&lt;/p&gt;</t>
   </si>
   <si>
     <t>SC29</t>
@@ -196,7 +147,7 @@
     <t xml:space="preserve">Địa chỉ: 91 Hùng Vương - Khu du lịch Nam Hồ </t>
   </si>
   <si>
-    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Villa Đà Lạt SC29 - Villa Sân vườn rộng, với những góc so chill cho những bữa tiệc BBQ quây quần bên gia đình.&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;Cơ cấu: 2 đơn + 1 đôi , 4wc. Mỗi căn tiêu chuẩn 10kh (có 2 nệm extra free trong từng căn).&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;❇Toạ lạc tại đường Hùng Vương cách chợ khoảng 5km với 7-10 phút chạy xe. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-3-column-5.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;❇&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt; Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng.&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;❇️ Có 3 phòng ngủ - 4 WC. Giao chìa khoá nguyên căn.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;❇️ Sân vườn rộng, với những góc so chill cho những bữa tiệc BBQ quây quần bên gia đình. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-27-column-15.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;👉&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt; Chắc chắn là nơi nghỉ dưỡng du lịch lý tưởng cho du khách khi đến với thành phố hoa Đà Lạt&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
+    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Villa Đà Lạt SC29 - Villa Sân vườn rộng, với những góc so chill cho những bữa tiệc BBQ quây quần bên gia đình.&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;Cơ cấu: 2 đơn + 1 đôi , 4wc. Mỗi căn tiêu chuẩn 10kh (có 2 nệm extra free trong từng căn).&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;❇Toạ lạc tại đường Hùng Vương cách chợ khoảng 5km với 7-10 phút chạy xe. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-3-column-5.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;❇&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt; Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng.&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;❇️ Có 3 phòng ngủ - 4 WC. Giao chìa khoá nguyên căn.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;❇️ Sân vườn rộng, với những góc so chill cho những bữa tiệc BBQ quây quần bên gia đình. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-27-column-15.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;?&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt; Chắc chắn là nơi nghỉ dưỡng du lịch lý tưởng cho du khách khi đến với thành phố hoa Đà Lạt&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>SC3</t>
@@ -208,7 +159,7 @@
     <t>Vị trí: Đường Nguyễn Đình Chiểu, Phường 9, Tp. Đà Lạt (Cách Hồ Xuân Hương 1km và cách Trung tâm ~2km)</t>
   </si>
   <si>
-    <t>&lt;p&gt;Giới thiệu VILLA ĐÀ LẠT SC3 - Villa rộng ~600m2 (Cả sân vườn) với 5 Phòng Ngủ cùng phong cách Bán Cổ Điển&lt;br&gt;🌸Cơ cấu:&amp;nbsp;&lt;br&gt;5 Phòng Ngủ (Giường Size Lớn) + 4 nệm phụ&lt;br&gt;- Máy Lạnh riêng mỗi phòng&amp;nbsp;&lt;br&gt;- Toilet riêng&lt;br&gt;- 1 Phòng Khách có lò sưởi&amp;nbsp;&lt;br&gt;- 1 Sân vườn (Chảo đốt lửa)&amp;nbsp;&lt;br&gt;- Sân đậu được 3-4 ô tô&amp;nbsp;&lt;br&gt;- Tiêu chuẩn 12 Người lớn &amp;amp; 4 Bé (Dưới 6 tuổi)&lt;br&gt;Tiện ích:&amp;nbsp;&lt;br&gt;✅ Mỗi Phòng đều trang bị đầy đủ: Máy Lạnh - Toilet riêng - Smart Tivi - Nước nóng - Giường size lớn&lt;br&gt;✅ Trang bị đầy đủ: Sữa tắm, dầu gội, bàn chải, nước rửa tay, máy sấy, bàn ủi…&lt;br&gt;⚜ Không gian phòng khách và bếp đầy đủ tiện nghi: Lò Sưởi, Tủ Lạnh, Bếp, Máy giặt, Máy Sấy, Loa Marshall ….&lt;br&gt;⚜ Sân rộng thoáng phù hợp cho tiệc BBQ ngoài trời, có cả khu vực đốt lửa (Chảo lửa ngoài trời)&lt;br&gt;⚜ Được trang bị cả không gian giải trí cho bé: 1 bàn Bi-lắc mini, sách truyện, gấu bông ...&lt;br&gt;⚜ Villa nằm trong trong khu vực yên tĩnh, thích hợp cho gia đình nghỉ dưỡng&lt;br&gt;⚜ Đường dễ đi, sân đậu xe thoải mái&lt;br&gt;⚜ Cung đường thuận tiện di chuyển đến các địa điểm ăn uống và du lịch như Hồ Xuân Hương, Vườn Hoa Thành Phố, Thung Lũng Tình Yêu, Đồi Mộng Mơ, XQ Đà Lạt Sử Quán, Vườn Dâu v...v...&lt;br&gt;⚜ Giao chìa khoá nguyên căn&lt;br&gt;——————&lt;br&gt;❌ LƯU Ý:&amp;nbsp;&lt;br&gt;✅ Quý khách không sử dụng Loa Kéo&amp;nbsp;&lt;br&gt;✅ Villa có cọc thêm 2tr tiền đảm bảo tài sản khi check in. Sẽ hoàn lại cho khách khi check out nếu không xảy ra hư hỏng tài sản hoặc phát sinh thêm&lt;/p&gt;</t>
+    <t>&lt;p&gt;Giới thiệu VILLA ĐÀ LẠT SC3 - Villa rộng ~600m2 (Cả sân vườn) với 5 Phòng Ngủ cùng phong cách Bán Cổ Điển&lt;br&gt;?Cơ cấu:&amp;nbsp;&lt;br&gt;5 Phòng Ngủ (Giường Size Lớn) + 4 nệm phụ&lt;br&gt;- Máy Lạnh riêng mỗi phòng&amp;nbsp;&lt;br&gt;- Toilet riêng&lt;br&gt;- 1 Phòng Khách có lò sưởi&amp;nbsp;&lt;br&gt;- 1 Sân vườn (Chảo đốt lửa)&amp;nbsp;&lt;br&gt;- Sân đậu được 3-4 ô tô&amp;nbsp;&lt;br&gt;- Tiêu chuẩn 12 Người lớn &amp;amp; 4 Bé (Dưới 6 tuổi)&lt;br&gt;Tiện ích:&amp;nbsp;&lt;br&gt;✅ Mỗi Phòng đều trang bị đầy đủ: Máy Lạnh - Toilet riêng - Smart Tivi - Nước nóng - Giường size lớn&lt;br&gt;✅ Trang bị đầy đủ: Sữa tắm, dầu gội, bàn chải, nước rửa tay, máy sấy, bàn ủi…&lt;br&gt;⚜ Không gian phòng khách và bếp đầy đủ tiện nghi: Lò Sưởi, Tủ Lạnh, Bếp, Máy giặt, Máy Sấy, Loa Marshall ….&lt;br&gt;⚜ Sân rộng thoáng phù hợp cho tiệc BBQ ngoài trời, có cả khu vực đốt lửa (Chảo lửa ngoài trời)&lt;br&gt;⚜ Được trang bị cả không gian giải trí cho bé: 1 bàn Bi-lắc mini, sách truyện, gấu bông ...&lt;br&gt;⚜ Villa nằm trong trong khu vực yên tĩnh, thích hợp cho gia đình nghỉ dưỡng&lt;br&gt;⚜ Đường dễ đi, sân đậu xe thoải mái&lt;br&gt;⚜ Cung đường thuận tiện di chuyển đến các địa điểm ăn uống và du lịch như Hồ Xuân Hương, Vườn Hoa Thành Phố, Thung Lũng Tình Yêu, Đồi Mộng Mơ, XQ Đà Lạt Sử Quán, Vườn Dâu v...v...&lt;br&gt;⚜ Giao chìa khoá nguyên căn&lt;br&gt;——————&lt;br&gt;❌ LƯU Ý:&amp;nbsp;&lt;br&gt;✅ Quý khách không sử dụng Loa Kéo&amp;nbsp;&lt;br&gt;✅ Villa có cọc thêm 2tr tiền đảm bảo tài sản khi check in. Sẽ hoàn lại cho khách khi check out nếu không xảy ra hư hỏng tài sản hoặc phát sinh thêm&lt;/p&gt;</t>
   </si>
   <si>
     <t>SC30</t>
@@ -217,7 +168,7 @@
     <t>Villa Đà Lạt SC30 - Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng</t>
   </si>
   <si>
-    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Giới thiệu Villa Đà Lạt SC30&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;🌺Cơ cấu: Cơ cấu: 3 Phòng -3 giường nệm extra&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;❇Toạ lạc tại đường Hùng Vương cách chợ khoảng 5km với 7-10 phút chạy xe. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-3-column-5.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;❇&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;❇️ Có 3 phòng ngủ - 4 WC. Giao chìa khoá nguyên căn.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;❇️ Sân vườn rộng, với những góc so chill cho những bữa tiệc BBQ quây quần bên gia đình. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-27-column-15.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;👉&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;Chắc chắn là nơi nghỉ dưỡng du lịch lý tưởng cho du khách khi đến với thành phố hoa Đà Lạt&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
+    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Giới thiệu Villa Đà Lạt SC30&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;?Cơ cấu: Cơ cấu: 3 Phòng -3 giường nệm extra&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;❇Toạ lạc tại đường Hùng Vương cách chợ khoảng 5km với 7-10 phút chạy xe. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-3-column-5.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;❇&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;❇️ Có 3 phòng ngủ - 4 WC. Giao chìa khoá nguyên căn.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;❇️ Sân vườn rộng, với những góc so chill cho những bữa tiệc BBQ quây quần bên gia đình. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-27-column-15.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;?&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;Chắc chắn là nơi nghỉ dưỡng du lịch lý tưởng cho du khách khi đến với thành phố hoa Đà Lạt&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>SC31</t>
@@ -238,10 +189,10 @@
     <t>VILLA Đà Lạt Hồ Bơi HB1 - Có sân thượng ngắm view thành phố</t>
   </si>
   <si>
-    <t>📍 Vị trí : 100/2 Nam Hồ. Trường tiểu học nam hồ đi tới 500m</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Giới thiệu: VILLA Đà Lạt Hồ Bơi HB1&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- Có sân thượng ngắm view thành phố&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Cơ cấu&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;phòng: 2 đôi 2 đơn. 1 phòng đôi dưới trệt. Wc riêng từng phòng&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;🍀Có 1 phòng có bồn tắm view thành phố&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;🏊‍♂️Có hồ bơi&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;🍖Có sân bbq&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;🚘Bãi xe rộng ( 3 xe 7 chỗ, vô được xe 16 chỗ) Đường nhựa rộng, không dốc, xung quanh homestay villa nhiều&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
+    <t>? Vị trí : 100/2 Nam Hồ. Trường tiểu học nam hồ đi tới 500m</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Giới thiệu: VILLA Đà Lạt Hồ Bơi HB1&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- Có sân thượng ngắm view thành phố&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Cơ cấu&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;phòng: 2 đôi 2 đơn. 1 phòng đôi dưới trệt. Wc riêng từng phòng&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;?Có 1 phòng có bồn tắm view thành phố&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;?‍♂️Có hồ bơi&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;?Có sân bbq&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;?Bãi xe rộng ( 3 xe 7 chỗ, vô được xe 16 chỗ) Đường nhựa rộng, không dốc, xung quanh homestay villa nhiều&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -297,14 +248,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="4.19140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="6.57421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="5.94921875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="99.54296875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="9.328125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="6.109375" customWidth="true" bestFit="true"/>
@@ -313,7 +264,7 @@
     <col min="8" max="8" width="9.328125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.78125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="5.45703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="18.16015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="15.546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -377,10 +328,10 @@
         <v>1000000.0</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>45343.0</v>
+        <v>45357.0</v>
       </c>
       <c r="I2" t="n" s="0">
-        <v>45343.0</v>
+        <v>45357.0</v>
       </c>
       <c r="J2" t="n" s="0">
         <v>1.0</v>
@@ -444,28 +395,28 @@
         <v>27</v>
       </c>
       <c r="E4" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="F4" t="s" s="0">
+      <c r="G4" t="n" s="0">
+        <v>1800000.0</v>
+      </c>
+      <c r="H4" t="n" s="0">
+        <v>45353.0</v>
+      </c>
+      <c r="I4" t="n" s="0">
+        <v>45353.0</v>
+      </c>
+      <c r="J4" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="K4" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="G4" t="n" s="0">
-        <v>1700000.0</v>
-      </c>
-      <c r="H4" t="n" s="0">
-        <v>45343.0</v>
-      </c>
-      <c r="I4" t="n" s="0">
-        <v>45343.0</v>
-      </c>
-      <c r="J4" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="K4" t="s" s="0">
+      <c r="L4" t="s" s="0">
         <v>30</v>
-      </c>
-      <c r="L4" t="s" s="0">
-        <v>31</v>
       </c>
     </row>
     <row r="5">
@@ -473,13 +424,13 @@
         <v>5.0</v>
       </c>
       <c r="B5" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="D5" t="s" s="0">
         <v>33</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>34</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>34</v>
@@ -491,16 +442,16 @@
         <v>1000000.0</v>
       </c>
       <c r="H5" t="n" s="0">
-        <v>45343.0</v>
+        <v>45345.0</v>
       </c>
       <c r="I5" t="n" s="0">
-        <v>45343.0</v>
+        <v>45345.0</v>
       </c>
       <c r="J5" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="K5" t="s" s="0">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="L5" t="s" s="0">
         <v>36</v>
@@ -517,31 +468,31 @@
         <v>38</v>
       </c>
       <c r="D6" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="E6" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s" s="0">
+      <c r="G6" t="n" s="0">
+        <v>1000000.0</v>
+      </c>
+      <c r="H6" t="n" s="0">
+        <v>45345.0</v>
+      </c>
+      <c r="I6" t="n" s="0">
+        <v>45345.0</v>
+      </c>
+      <c r="J6" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="K6" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="L6" t="s" s="0">
         <v>40</v>
-      </c>
-      <c r="G6" t="n" s="0">
-        <v>1000000.0</v>
-      </c>
-      <c r="H6" t="n" s="0">
-        <v>45343.0</v>
-      </c>
-      <c r="I6" t="n" s="0">
-        <v>45343.0</v>
-      </c>
-      <c r="J6" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="K6" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="L6" t="s" s="0">
-        <v>41</v>
       </c>
     </row>
     <row r="7">
@@ -549,37 +500,37 @@
         <v>7.0</v>
       </c>
       <c r="B7" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="C7" t="s" s="0">
+      <c r="D7" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="D7" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s" s="0">
+      <c r="G7" t="n" s="0">
+        <v>1000000.0</v>
+      </c>
+      <c r="H7" t="n" s="0">
+        <v>45345.0</v>
+      </c>
+      <c r="I7" t="n" s="0">
+        <v>45345.0</v>
+      </c>
+      <c r="J7" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="K7" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="L7" t="s" s="0">
         <v>44</v>
-      </c>
-      <c r="G7" t="n" s="0">
-        <v>1000000.0</v>
-      </c>
-      <c r="H7" t="n" s="0">
-        <v>45343.0</v>
-      </c>
-      <c r="I7" t="n" s="0">
-        <v>45343.0</v>
-      </c>
-      <c r="J7" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="K7" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="L7" t="s" s="0">
-        <v>45</v>
       </c>
     </row>
     <row r="8">
@@ -587,37 +538,37 @@
         <v>8.0</v>
       </c>
       <c r="B8" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="C8" t="s" s="0">
+      <c r="D8" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="D8" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="E8" t="s" s="0">
+      <c r="G8" t="n" s="0">
+        <v>1000000.0</v>
+      </c>
+      <c r="H8" t="n" s="0">
+        <v>45343.0</v>
+      </c>
+      <c r="I8" t="n" s="0">
+        <v>45343.0</v>
+      </c>
+      <c r="J8" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="K8" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="L8" t="s" s="0">
         <v>48</v>
-      </c>
-      <c r="F8" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="G8" t="n" s="0">
-        <v>1000000.0</v>
-      </c>
-      <c r="H8" t="n" s="0">
-        <v>45345.0</v>
-      </c>
-      <c r="I8" t="n" s="0">
-        <v>45345.0</v>
-      </c>
-      <c r="J8" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="K8" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="L8" t="s" s="0">
-        <v>51</v>
       </c>
     </row>
     <row r="9">
@@ -625,19 +576,19 @@
         <v>9.0</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s" s="0">
         <v>27</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G9" t="n" s="0">
         <v>1000000.0</v>
@@ -652,10 +603,10 @@
         <v>1.0</v>
       </c>
       <c r="K9" t="s" s="0">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="L9" t="s" s="0">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
@@ -663,37 +614,37 @@
         <v>10.0</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G10" t="n" s="0">
         <v>1000000.0</v>
       </c>
       <c r="H10" t="n" s="0">
-        <v>45345.0</v>
+        <v>45343.0</v>
       </c>
       <c r="I10" t="n" s="0">
-        <v>45345.0</v>
+        <v>45343.0</v>
       </c>
       <c r="J10" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="K10" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="L10" t="s" s="0">
         <v>55</v>
-      </c>
-      <c r="L10" t="s" s="0">
-        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -701,19 +652,19 @@
         <v>11.0</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G11" t="n" s="0">
         <v>1000000.0</v>
@@ -728,124 +679,10 @@
         <v>1.0</v>
       </c>
       <c r="K11" t="s" s="0">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="L11" t="s" s="0">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n" s="0">
-        <v>12.0</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>65</v>
-      </c>
-      <c r="C12" t="s" s="0">
-        <v>66</v>
-      </c>
-      <c r="D12" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="E12" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="F12" t="s" s="0">
         <v>59</v>
-      </c>
-      <c r="G12" t="n" s="0">
-        <v>1000000.0</v>
-      </c>
-      <c r="H12" t="n" s="0">
-        <v>45345.0</v>
-      </c>
-      <c r="I12" t="n" s="0">
-        <v>45345.0</v>
-      </c>
-      <c r="J12" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="K12" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="L12" t="s" s="0">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n" s="0">
-        <v>13.0</v>
-      </c>
-      <c r="B13" t="s" s="0">
-        <v>68</v>
-      </c>
-      <c r="C13" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="D13" t="s" s="0">
-        <v>48</v>
-      </c>
-      <c r="E13" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="F13" t="s" s="0">
-        <v>70</v>
-      </c>
-      <c r="G13" t="n" s="0">
-        <v>1000000.0</v>
-      </c>
-      <c r="H13" t="n" s="0">
-        <v>45343.0</v>
-      </c>
-      <c r="I13" t="n" s="0">
-        <v>45343.0</v>
-      </c>
-      <c r="J13" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="K13" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="L13" t="s" s="0">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n" s="0">
-        <v>14.0</v>
-      </c>
-      <c r="B14" t="s" s="0">
-        <v>72</v>
-      </c>
-      <c r="C14" t="s" s="0">
-        <v>73</v>
-      </c>
-      <c r="D14" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="E14" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="F14" t="s" s="0">
-        <v>74</v>
-      </c>
-      <c r="G14" t="n" s="0">
-        <v>1000000.0</v>
-      </c>
-      <c r="H14" t="n" s="0">
-        <v>45343.0</v>
-      </c>
-      <c r="I14" t="n" s="0">
-        <v>45343.0</v>
-      </c>
-      <c r="J14" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="K14" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="L14" t="s" s="0">
-        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/document/houses.xlsx
+++ b/src/main/webapp/document/houses.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="61">
   <si>
     <t>STT</t>
   </si>
@@ -102,37 +102,40 @@
     <t>14/2 Gio An - P.5 - TP.Đà Lạt</t>
   </si>
   <si>
+    <t>VILLA TẦM TRUNG</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&amp;nbsp;&lt;span style="background-color:rgb(255,255,255);color:rgb(13,13,13);font-family:Söhne, ui-sans-serif, system-ui, -apple-system, &amp;quot;Segoe UI&amp;quot;, Roboto, Ubuntu, Cantarell, &amp;quot;Noto Sans&amp;quot;, sans-serif, &amp;quot;Helvetica Neue&amp;quot;, Arial, &amp;quot;Apple Color Emoji&amp;quot;, &amp;quot;Segoe UI Emoji&amp;quot;, &amp;quot;Segoe UI Symbol&amp;quot;, &amp;quot;Noto Color Emoji&amp;quot;;font-size:16px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:normal;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Dạo này, mọi người đang cảm thấy mệt mỏi với nhịp sống hối hả và tiêu cực? Đừng lo lắng nữa! Hãy để Homestay Đà Lạt HS3 là điểm dừng chân lý tưởng của bạn để tìm lại sự bình yên và hạnh phúc!&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p style="--tw-backdrop-blur:;--tw-backdrop-brightness:;--tw-backdrop-contrast:;--tw-backdrop-grayscale:;--tw-backdrop-hue-rotate:;--tw-backdrop-invert:;--tw-backdrop-opacity:;--tw-backdrop-saturate:;--tw-backdrop-sepia:;--tw-blur:;--tw-border-spacing-x:0;--tw-border-spacing-y:0;--tw-brightness:;--tw-contrast:;--tw-drop-shadow:;--tw-gradient-from-position:;--tw-gradient-to-position:;--tw-gradient-via-position:;--tw-grayscale:;--tw-hue-rotate:;--tw-invert:;--tw-numeric-figure:;--tw-numeric-fraction:;--tw-numeric-spacing:;--tw-ordinal:;--tw-pan-x:;--tw-pan-y:;--tw-pinch-zoom:;--tw-ring-color:rgba(69,89,164,.5);--tw-ring-inset:;--tw-ring-offset-color:#fff;--tw-ring-offset-shadow:0 0 transparent;--tw-ring-offset-width:0px;--tw-ring-shadow:0 0 transparent;--tw-rotate:0;--tw-saturate:;--tw-scale-x:1;--tw-scale-y:1;--tw-scroll-snap-strictness:proximity;--tw-sepia:;--tw-shadow-colored:0 0 transparent;--tw-shadow:0 0 transparent;--tw-skew-x:0;--tw-skew-y:0;--tw-slashed-zero:;--tw-translate-x:0;--tw-translate-y:0;-webkit-text-stroke-width:0px;background-color:rgb(255, 255, 255);border:0px solid rgb(227, 227, 227);box-sizing:border-box;color:rgb(13, 13, 13);font-family:Söhne, ui-sans-serif, system-ui, -apple-system, &amp;quot;Segoe UI&amp;quot;, Roboto, Ubuntu, Cantarell, &amp;quot;Noto Sans&amp;quot;, sans-serif, &amp;quot;Helvetica Neue&amp;quot;, Arial, &amp;quot;Apple Color Emoji&amp;quot;, &amp;quot;Segoe UI Emoji&amp;quot;, &amp;quot;Segoe UI Symbol&amp;quot;, &amp;quot;Noto Color Emoji&amp;quot;;font-size:16px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:normal;margin:1.25em 0px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;📌 Cơ cấu: 3 phòng ngủ - 3 toilet, thiết kế sang trọng và ấm cúng.&amp;nbsp;&lt;/p&gt;&lt;p style="--tw-backdrop-blur:;--tw-backdrop-brightness:;--tw-backdrop-contrast:;--tw-backdrop-grayscale:;--tw-backdrop-hue-rotate:;--tw-backdrop-invert:;--tw-backdrop-opacity:;--tw-backdrop-saturate:;--tw-backdrop-sepia:;--tw-blur:;--tw-border-spacing-x:0;--tw-border-spacing-y:0;--tw-brightness:;--tw-contrast:;--tw-drop-shadow:;--tw-gradient-from-position:;--tw-gradient-to-position:;--tw-gradient-via-position:;--tw-grayscale:;--tw-hue-rotate:;--tw-invert:;--tw-numeric-figure:;--tw-numeric-fraction:;--tw-numeric-spacing:;--tw-ordinal:;--tw-pan-x:;--tw-pan-y:;--tw-pinch-zoom:;--tw-ring-color:rgba(69,89,164,.5);--tw-ring-inset:;--tw-ring-offset-color:#fff;--tw-ring-offset-shadow:0 0 transparent;--tw-ring-offset-width:0px;--tw-ring-shadow:0 0 transparent;--tw-rotate:0;--tw-saturate:;--tw-scale-x:1;--tw-scale-y:1;--tw-scroll-snap-strictness:proximity;--tw-sepia:;--tw-shadow-colored:0 0 transparent;--tw-shadow:0 0 transparent;--tw-skew-x:0;--tw-skew-y:0;--tw-slashed-zero:;--tw-translate-x:0;--tw-translate-y:0;-webkit-text-stroke-width:0px;background-color:rgb(255, 255, 255);border:0px solid rgb(227, 227, 227);box-sizing:border-box;color:rgb(13, 13, 13);font-family:Söhne, ui-sans-serif, system-ui, -apple-system, &amp;quot;Segoe UI&amp;quot;, Roboto, Ubuntu, Cantarell, &amp;quot;Noto Sans&amp;quot;, sans-serif, &amp;quot;Helvetica Neue&amp;quot;, Arial, &amp;quot;Apple Color Emoji&amp;quot;, &amp;quot;Segoe UI Emoji&amp;quot;, &amp;quot;Segoe UI Symbol&amp;quot;, &amp;quot;Noto Color Emoji&amp;quot;;font-size:16px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:normal;margin:1.25em 0px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;👩‍🍳 Bếp Ngọt Ngào: Không gian bếp ấm áp với những dụng cụ nấu nướng đầy đủ, cho bạn tự do sáng tạo và thưởng thức những món ngon.&lt;/p&gt;&lt;p style="--tw-backdrop-blur:;--tw-backdrop-brightness:;--tw-backdrop-contrast:;--tw-backdrop-grayscale:;--tw-backdrop-hue-rotate:;--tw-backdrop-invert:;--tw-backdrop-opacity:;--tw-backdrop-saturate:;--tw-backdrop-sepia:;--tw-blur:;--tw-border-spacing-x:0;--tw-border-spacing-y:0;--tw-brightness:;--tw-contrast:;--tw-drop-shadow:;--tw-gradient-from-position:;--tw-gradient-to-position:;--tw-gradient-via-position:;--tw-grayscale:;--tw-hue-rotate:;--tw-invert:;--tw-numeric-figure:;--tw-numeric-fraction:;--tw-numeric-spacing:;--tw-ordinal:;--tw-pan-x:;--tw-pan-y:;--tw-pinch-zoom:;--tw-ring-color:rgba(69,89,164,.5);--tw-ring-inset:;--tw-ring-offset-color:#fff;--tw-ring-offset-shadow:0 0 transparent;--tw-ring-offset-width:0px;--tw-ring-shadow:0 0 transparent;--tw-rotate:0;--tw-saturate:;--tw-scale-x:1;--tw-scale-y:1;--tw-scroll-snap-strictness:proximity;--tw-sepia:;--tw-shadow-colored:0 0 transparent;--tw-shadow:0 0 transparent;--tw-skew-x:0;--tw-skew-y:0;--tw-slashed-zero:;--tw-translate-x:0;--tw-translate-y:0;-webkit-text-stroke-width:0px;background-color:rgb(255, 255, 255);border:0px solid rgb(227, 227, 227);box-sizing:border-box;color:rgb(13, 13, 13);font-family:Söhne, ui-sans-serif, system-ui, -apple-system, &amp;quot;Segoe UI&amp;quot;, Roboto, Ubuntu, Cantarell, &amp;quot;Noto Sans&amp;quot;, sans-serif, &amp;quot;Helvetica Neue&amp;quot;, Arial, &amp;quot;Apple Color Emoji&amp;quot;, &amp;quot;Segoe UI Emoji&amp;quot;, &amp;quot;Segoe UI Symbol&amp;quot;, &amp;quot;Noto Color Emoji&amp;quot;;font-size:16px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:normal;margin:1.25em 0px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;🫶🏻 Sân BBQ : Sân BBQ thoáng đãng, là nơi lý tưởng cho các buổi tiệc nướng vui vẻ và đầy ấm áp.&amp;nbsp;&lt;/p&gt;&lt;p style="--tw-backdrop-blur:;--tw-backdrop-brightness:;--tw-backdrop-contrast:;--tw-backdrop-grayscale:;--tw-backdrop-hue-rotate:;--tw-backdrop-invert:;--tw-backdrop-opacity:;--tw-backdrop-saturate:;--tw-backdrop-sepia:;--tw-blur:;--tw-border-spacing-x:0;--tw-border-spacing-y:0;--tw-brightness:;--tw-contrast:;--tw-drop-shadow:;--tw-gradient-from-position:;--tw-gradient-to-position:;--tw-gradient-via-position:;--tw-grayscale:;--tw-hue-rotate:;--tw-invert:;--tw-numeric-figure:;--tw-numeric-fraction:;--tw-numeric-spacing:;--tw-ordinal:;--tw-pan-x:;--tw-pan-y:;--tw-pinch-zoom:;--tw-ring-color:rgba(69,89,164,.5);--tw-ring-inset:;--tw-ring-offset-color:#fff;--tw-ring-offset-shadow:0 0 transparent;--tw-ring-offset-width:0px;--tw-ring-shadow:0 0 transparent;--tw-rotate:0;--tw-saturate:;--tw-scale-x:1;--tw-scale-y:1;--tw-scroll-snap-strictness:proximity;--tw-sepia:;--tw-shadow-colored:0 0 transparent;--tw-shadow:0 0 transparent;--tw-skew-x:0;--tw-skew-y:0;--tw-slashed-zero:;--tw-translate-x:0;--tw-translate-y:0;-webkit-text-stroke-width:0px;background-color:rgb(255, 255, 255);border:0px solid rgb(227, 227, 227);box-sizing:border-box;color:rgb(13, 13, 13);font-family:Söhne, ui-sans-serif, system-ui, -apple-system, &amp;quot;Segoe UI&amp;quot;, Roboto, Ubuntu, Cantarell, &amp;quot;Noto Sans&amp;quot;, sans-serif, &amp;quot;Helvetica Neue&amp;quot;, Arial, &amp;quot;Apple Color Emoji&amp;quot;, &amp;quot;Segoe UI Emoji&amp;quot;, &amp;quot;Segoe UI Symbol&amp;quot;, &amp;quot;Noto Color Emoji&amp;quot;;font-size:16px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:normal;margin:1.25em 0px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;📌 Máy Nước Nóng: Sẵn có nước nóng 24/7, đảm bảo bạn luôn cảm thấy thoải mái và thư giãn.&amp;nbsp;&lt;/p&gt;&lt;p style="--tw-backdrop-blur:;--tw-backdrop-brightness:;--tw-backdrop-contrast:;--tw-backdrop-grayscale:;--tw-backdrop-hue-rotate:;--tw-backdrop-invert:;--tw-backdrop-opacity:;--tw-backdrop-saturate:;--tw-backdrop-sepia:;--tw-blur:;--tw-border-spacing-x:0;--tw-border-spacing-y:0;--tw-brightness:;--tw-contrast:;--tw-drop-shadow:;--tw-gradient-from-position:;--tw-gradient-to-position:;--tw-gradient-via-position:;--tw-grayscale:;--tw-hue-rotate:;--tw-invert:;--tw-numeric-figure:;--tw-numeric-fraction:;--tw-numeric-spacing:;--tw-ordinal:;--tw-pan-x:;--tw-pan-y:;--tw-pinch-zoom:;--tw-ring-color:rgba(69,89,164,.5);--tw-ring-inset:;--tw-ring-offset-color:#fff;--tw-ring-offset-shadow:0 0 transparent;--tw-ring-offset-width:0px;--tw-ring-shadow:0 0 transparent;--tw-rotate:0;--tw-saturate:;--tw-scale-x:1;--tw-scale-y:1;--tw-scroll-snap-strictness:proximity;--tw-sepia:;--tw-shadow-colored:0 0 transparent;--tw-shadow:0 0 transparent;--tw-skew-x:0;--tw-skew-y:0;--tw-slashed-zero:;--tw-translate-x:0;--tw-translate-y:0;-webkit-text-stroke-width:0px;background-color:rgb(255, 255, 255);border:0px solid rgb(227, 227, 227);box-sizing:border-box;color:rgb(13, 13, 13);font-family:Söhne, ui-sans-serif, system-ui, -apple-system, &amp;quot;Segoe UI&amp;quot;, Roboto, Ubuntu, Cantarell, &amp;quot;Noto Sans&amp;quot;, sans-serif, &amp;quot;Helvetica Neue&amp;quot;, Arial, &amp;quot;Apple Color Emoji&amp;quot;, &amp;quot;Segoe UI Emoji&amp;quot;, &amp;quot;Segoe UI Symbol&amp;quot;, &amp;quot;Noto Color Emoji&amp;quot;;font-size:16px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:normal;margin:1.25em 0px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;📌 Đèn Chiếu Sáng: Hãy thư giãn dưới ánh đèn màu vàng ấm áp, tạo không gian lý tưởng cho việc đọc sách và tận hưởng khoảnh khắc riêng tư.&amp;nbsp;&lt;/p&gt;&lt;p style="--tw-backdrop-blur:;--tw-backdrop-brightness:;--tw-backdrop-contrast:;--tw-backdrop-grayscale:;--tw-backdrop-hue-rotate:;--tw-backdrop-invert:;--tw-backdrop-opacity:;--tw-backdrop-saturate:;--tw-backdrop-sepia:;--tw-blur:;--tw-border-spacing-x:0;--tw-border-spacing-y:0;--tw-brightness:;--tw-contrast:;--tw-drop-shadow:;--tw-gradient-from-position:;--tw-gradient-to-position:;--tw-gradient-via-position:;--tw-grayscale:;--tw-hue-rotate:;--tw-invert:;--tw-numeric-figure:;--tw-numeric-fraction:;--tw-numeric-spacing:;--tw-ordinal:;--tw-pan-x:;--tw-pan-y:;--tw-pinch-zoom:;--tw-ring-color:rgba(69,89,164,.5);--tw-ring-inset:;--tw-ring-offset-color:#fff;--tw-ring-offset-shadow:0 0 transparent;--tw-ring-offset-width:0px;--tw-ring-shadow:0 0 transparent;--tw-rotate:0;--tw-saturate:;--tw-scale-x:1;--tw-scale-y:1;--tw-scroll-snap-strictness:proximity;--tw-sepia:;--tw-shadow-colored:0 0 transparent;--tw-shadow:0 0 transparent;--tw-skew-x:0;--tw-skew-y:0;--tw-slashed-zero:;--tw-translate-x:0;--tw-translate-y:0;-webkit-text-stroke-width:0px;background-color:rgb(255, 255, 255);border:0px solid rgb(227, 227, 227);box-sizing:border-box;color:rgb(13, 13, 13);font-family:Söhne, ui-sans-serif, system-ui, -apple-system, &amp;quot;Segoe UI&amp;quot;, Roboto, Ubuntu, Cantarell, &amp;quot;Noto Sans&amp;quot;, sans-serif, &amp;quot;Helvetica Neue&amp;quot;, Arial, &amp;quot;Apple Color Emoji&amp;quot;, &amp;quot;Segoe UI Emoji&amp;quot;, &amp;quot;Segoe UI Symbol&amp;quot;, &amp;quot;Noto Color Emoji&amp;quot;;font-size:16px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:normal;margin:1.25em 0px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;🏡 Địa chỉ: 14/2 Gio An - P.5 - TP.Đà Lạt&amp;nbsp;&lt;/p&gt;&lt;p style="--tw-backdrop-blur:;--tw-backdrop-brightness:;--tw-backdrop-contrast:;--tw-backdrop-grayscale:;--tw-backdrop-hue-rotate:;--tw-backdrop-invert:;--tw-backdrop-opacity:;--tw-backdrop-saturate:;--tw-backdrop-sepia:;--tw-blur:;--tw-border-spacing-x:0;--tw-border-spacing-y:0;--tw-brightness:;--tw-contrast:;--tw-drop-shadow:;--tw-gradient-from-position:;--tw-gradient-to-position:;--tw-gradient-via-position:;--tw-grayscale:;--tw-hue-rotate:;--tw-invert:;--tw-numeric-figure:;--tw-numeric-fraction:;--tw-numeric-spacing:;--tw-ordinal:;--tw-pan-x:;--tw-pan-y:;--tw-pinch-zoom:;--tw-ring-color:rgba(69,89,164,.5);--tw-ring-inset:;--tw-ring-offset-color:#fff;--tw-ring-offset-shadow:0 0 transparent;--tw-ring-offset-width:0px;--tw-ring-shadow:0 0 transparent;--tw-rotate:0;--tw-saturate:;--tw-scale-x:1;--tw-scale-y:1;--tw-scroll-snap-strictness:proximity;--tw-sepia:;--tw-shadow-colored:0 0 transparent;--tw-shadow:0 0 transparent;--tw-skew-x:0;--tw-skew-y:0;--tw-slashed-zero:;--tw-translate-x:0;--tw-translate-y:0;-webkit-text-stroke-width:0px;background-color:rgb(255, 255, 255);border:0px solid rgb(227, 227, 227);box-sizing:border-box;color:rgb(13, 13, 13);font-family:Söhne, ui-sans-serif, system-ui, -apple-system, &amp;quot;Segoe UI&amp;quot;, Roboto, Ubuntu, Cantarell, &amp;quot;Noto Sans&amp;quot;, sans-serif, &amp;quot;Helvetica Neue&amp;quot;, Arial, &amp;quot;Apple Color Emoji&amp;quot;, &amp;quot;Segoe UI Emoji&amp;quot;, &amp;quot;Segoe UI Symbol&amp;quot;, &amp;quot;Noto Color Emoji&amp;quot;;font-size:16px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:normal;margin:1.25em 0px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;🛵 Chỉ cách trung tâm 5 phút đi xe máy.&lt;/p&gt;&lt;p style="--tw-backdrop-blur:;--tw-backdrop-brightness:;--tw-backdrop-contrast:;--tw-backdrop-grayscale:;--tw-backdrop-hue-rotate:;--tw-backdrop-invert:;--tw-backdrop-opacity:;--tw-backdrop-saturate:;--tw-backdrop-sepia:;--tw-blur:;--tw-border-spacing-x:0;--tw-border-spacing-y:0;--tw-brightness:;--tw-contrast:;--tw-drop-shadow:;--tw-gradient-from-position:;--tw-gradient-to-position:;--tw-gradient-via-position:;--tw-grayscale:;--tw-hue-rotate:;--tw-invert:;--tw-numeric-figure:;--tw-numeric-fraction:;--tw-numeric-spacing:;--tw-ordinal:;--tw-pan-x:;--tw-pan-y:;--tw-pinch-zoom:;--tw-ring-color:rgba(69,89,164,.5);--tw-ring-inset:;--tw-ring-offset-color:#fff;--tw-ring-offset-shadow:0 0 transparent;--tw-ring-offset-width:0px;--tw-ring-shadow:0 0 transparent;--tw-rotate:0;--tw-saturate:;--tw-scale-x:1;--tw-scale-y:1;--tw-scroll-snap-strictness:proximity;--tw-sepia:;--tw-shadow-colored:0 0 transparent;--tw-shadow:0 0 transparent;--tw-skew-x:0;--tw-skew-y:0;--tw-slashed-zero:;--tw-translate-x:0;--tw-translate-y:0;-webkit-text-stroke-width:0px;background-color:rgb(255, 255, 255);border:0px solid rgb(227, 227, 227);box-sizing:border-box;color:rgb(13, 13, 13);font-family:Söhne, ui-sans-serif, system-ui, -apple-system, &amp;quot;Segoe UI&amp;quot;, Roboto, Ubuntu, Cantarell, &amp;quot;Noto Sans&amp;quot;, sans-serif, &amp;quot;Helvetica Neue&amp;quot;, Arial, &amp;quot;Apple Color Emoji&amp;quot;, &amp;quot;Segoe UI Emoji&amp;quot;, &amp;quot;Segoe UI Symbol&amp;quot;, &amp;quot;Noto Color Emoji&amp;quot;;font-size:16px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:normal;margin:1.25em 0px 0px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Homestay Đà Lạt HS3 không chỉ là nơi dừng chân lý tưởng, mà còn là điểm đến tuyệt vời để bạn tận hưởng những khoảnh khắc thư giãn và đắm chìm trong không gian bình yên của Đà Lạt. Hãy đặt phòng ngay hôm nay để có một trải nghiệm đáng nhớ nhất! 🌲🌲🌲&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>SC23</t>
+  </si>
+  <si>
+    <t>Villa Đà Lạt SC23 - Villa mới toanh theo phong cách hiện đại, sang trọng.</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Địa chỉ: 91 Hùng Vương - Khu Du lịch Nam Hồ Phường 11 - TP. Đà Lạt</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Villa Đà Lạt SC23 - Villa mới toanh theo phong cách hiện đại, sang trọng. Nằm trong KDL Biệt thự nghĩ dưỡng Nam Hồ-Khu vực đặc biệt an ninh và yên tĩnh. Cách chợ Đà Lạt 5km với 5-7 phút di chuyển ra trung tâm.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Cơ cấu: &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-14-column-33.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;?&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Gồm 4 phòng ngủ: 3 Phòng 1 giường (1m8) và 1 phòng 2 giường (1m6) - 5wc Villa có trang bị thêm nệm dự phòng. Sức chứa 12-15 Khách. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-14-column-33.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;?&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;01 Phòng khách , 01 phòng bếp đầy đủ tiện nghi. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-14-column-33.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;?&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Sân vườn rộng rãi tiêu chuẩn thích hợp cho BBQ. Đậu xe trong khuôn viên.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>SC27</t>
+  </si>
+  <si>
+    <t>Villa Đà Lạt SC27 - Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng.</t>
+  </si>
+  <si>
+    <t>Địa chỉ :Toạ lạc tại đường Hùng Vương cách chợ khoảng 5km với 7-10 phút chạy xe</t>
+  </si>
+  <si>
     <t>VILLA BÌNH DÂN</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&amp;nbsp;&lt;span style="background-color:rgb(255,255,255);color:rgb(13,13,13);font-family:Söhne, ui-sans-serif, system-ui, -apple-system, &amp;quot;Segoe UI&amp;quot;, Roboto, Ubuntu, Cantarell, &amp;quot;Noto Sans&amp;quot;, sans-serif, &amp;quot;Helvetica Neue&amp;quot;, Arial, &amp;quot;Apple Color Emoji&amp;quot;, &amp;quot;Segoe UI Emoji&amp;quot;, &amp;quot;Segoe UI Symbol&amp;quot;, &amp;quot;Noto Color Emoji&amp;quot;;font-size:16px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:normal;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Dạo này, mọi người đang cảm thấy mệt mỏi với nhịp sống hối hả và tiêu cực? Đừng lo lắng nữa! Hãy để Homestay Đà Lạt HS3 là điểm dừng chân lý tưởng của bạn để tìm lại sự bình yên và hạnh phúc!&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p style="--tw-backdrop-blur:;--tw-backdrop-brightness:;--tw-backdrop-contrast:;--tw-backdrop-grayscale:;--tw-backdrop-hue-rotate:;--tw-backdrop-invert:;--tw-backdrop-opacity:;--tw-backdrop-saturate:;--tw-backdrop-sepia:;--tw-blur:;--tw-border-spacing-x:0;--tw-border-spacing-y:0;--tw-brightness:;--tw-contrast:;--tw-drop-shadow:;--tw-gradient-from-position:;--tw-gradient-to-position:;--tw-gradient-via-position:;--tw-grayscale:;--tw-hue-rotate:;--tw-invert:;--tw-numeric-figure:;--tw-numeric-fraction:;--tw-numeric-spacing:;--tw-ordinal:;--tw-pan-x:;--tw-pan-y:;--tw-pinch-zoom:;--tw-ring-color:rgba(69,89,164,.5);--tw-ring-inset:;--tw-ring-offset-color:#fff;--tw-ring-offset-shadow:0 0 transparent;--tw-ring-offset-width:0px;--tw-ring-shadow:0 0 transparent;--tw-rotate:0;--tw-saturate:;--tw-scale-x:1;--tw-scale-y:1;--tw-scroll-snap-strictness:proximity;--tw-sepia:;--tw-shadow-colored:0 0 transparent;--tw-shadow:0 0 transparent;--tw-skew-x:0;--tw-skew-y:0;--tw-slashed-zero:;--tw-translate-x:0;--tw-translate-y:0;-webkit-text-stroke-width:0px;background-color:rgb(255, 255, 255);border:0px solid rgb(227, 227, 227);box-sizing:border-box;color:rgb(13, 13, 13);font-family:Söhne, ui-sans-serif, system-ui, -apple-system, &amp;quot;Segoe UI&amp;quot;, Roboto, Ubuntu, Cantarell, &amp;quot;Noto Sans&amp;quot;, sans-serif, &amp;quot;Helvetica Neue&amp;quot;, Arial, &amp;quot;Apple Color Emoji&amp;quot;, &amp;quot;Segoe UI Emoji&amp;quot;, &amp;quot;Segoe UI Symbol&amp;quot;, &amp;quot;Noto Color Emoji&amp;quot;;font-size:16px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:normal;margin:1.25em 0px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;📌 Cơ cấu: 3 phòng ngủ - 3 toilet, thiết kế sang trọng và ấm cúng.&amp;nbsp;&lt;/p&gt;&lt;p style="--tw-backdrop-blur:;--tw-backdrop-brightness:;--tw-backdrop-contrast:;--tw-backdrop-grayscale:;--tw-backdrop-hue-rotate:;--tw-backdrop-invert:;--tw-backdrop-opacity:;--tw-backdrop-saturate:;--tw-backdrop-sepia:;--tw-blur:;--tw-border-spacing-x:0;--tw-border-spacing-y:0;--tw-brightness:;--tw-contrast:;--tw-drop-shadow:;--tw-gradient-from-position:;--tw-gradient-to-position:;--tw-gradient-via-position:;--tw-grayscale:;--tw-hue-rotate:;--tw-invert:;--tw-numeric-figure:;--tw-numeric-fraction:;--tw-numeric-spacing:;--tw-ordinal:;--tw-pan-x:;--tw-pan-y:;--tw-pinch-zoom:;--tw-ring-color:rgba(69,89,164,.5);--tw-ring-inset:;--tw-ring-offset-color:#fff;--tw-ring-offset-shadow:0 0 transparent;--tw-ring-offset-width:0px;--tw-ring-shadow:0 0 transparent;--tw-rotate:0;--tw-saturate:;--tw-scale-x:1;--tw-scale-y:1;--tw-scroll-snap-strictness:proximity;--tw-sepia:;--tw-shadow-colored:0 0 transparent;--tw-shadow:0 0 transparent;--tw-skew-x:0;--tw-skew-y:0;--tw-slashed-zero:;--tw-translate-x:0;--tw-translate-y:0;-webkit-text-stroke-width:0px;background-color:rgb(255, 255, 255);border:0px solid rgb(227, 227, 227);box-sizing:border-box;color:rgb(13, 13, 13);font-family:Söhne, ui-sans-serif, system-ui, -apple-system, &amp;quot;Segoe UI&amp;quot;, Roboto, Ubuntu, Cantarell, &amp;quot;Noto Sans&amp;quot;, sans-serif, &amp;quot;Helvetica Neue&amp;quot;, Arial, &amp;quot;Apple Color Emoji&amp;quot;, &amp;quot;Segoe UI Emoji&amp;quot;, &amp;quot;Segoe UI Symbol&amp;quot;, &amp;quot;Noto Color Emoji&amp;quot;;font-size:16px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:normal;margin:1.25em 0px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;👩‍🍳 Bếp Ngọt Ngào: Không gian bếp ấm áp với những dụng cụ nấu nướng đầy đủ, cho bạn tự do sáng tạo và thưởng thức những món ngon.&lt;/p&gt;&lt;p style="--tw-backdrop-blur:;--tw-backdrop-brightness:;--tw-backdrop-contrast:;--tw-backdrop-grayscale:;--tw-backdrop-hue-rotate:;--tw-backdrop-invert:;--tw-backdrop-opacity:;--tw-backdrop-saturate:;--tw-backdrop-sepia:;--tw-blur:;--tw-border-spacing-x:0;--tw-border-spacing-y:0;--tw-brightness:;--tw-contrast:;--tw-drop-shadow:;--tw-gradient-from-position:;--tw-gradient-to-position:;--tw-gradient-via-position:;--tw-grayscale:;--tw-hue-rotate:;--tw-invert:;--tw-numeric-figure:;--tw-numeric-fraction:;--tw-numeric-spacing:;--tw-ordinal:;--tw-pan-x:;--tw-pan-y:;--tw-pinch-zoom:;--tw-ring-color:rgba(69,89,164,.5);--tw-ring-inset:;--tw-ring-offset-color:#fff;--tw-ring-offset-shadow:0 0 transparent;--tw-ring-offset-width:0px;--tw-ring-shadow:0 0 transparent;--tw-rotate:0;--tw-saturate:;--tw-scale-x:1;--tw-scale-y:1;--tw-scroll-snap-strictness:proximity;--tw-sepia:;--tw-shadow-colored:0 0 transparent;--tw-shadow:0 0 transparent;--tw-skew-x:0;--tw-skew-y:0;--tw-slashed-zero:;--tw-translate-x:0;--tw-translate-y:0;-webkit-text-stroke-width:0px;background-color:rgb(255, 255, 255);border:0px solid rgb(227, 227, 227);box-sizing:border-box;color:rgb(13, 13, 13);font-family:Söhne, ui-sans-serif, system-ui, -apple-system, &amp;quot;Segoe UI&amp;quot;, Roboto, Ubuntu, Cantarell, &amp;quot;Noto Sans&amp;quot;, sans-serif, &amp;quot;Helvetica Neue&amp;quot;, Arial, &amp;quot;Apple Color Emoji&amp;quot;, &amp;quot;Segoe UI Emoji&amp;quot;, &amp;quot;Segoe UI Symbol&amp;quot;, &amp;quot;Noto Color Emoji&amp;quot;;font-size:16px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:normal;margin:1.25em 0px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;🫶🏻 Sân BBQ : Sân BBQ thoáng đãng, là nơi lý tưởng cho các buổi tiệc nướng vui vẻ và đầy ấm áp.&amp;nbsp;&lt;/p&gt;&lt;p style="--tw-backdrop-blur:;--tw-backdrop-brightness:;--tw-backdrop-contrast:;--tw-backdrop-grayscale:;--tw-backdrop-hue-rotate:;--tw-backdrop-invert:;--tw-backdrop-opacity:;--tw-backdrop-saturate:;--tw-backdrop-sepia:;--tw-blur:;--tw-border-spacing-x:0;--tw-border-spacing-y:0;--tw-brightness:;--tw-contrast:;--tw-drop-shadow:;--tw-gradient-from-position:;--tw-gradient-to-position:;--tw-gradient-via-position:;--tw-grayscale:;--tw-hue-rotate:;--tw-invert:;--tw-numeric-figure:;--tw-numeric-fraction:;--tw-numeric-spacing:;--tw-ordinal:;--tw-pan-x:;--tw-pan-y:;--tw-pinch-zoom:;--tw-ring-color:rgba(69,89,164,.5);--tw-ring-inset:;--tw-ring-offset-color:#fff;--tw-ring-offset-shadow:0 0 transparent;--tw-ring-offset-width:0px;--tw-ring-shadow:0 0 transparent;--tw-rotate:0;--tw-saturate:;--tw-scale-x:1;--tw-scale-y:1;--tw-scroll-snap-strictness:proximity;--tw-sepia:;--tw-shadow-colored:0 0 transparent;--tw-shadow:0 0 transparent;--tw-skew-x:0;--tw-skew-y:0;--tw-slashed-zero:;--tw-translate-x:0;--tw-translate-y:0;-webkit-text-stroke-width:0px;background-color:rgb(255, 255, 255);border:0px solid rgb(227, 227, 227);box-sizing:border-box;color:rgb(13, 13, 13);font-family:Söhne, ui-sans-serif, system-ui, -apple-system, &amp;quot;Segoe UI&amp;quot;, Roboto, Ubuntu, Cantarell, &amp;quot;Noto Sans&amp;quot;, sans-serif, &amp;quot;Helvetica Neue&amp;quot;, Arial, &amp;quot;Apple Color Emoji&amp;quot;, &amp;quot;Segoe UI Emoji&amp;quot;, &amp;quot;Segoe UI Symbol&amp;quot;, &amp;quot;Noto Color Emoji&amp;quot;;font-size:16px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:normal;margin:1.25em 0px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;📌 Máy Nước Nóng: Sẵn có nước nóng 24/7, đảm bảo bạn luôn cảm thấy thoải mái và thư giãn.&amp;nbsp;&lt;/p&gt;&lt;p style="--tw-backdrop-blur:;--tw-backdrop-brightness:;--tw-backdrop-contrast:;--tw-backdrop-grayscale:;--tw-backdrop-hue-rotate:;--tw-backdrop-invert:;--tw-backdrop-opacity:;--tw-backdrop-saturate:;--tw-backdrop-sepia:;--tw-blur:;--tw-border-spacing-x:0;--tw-border-spacing-y:0;--tw-brightness:;--tw-contrast:;--tw-drop-shadow:;--tw-gradient-from-position:;--tw-gradient-to-position:;--tw-gradient-via-position:;--tw-grayscale:;--tw-hue-rotate:;--tw-invert:;--tw-numeric-figure:;--tw-numeric-fraction:;--tw-numeric-spacing:;--tw-ordinal:;--tw-pan-x:;--tw-pan-y:;--tw-pinch-zoom:;--tw-ring-color:rgba(69,89,164,.5);--tw-ring-inset:;--tw-ring-offset-color:#fff;--tw-ring-offset-shadow:0 0 transparent;--tw-ring-offset-width:0px;--tw-ring-shadow:0 0 transparent;--tw-rotate:0;--tw-saturate:;--tw-scale-x:1;--tw-scale-y:1;--tw-scroll-snap-strictness:proximity;--tw-sepia:;--tw-shadow-colored:0 0 transparent;--tw-shadow:0 0 transparent;--tw-skew-x:0;--tw-skew-y:0;--tw-slashed-zero:;--tw-translate-x:0;--tw-translate-y:0;-webkit-text-stroke-width:0px;background-color:rgb(255, 255, 255);border:0px solid rgb(227, 227, 227);box-sizing:border-box;color:rgb(13, 13, 13);font-family:Söhne, ui-sans-serif, system-ui, -apple-system, &amp;quot;Segoe UI&amp;quot;, Roboto, Ubuntu, Cantarell, &amp;quot;Noto Sans&amp;quot;, sans-serif, &amp;quot;Helvetica Neue&amp;quot;, Arial, &amp;quot;Apple Color Emoji&amp;quot;, &amp;quot;Segoe UI Emoji&amp;quot;, &amp;quot;Segoe UI Symbol&amp;quot;, &amp;quot;Noto Color Emoji&amp;quot;;font-size:16px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:normal;margin:1.25em 0px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;📌 Đèn Chiếu Sáng: Hãy thư giãn dưới ánh đèn màu vàng ấm áp, tạo không gian lý tưởng cho việc đọc sách và tận hưởng khoảnh khắc riêng tư.&amp;nbsp;&lt;/p&gt;&lt;p style="--tw-backdrop-blur:;--tw-backdrop-brightness:;--tw-backdrop-contrast:;--tw-backdrop-grayscale:;--tw-backdrop-hue-rotate:;--tw-backdrop-invert:;--tw-backdrop-opacity:;--tw-backdrop-saturate:;--tw-backdrop-sepia:;--tw-blur:;--tw-border-spacing-x:0;--tw-border-spacing-y:0;--tw-brightness:;--tw-contrast:;--tw-drop-shadow:;--tw-gradient-from-position:;--tw-gradient-to-position:;--tw-gradient-via-position:;--tw-grayscale:;--tw-hue-rotate:;--tw-invert:;--tw-numeric-figure:;--tw-numeric-fraction:;--tw-numeric-spacing:;--tw-ordinal:;--tw-pan-x:;--tw-pan-y:;--tw-pinch-zoom:;--tw-ring-color:rgba(69,89,164,.5);--tw-ring-inset:;--tw-ring-offset-color:#fff;--tw-ring-offset-shadow:0 0 transparent;--tw-ring-offset-width:0px;--tw-ring-shadow:0 0 transparent;--tw-rotate:0;--tw-saturate:;--tw-scale-x:1;--tw-scale-y:1;--tw-scroll-snap-strictness:proximity;--tw-sepia:;--tw-shadow-colored:0 0 transparent;--tw-shadow:0 0 transparent;--tw-skew-x:0;--tw-skew-y:0;--tw-slashed-zero:;--tw-translate-x:0;--tw-translate-y:0;-webkit-text-stroke-width:0px;background-color:rgb(255, 255, 255);border:0px solid rgb(227, 227, 227);box-sizing:border-box;color:rgb(13, 13, 13);font-family:Söhne, ui-sans-serif, system-ui, -apple-system, &amp;quot;Segoe UI&amp;quot;, Roboto, Ubuntu, Cantarell, &amp;quot;Noto Sans&amp;quot;, sans-serif, &amp;quot;Helvetica Neue&amp;quot;, Arial, &amp;quot;Apple Color Emoji&amp;quot;, &amp;quot;Segoe UI Emoji&amp;quot;, &amp;quot;Segoe UI Symbol&amp;quot;, &amp;quot;Noto Color Emoji&amp;quot;;font-size:16px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:normal;margin:1.25em 0px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;🏡 Địa chỉ: 14/2 Gio An - P.5 - TP.Đà Lạt&amp;nbsp;&lt;/p&gt;&lt;p style="--tw-backdrop-blur:;--tw-backdrop-brightness:;--tw-backdrop-contrast:;--tw-backdrop-grayscale:;--tw-backdrop-hue-rotate:;--tw-backdrop-invert:;--tw-backdrop-opacity:;--tw-backdrop-saturate:;--tw-backdrop-sepia:;--tw-blur:;--tw-border-spacing-x:0;--tw-border-spacing-y:0;--tw-brightness:;--tw-contrast:;--tw-drop-shadow:;--tw-gradient-from-position:;--tw-gradient-to-position:;--tw-gradient-via-position:;--tw-grayscale:;--tw-hue-rotate:;--tw-invert:;--tw-numeric-figure:;--tw-numeric-fraction:;--tw-numeric-spacing:;--tw-ordinal:;--tw-pan-x:;--tw-pan-y:;--tw-pinch-zoom:;--tw-ring-color:rgba(69,89,164,.5);--tw-ring-inset:;--tw-ring-offset-color:#fff;--tw-ring-offset-shadow:0 0 transparent;--tw-ring-offset-width:0px;--tw-ring-shadow:0 0 transparent;--tw-rotate:0;--tw-saturate:;--tw-scale-x:1;--tw-scale-y:1;--tw-scroll-snap-strictness:proximity;--tw-sepia:;--tw-shadow-colored:0 0 transparent;--tw-shadow:0 0 transparent;--tw-skew-x:0;--tw-skew-y:0;--tw-slashed-zero:;--tw-translate-x:0;--tw-translate-y:0;-webkit-text-stroke-width:0px;background-color:rgb(255, 255, 255);border:0px solid rgb(227, 227, 227);box-sizing:border-box;color:rgb(13, 13, 13);font-family:Söhne, ui-sans-serif, system-ui, -apple-system, &amp;quot;Segoe UI&amp;quot;, Roboto, Ubuntu, Cantarell, &amp;quot;Noto Sans&amp;quot;, sans-serif, &amp;quot;Helvetica Neue&amp;quot;, Arial, &amp;quot;Apple Color Emoji&amp;quot;, &amp;quot;Segoe UI Emoji&amp;quot;, &amp;quot;Segoe UI Symbol&amp;quot;, &amp;quot;Noto Color Emoji&amp;quot;;font-size:16px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:normal;margin:1.25em 0px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;🛵 Chỉ cách trung tâm 5 phút đi xe máy.&lt;/p&gt;&lt;p style="--tw-backdrop-blur:;--tw-backdrop-brightness:;--tw-backdrop-contrast:;--tw-backdrop-grayscale:;--tw-backdrop-hue-rotate:;--tw-backdrop-invert:;--tw-backdrop-opacity:;--tw-backdrop-saturate:;--tw-backdrop-sepia:;--tw-blur:;--tw-border-spacing-x:0;--tw-border-spacing-y:0;--tw-brightness:;--tw-contrast:;--tw-drop-shadow:;--tw-gradient-from-position:;--tw-gradient-to-position:;--tw-gradient-via-position:;--tw-grayscale:;--tw-hue-rotate:;--tw-invert:;--tw-numeric-figure:;--tw-numeric-fraction:;--tw-numeric-spacing:;--tw-ordinal:;--tw-pan-x:;--tw-pan-y:;--tw-pinch-zoom:;--tw-ring-color:rgba(69,89,164,.5);--tw-ring-inset:;--tw-ring-offset-color:#fff;--tw-ring-offset-shadow:0 0 transparent;--tw-ring-offset-width:0px;--tw-ring-shadow:0 0 transparent;--tw-rotate:0;--tw-saturate:;--tw-scale-x:1;--tw-scale-y:1;--tw-scroll-snap-strictness:proximity;--tw-sepia:;--tw-shadow-colored:0 0 transparent;--tw-shadow:0 0 transparent;--tw-skew-x:0;--tw-skew-y:0;--tw-slashed-zero:;--tw-translate-x:0;--tw-translate-y:0;-webkit-text-stroke-width:0px;background-color:rgb(255, 255, 255);border:0px solid rgb(227, 227, 227);box-sizing:border-box;color:rgb(13, 13, 13);font-family:Söhne, ui-sans-serif, system-ui, -apple-system, &amp;quot;Segoe UI&amp;quot;, Roboto, Ubuntu, Cantarell, &amp;quot;Noto Sans&amp;quot;, sans-serif, &amp;quot;Helvetica Neue&amp;quot;, Arial, &amp;quot;Apple Color Emoji&amp;quot;, &amp;quot;Segoe UI Emoji&amp;quot;, &amp;quot;Segoe UI Symbol&amp;quot;, &amp;quot;Noto Color Emoji&amp;quot;;font-size:16px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:normal;margin:1.25em 0px 0px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Homestay Đà Lạt HS3 không chỉ là nơi dừng chân lý tưởng, mà còn là điểm đến tuyệt vời để bạn tận hưởng những khoảnh khắc thư giãn và đắm chìm trong không gian bình yên của Đà Lạt. Hãy đặt phòng ngay hôm nay để có một trải nghiệm đáng nhớ nhất! 🌲🌲🌲&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>SC23</t>
-  </si>
-  <si>
-    <t>Villa Đà Lạt SC23 - Villa mới toanh theo phong cách hiện đại, sang trọng.</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Địa chỉ: 91 Hùng Vương - Khu Du lịch Nam Hồ Phường 11 - TP. Đà Lạt</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Villa Đà Lạt SC23 - Villa mới toanh theo phong cách hiện đại, sang trọng. Nằm trong KDL Biệt thự nghĩ dưỡng Nam Hồ-Khu vực đặc biệt an ninh và yên tĩnh. Cách chợ Đà Lạt 5km với 5-7 phút di chuyển ra trung tâm.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Cơ cấu: &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-14-column-33.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;?&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Gồm 4 phòng ngủ: 3 Phòng 1 giường (1m8) và 1 phòng 2 giường (1m6) - 5wc Villa có trang bị thêm nệm dự phòng. Sức chứa 12-15 Khách. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-14-column-33.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;?&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;01 Phòng khách , 01 phòng bếp đầy đủ tiện nghi. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-14-column-33.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;?&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Sân vườn rộng rãi tiêu chuẩn thích hợp cho BBQ. Đậu xe trong khuôn viên.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>SC27</t>
-  </si>
-  <si>
-    <t>Villa Đà Lạt SC27 - Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng.</t>
-  </si>
-  <si>
-    <t>Địa chỉ :Toạ lạc tại đường Hùng Vương cách chợ khoảng 5km với 7-10 phút chạy xe</t>
   </si>
   <si>
     <t>&lt;p&gt;Villa Đà Lạt SC27 - Chạm vào hương sắc tình khúc Đà Lạt, tôi ngất ngây.&lt;br&gt;Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng&lt;br&gt;Cơ cấu:&lt;br&gt;Có 3 phòng ngủ (2P đơn và 1P đôi).4wc.&lt;br&gt;Giao chìa khoá nguyên căn.&lt;/p&gt;&lt;p&gt;❇ Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng. &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp;&amp;nbsp;&lt;br&gt;❇️ Sân vườn rộng, với những góc so chill cho những bữa tiệc BBQ quây quần bên gia đình.&lt;/p&gt;&lt;p&gt;❇Toạ lạc tại đường Hùng Vương cách chợ khoảng 5km với 7-10 phút chạy xe&lt;/p&gt;&lt;p&gt;? Chắc chắn là nơi nghỉ dưỡng du lịch lý tưởng cho du khách khi đến với thành phố hoa Đà Lạt&lt;/p&gt;</t>
@@ -264,7 +267,7 @@
     <col min="8" max="8" width="9.328125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.78125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="5.45703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="15.546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="17.66796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -404,10 +407,10 @@
         <v>1800000.0</v>
       </c>
       <c r="H4" t="n" s="0">
-        <v>45353.0</v>
+        <v>45358.0</v>
       </c>
       <c r="I4" t="n" s="0">
-        <v>45353.0</v>
+        <v>45358.0</v>
       </c>
       <c r="J4" t="n" s="0">
         <v>1.0</v>
@@ -489,10 +492,10 @@
         <v>1.0</v>
       </c>
       <c r="K6" t="s" s="0">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="L6" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7">
@@ -500,10 +503,10 @@
         <v>7.0</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s" s="0">
         <v>27</v>
@@ -512,7 +515,7 @@
         <v>33</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G7" t="n" s="0">
         <v>1000000.0</v>
@@ -527,10 +530,10 @@
         <v>1.0</v>
       </c>
       <c r="K7" t="s" s="0">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="L7" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8">
@@ -538,10 +541,10 @@
         <v>8.0</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s" s="0">
         <v>34</v>
@@ -550,7 +553,7 @@
         <v>34</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G8" t="n" s="0">
         <v>1000000.0</v>
@@ -568,7 +571,7 @@
         <v>17</v>
       </c>
       <c r="L8" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9">
@@ -576,10 +579,10 @@
         <v>9.0</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s" s="0">
         <v>27</v>
@@ -588,7 +591,7 @@
         <v>33</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G9" t="n" s="0">
         <v>1000000.0</v>
@@ -603,10 +606,10 @@
         <v>1.0</v>
       </c>
       <c r="K9" t="s" s="0">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="L9" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10">
@@ -614,10 +617,10 @@
         <v>10.0</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s" s="0">
         <v>34</v>
@@ -626,16 +629,16 @@
         <v>33</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G10" t="n" s="0">
         <v>1000000.0</v>
       </c>
       <c r="H10" t="n" s="0">
-        <v>45343.0</v>
+        <v>45358.0</v>
       </c>
       <c r="I10" t="n" s="0">
-        <v>45343.0</v>
+        <v>45358.0</v>
       </c>
       <c r="J10" t="n" s="0">
         <v>1.0</v>
@@ -644,7 +647,7 @@
         <v>29</v>
       </c>
       <c r="L10" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11">
@@ -652,10 +655,10 @@
         <v>11.0</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s" s="0">
         <v>33</v>
@@ -664,7 +667,7 @@
         <v>33</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G11" t="n" s="0">
         <v>1000000.0</v>
@@ -679,10 +682,10 @@
         <v>1.0</v>
       </c>
       <c r="K11" t="s" s="0">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="L11" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/document/houses.xlsx
+++ b/src/main/webapp/document/houses.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="64">
   <si>
     <t>STT</t>
   </si>
@@ -71,13 +71,22 @@
     <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- Giới Thiệu Villa SC85 Ra mắt em villa xịn sò với lối thiết kế hiện đại, tiện nghi, view nhà lồng hứa hẹn kỳ nghỉ đáng nhớ tại Đà Lạt&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;- Cơ Cấu&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Gồm 8 phòng ngủ đơn&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Tầng trệt và tầng lầu: 4 phòng đơn, 5wc&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Tầng bán hầm: 2 căn hộ. Mỗi căn hộ 2 phòng đơn, 1wc. Tiện ích:&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Phòng được set up sẵn khăn, bàn chải, dầu gội, sữa tắm, máy sấy..&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;• Phòng khách ấm cúng để gia đình ngồi quây quần trò chuyện với nhau Không gian bếp rộng rãi đầy đủ tiện ích : bếp, tủ lạnh, nồi niêu, lò vi sóng..để bạn thỏa sức nấu những món ăn ngon cho người thân yêu.&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;• Sân&amp;nbsp;đậu xe thoải mái • Sân BBQ ngoài trời rộng&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
+    <t>aaaaaa</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>aaaaa</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;aaaaa&lt;/p&gt;</t>
+  </si>
+  <si>
     <t>BT1</t>
   </si>
   <si>
     <t xml:space="preserve">Biệt Thự Đà Lạt BT1 - nằm trong khu biệt thự yên tĩnh, view đồi núi , khuôn viên </t>
-  </si>
-  <si>
-    <t>7</t>
   </si>
   <si>
     <t>?Địa chỉ: KQH An Sơn P4
@@ -102,37 +111,40 @@
     <t>14/2 Gio An - P.5 - TP.Đà Lạt</t>
   </si>
   <si>
+    <t>VILLA TẦM TRUNG</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&amp;nbsp;&lt;span style="background-color:rgb(255,255,255);color:rgb(13,13,13);font-family:Söhne, ui-sans-serif, system-ui, -apple-system, &amp;quot;Segoe UI&amp;quot;, Roboto, Ubuntu, Cantarell, &amp;quot;Noto Sans&amp;quot;, sans-serif, &amp;quot;Helvetica Neue&amp;quot;, Arial, &amp;quot;Apple Color Emoji&amp;quot;, &amp;quot;Segoe UI Emoji&amp;quot;, &amp;quot;Segoe UI Symbol&amp;quot;, &amp;quot;Noto Color Emoji&amp;quot;;font-size:16px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:normal;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Dạo này, mọi người đang cảm thấy mệt mỏi với nhịp sống hối hả và tiêu cực? Đừng lo lắng nữa! Hãy để Homestay Đà Lạt HS3 là điểm dừng chân lý tưởng của bạn để tìm lại sự bình yên và hạnh phúc!&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p style="--tw-backdrop-blur:;--tw-backdrop-brightness:;--tw-backdrop-contrast:;--tw-backdrop-grayscale:;--tw-backdrop-hue-rotate:;--tw-backdrop-invert:;--tw-backdrop-opacity:;--tw-backdrop-saturate:;--tw-backdrop-sepia:;--tw-blur:;--tw-border-spacing-x:0;--tw-border-spacing-y:0;--tw-brightness:;--tw-contrast:;--tw-drop-shadow:;--tw-gradient-from-position:;--tw-gradient-to-position:;--tw-gradient-via-position:;--tw-grayscale:;--tw-hue-rotate:;--tw-invert:;--tw-numeric-figure:;--tw-numeric-fraction:;--tw-numeric-spacing:;--tw-ordinal:;--tw-pan-x:;--tw-pan-y:;--tw-pinch-zoom:;--tw-ring-color:rgba(69,89,164,.5);--tw-ring-inset:;--tw-ring-offset-color:#fff;--tw-ring-offset-shadow:0 0 transparent;--tw-ring-offset-width:0px;--tw-ring-shadow:0 0 transparent;--tw-rotate:0;--tw-saturate:;--tw-scale-x:1;--tw-scale-y:1;--tw-scroll-snap-strictness:proximity;--tw-sepia:;--tw-shadow-colored:0 0 transparent;--tw-shadow:0 0 transparent;--tw-skew-x:0;--tw-skew-y:0;--tw-slashed-zero:;--tw-translate-x:0;--tw-translate-y:0;-webkit-text-stroke-width:0px;background-color:rgb(255, 255, 255);border:0px solid rgb(227, 227, 227);box-sizing:border-box;color:rgb(13, 13, 13);font-family:Söhne, ui-sans-serif, system-ui, -apple-system, &amp;quot;Segoe UI&amp;quot;, Roboto, Ubuntu, Cantarell, &amp;quot;Noto Sans&amp;quot;, sans-serif, &amp;quot;Helvetica Neue&amp;quot;, Arial, &amp;quot;Apple Color Emoji&amp;quot;, &amp;quot;Segoe UI Emoji&amp;quot;, &amp;quot;Segoe UI Symbol&amp;quot;, &amp;quot;Noto Color Emoji&amp;quot;;font-size:16px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:normal;margin:1.25em 0px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;📌 Cơ cấu: 3 phòng ngủ - 3 toilet, thiết kế sang trọng và ấm cúng.&amp;nbsp;&lt;/p&gt;&lt;p style="--tw-backdrop-blur:;--tw-backdrop-brightness:;--tw-backdrop-contrast:;--tw-backdrop-grayscale:;--tw-backdrop-hue-rotate:;--tw-backdrop-invert:;--tw-backdrop-opacity:;--tw-backdrop-saturate:;--tw-backdrop-sepia:;--tw-blur:;--tw-border-spacing-x:0;--tw-border-spacing-y:0;--tw-brightness:;--tw-contrast:;--tw-drop-shadow:;--tw-gradient-from-position:;--tw-gradient-to-position:;--tw-gradient-via-position:;--tw-grayscale:;--tw-hue-rotate:;--tw-invert:;--tw-numeric-figure:;--tw-numeric-fraction:;--tw-numeric-spacing:;--tw-ordinal:;--tw-pan-x:;--tw-pan-y:;--tw-pinch-zoom:;--tw-ring-color:rgba(69,89,164,.5);--tw-ring-inset:;--tw-ring-offset-color:#fff;--tw-ring-offset-shadow:0 0 transparent;--tw-ring-offset-width:0px;--tw-ring-shadow:0 0 transparent;--tw-rotate:0;--tw-saturate:;--tw-scale-x:1;--tw-scale-y:1;--tw-scroll-snap-strictness:proximity;--tw-sepia:;--tw-shadow-colored:0 0 transparent;--tw-shadow:0 0 transparent;--tw-skew-x:0;--tw-skew-y:0;--tw-slashed-zero:;--tw-translate-x:0;--tw-translate-y:0;-webkit-text-stroke-width:0px;background-color:rgb(255, 255, 255);border:0px solid rgb(227, 227, 227);box-sizing:border-box;color:rgb(13, 13, 13);font-family:Söhne, ui-sans-serif, system-ui, -apple-system, &amp;quot;Segoe UI&amp;quot;, Roboto, Ubuntu, Cantarell, &amp;quot;Noto Sans&amp;quot;, sans-serif, &amp;quot;Helvetica Neue&amp;quot;, Arial, &amp;quot;Apple Color Emoji&amp;quot;, &amp;quot;Segoe UI Emoji&amp;quot;, &amp;quot;Segoe UI Symbol&amp;quot;, &amp;quot;Noto Color Emoji&amp;quot;;font-size:16px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:normal;margin:1.25em 0px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;👩‍🍳 Bếp Ngọt Ngào: Không gian bếp ấm áp với những dụng cụ nấu nướng đầy đủ, cho bạn tự do sáng tạo và thưởng thức những món ngon.&lt;/p&gt;&lt;p style="--tw-backdrop-blur:;--tw-backdrop-brightness:;--tw-backdrop-contrast:;--tw-backdrop-grayscale:;--tw-backdrop-hue-rotate:;--tw-backdrop-invert:;--tw-backdrop-opacity:;--tw-backdrop-saturate:;--tw-backdrop-sepia:;--tw-blur:;--tw-border-spacing-x:0;--tw-border-spacing-y:0;--tw-brightness:;--tw-contrast:;--tw-drop-shadow:;--tw-gradient-from-position:;--tw-gradient-to-position:;--tw-gradient-via-position:;--tw-grayscale:;--tw-hue-rotate:;--tw-invert:;--tw-numeric-figure:;--tw-numeric-fraction:;--tw-numeric-spacing:;--tw-ordinal:;--tw-pan-x:;--tw-pan-y:;--tw-pinch-zoom:;--tw-ring-color:rgba(69,89,164,.5);--tw-ring-inset:;--tw-ring-offset-color:#fff;--tw-ring-offset-shadow:0 0 transparent;--tw-ring-offset-width:0px;--tw-ring-shadow:0 0 transparent;--tw-rotate:0;--tw-saturate:;--tw-scale-x:1;--tw-scale-y:1;--tw-scroll-snap-strictness:proximity;--tw-sepia:;--tw-shadow-colored:0 0 transparent;--tw-shadow:0 0 transparent;--tw-skew-x:0;--tw-skew-y:0;--tw-slashed-zero:;--tw-translate-x:0;--tw-translate-y:0;-webkit-text-stroke-width:0px;background-color:rgb(255, 255, 255);border:0px solid rgb(227, 227, 227);box-sizing:border-box;color:rgb(13, 13, 13);font-family:Söhne, ui-sans-serif, system-ui, -apple-system, &amp;quot;Segoe UI&amp;quot;, Roboto, Ubuntu, Cantarell, &amp;quot;Noto Sans&amp;quot;, sans-serif, &amp;quot;Helvetica Neue&amp;quot;, Arial, &amp;quot;Apple Color Emoji&amp;quot;, &amp;quot;Segoe UI Emoji&amp;quot;, &amp;quot;Segoe UI Symbol&amp;quot;, &amp;quot;Noto Color Emoji&amp;quot;;font-size:16px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:normal;margin:1.25em 0px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;🫶🏻 Sân BBQ : Sân BBQ thoáng đãng, là nơi lý tưởng cho các buổi tiệc nướng vui vẻ và đầy ấm áp.&amp;nbsp;&lt;/p&gt;&lt;p style="--tw-backdrop-blur:;--tw-backdrop-brightness:;--tw-backdrop-contrast:;--tw-backdrop-grayscale:;--tw-backdrop-hue-rotate:;--tw-backdrop-invert:;--tw-backdrop-opacity:;--tw-backdrop-saturate:;--tw-backdrop-sepia:;--tw-blur:;--tw-border-spacing-x:0;--tw-border-spacing-y:0;--tw-brightness:;--tw-contrast:;--tw-drop-shadow:;--tw-gradient-from-position:;--tw-gradient-to-position:;--tw-gradient-via-position:;--tw-grayscale:;--tw-hue-rotate:;--tw-invert:;--tw-numeric-figure:;--tw-numeric-fraction:;--tw-numeric-spacing:;--tw-ordinal:;--tw-pan-x:;--tw-pan-y:;--tw-pinch-zoom:;--tw-ring-color:rgba(69,89,164,.5);--tw-ring-inset:;--tw-ring-offset-color:#fff;--tw-ring-offset-shadow:0 0 transparent;--tw-ring-offset-width:0px;--tw-ring-shadow:0 0 transparent;--tw-rotate:0;--tw-saturate:;--tw-scale-x:1;--tw-scale-y:1;--tw-scroll-snap-strictness:proximity;--tw-sepia:;--tw-shadow-colored:0 0 transparent;--tw-shadow:0 0 transparent;--tw-skew-x:0;--tw-skew-y:0;--tw-slashed-zero:;--tw-translate-x:0;--tw-translate-y:0;-webkit-text-stroke-width:0px;background-color:rgb(255, 255, 255);border:0px solid rgb(227, 227, 227);box-sizing:border-box;color:rgb(13, 13, 13);font-family:Söhne, ui-sans-serif, system-ui, -apple-system, &amp;quot;Segoe UI&amp;quot;, Roboto, Ubuntu, Cantarell, &amp;quot;Noto Sans&amp;quot;, sans-serif, &amp;quot;Helvetica Neue&amp;quot;, Arial, &amp;quot;Apple Color Emoji&amp;quot;, &amp;quot;Segoe UI Emoji&amp;quot;, &amp;quot;Segoe UI Symbol&amp;quot;, &amp;quot;Noto Color Emoji&amp;quot;;font-size:16px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:normal;margin:1.25em 0px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;📌 Máy Nước Nóng: Sẵn có nước nóng 24/7, đảm bảo bạn luôn cảm thấy thoải mái và thư giãn.&amp;nbsp;&lt;/p&gt;&lt;p style="--tw-backdrop-blur:;--tw-backdrop-brightness:;--tw-backdrop-contrast:;--tw-backdrop-grayscale:;--tw-backdrop-hue-rotate:;--tw-backdrop-invert:;--tw-backdrop-opacity:;--tw-backdrop-saturate:;--tw-backdrop-sepia:;--tw-blur:;--tw-border-spacing-x:0;--tw-border-spacing-y:0;--tw-brightness:;--tw-contrast:;--tw-drop-shadow:;--tw-gradient-from-position:;--tw-gradient-to-position:;--tw-gradient-via-position:;--tw-grayscale:;--tw-hue-rotate:;--tw-invert:;--tw-numeric-figure:;--tw-numeric-fraction:;--tw-numeric-spacing:;--tw-ordinal:;--tw-pan-x:;--tw-pan-y:;--tw-pinch-zoom:;--tw-ring-color:rgba(69,89,164,.5);--tw-ring-inset:;--tw-ring-offset-color:#fff;--tw-ring-offset-shadow:0 0 transparent;--tw-ring-offset-width:0px;--tw-ring-shadow:0 0 transparent;--tw-rotate:0;--tw-saturate:;--tw-scale-x:1;--tw-scale-y:1;--tw-scroll-snap-strictness:proximity;--tw-sepia:;--tw-shadow-colored:0 0 transparent;--tw-shadow:0 0 transparent;--tw-skew-x:0;--tw-skew-y:0;--tw-slashed-zero:;--tw-translate-x:0;--tw-translate-y:0;-webkit-text-stroke-width:0px;background-color:rgb(255, 255, 255);border:0px solid rgb(227, 227, 227);box-sizing:border-box;color:rgb(13, 13, 13);font-family:Söhne, ui-sans-serif, system-ui, -apple-system, &amp;quot;Segoe UI&amp;quot;, Roboto, Ubuntu, Cantarell, &amp;quot;Noto Sans&amp;quot;, sans-serif, &amp;quot;Helvetica Neue&amp;quot;, Arial, &amp;quot;Apple Color Emoji&amp;quot;, &amp;quot;Segoe UI Emoji&amp;quot;, &amp;quot;Segoe UI Symbol&amp;quot;, &amp;quot;Noto Color Emoji&amp;quot;;font-size:16px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:normal;margin:1.25em 0px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;📌 Đèn Chiếu Sáng: Hãy thư giãn dưới ánh đèn màu vàng ấm áp, tạo không gian lý tưởng cho việc đọc sách và tận hưởng khoảnh khắc riêng tư.&amp;nbsp;&lt;/p&gt;&lt;p style="--tw-backdrop-blur:;--tw-backdrop-brightness:;--tw-backdrop-contrast:;--tw-backdrop-grayscale:;--tw-backdrop-hue-rotate:;--tw-backdrop-invert:;--tw-backdrop-opacity:;--tw-backdrop-saturate:;--tw-backdrop-sepia:;--tw-blur:;--tw-border-spacing-x:0;--tw-border-spacing-y:0;--tw-brightness:;--tw-contrast:;--tw-drop-shadow:;--tw-gradient-from-position:;--tw-gradient-to-position:;--tw-gradient-via-position:;--tw-grayscale:;--tw-hue-rotate:;--tw-invert:;--tw-numeric-figure:;--tw-numeric-fraction:;--tw-numeric-spacing:;--tw-ordinal:;--tw-pan-x:;--tw-pan-y:;--tw-pinch-zoom:;--tw-ring-color:rgba(69,89,164,.5);--tw-ring-inset:;--tw-ring-offset-color:#fff;--tw-ring-offset-shadow:0 0 transparent;--tw-ring-offset-width:0px;--tw-ring-shadow:0 0 transparent;--tw-rotate:0;--tw-saturate:;--tw-scale-x:1;--tw-scale-y:1;--tw-scroll-snap-strictness:proximity;--tw-sepia:;--tw-shadow-colored:0 0 transparent;--tw-shadow:0 0 transparent;--tw-skew-x:0;--tw-skew-y:0;--tw-slashed-zero:;--tw-translate-x:0;--tw-translate-y:0;-webkit-text-stroke-width:0px;background-color:rgb(255, 255, 255);border:0px solid rgb(227, 227, 227);box-sizing:border-box;color:rgb(13, 13, 13);font-family:Söhne, ui-sans-serif, system-ui, -apple-system, &amp;quot;Segoe UI&amp;quot;, Roboto, Ubuntu, Cantarell, &amp;quot;Noto Sans&amp;quot;, sans-serif, &amp;quot;Helvetica Neue&amp;quot;, Arial, &amp;quot;Apple Color Emoji&amp;quot;, &amp;quot;Segoe UI Emoji&amp;quot;, &amp;quot;Segoe UI Symbol&amp;quot;, &amp;quot;Noto Color Emoji&amp;quot;;font-size:16px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:normal;margin:1.25em 0px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;🏡 Địa chỉ: 14/2 Gio An - P.5 - TP.Đà Lạt&amp;nbsp;&lt;/p&gt;&lt;p style="--tw-backdrop-blur:;--tw-backdrop-brightness:;--tw-backdrop-contrast:;--tw-backdrop-grayscale:;--tw-backdrop-hue-rotate:;--tw-backdrop-invert:;--tw-backdrop-opacity:;--tw-backdrop-saturate:;--tw-backdrop-sepia:;--tw-blur:;--tw-border-spacing-x:0;--tw-border-spacing-y:0;--tw-brightness:;--tw-contrast:;--tw-drop-shadow:;--tw-gradient-from-position:;--tw-gradient-to-position:;--tw-gradient-via-position:;--tw-grayscale:;--tw-hue-rotate:;--tw-invert:;--tw-numeric-figure:;--tw-numeric-fraction:;--tw-numeric-spacing:;--tw-ordinal:;--tw-pan-x:;--tw-pan-y:;--tw-pinch-zoom:;--tw-ring-color:rgba(69,89,164,.5);--tw-ring-inset:;--tw-ring-offset-color:#fff;--tw-ring-offset-shadow:0 0 transparent;--tw-ring-offset-width:0px;--tw-ring-shadow:0 0 transparent;--tw-rotate:0;--tw-saturate:;--tw-scale-x:1;--tw-scale-y:1;--tw-scroll-snap-strictness:proximity;--tw-sepia:;--tw-shadow-colored:0 0 transparent;--tw-shadow:0 0 transparent;--tw-skew-x:0;--tw-skew-y:0;--tw-slashed-zero:;--tw-translate-x:0;--tw-translate-y:0;-webkit-text-stroke-width:0px;background-color:rgb(255, 255, 255);border:0px solid rgb(227, 227, 227);box-sizing:border-box;color:rgb(13, 13, 13);font-family:Söhne, ui-sans-serif, system-ui, -apple-system, &amp;quot;Segoe UI&amp;quot;, Roboto, Ubuntu, Cantarell, &amp;quot;Noto Sans&amp;quot;, sans-serif, &amp;quot;Helvetica Neue&amp;quot;, Arial, &amp;quot;Apple Color Emoji&amp;quot;, &amp;quot;Segoe UI Emoji&amp;quot;, &amp;quot;Segoe UI Symbol&amp;quot;, &amp;quot;Noto Color Emoji&amp;quot;;font-size:16px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:normal;margin:1.25em 0px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;🛵 Chỉ cách trung tâm 5 phút đi xe máy.&lt;/p&gt;&lt;p style="--tw-backdrop-blur:;--tw-backdrop-brightness:;--tw-backdrop-contrast:;--tw-backdrop-grayscale:;--tw-backdrop-hue-rotate:;--tw-backdrop-invert:;--tw-backdrop-opacity:;--tw-backdrop-saturate:;--tw-backdrop-sepia:;--tw-blur:;--tw-border-spacing-x:0;--tw-border-spacing-y:0;--tw-brightness:;--tw-contrast:;--tw-drop-shadow:;--tw-gradient-from-position:;--tw-gradient-to-position:;--tw-gradient-via-position:;--tw-grayscale:;--tw-hue-rotate:;--tw-invert:;--tw-numeric-figure:;--tw-numeric-fraction:;--tw-numeric-spacing:;--tw-ordinal:;--tw-pan-x:;--tw-pan-y:;--tw-pinch-zoom:;--tw-ring-color:rgba(69,89,164,.5);--tw-ring-inset:;--tw-ring-offset-color:#fff;--tw-ring-offset-shadow:0 0 transparent;--tw-ring-offset-width:0px;--tw-ring-shadow:0 0 transparent;--tw-rotate:0;--tw-saturate:;--tw-scale-x:1;--tw-scale-y:1;--tw-scroll-snap-strictness:proximity;--tw-sepia:;--tw-shadow-colored:0 0 transparent;--tw-shadow:0 0 transparent;--tw-skew-x:0;--tw-skew-y:0;--tw-slashed-zero:;--tw-translate-x:0;--tw-translate-y:0;-webkit-text-stroke-width:0px;background-color:rgb(255, 255, 255);border:0px solid rgb(227, 227, 227);box-sizing:border-box;color:rgb(13, 13, 13);font-family:Söhne, ui-sans-serif, system-ui, -apple-system, &amp;quot;Segoe UI&amp;quot;, Roboto, Ubuntu, Cantarell, &amp;quot;Noto Sans&amp;quot;, sans-serif, &amp;quot;Helvetica Neue&amp;quot;, Arial, &amp;quot;Apple Color Emoji&amp;quot;, &amp;quot;Segoe UI Emoji&amp;quot;, &amp;quot;Segoe UI Symbol&amp;quot;, &amp;quot;Noto Color Emoji&amp;quot;;font-size:16px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:normal;margin:1.25em 0px 0px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Homestay Đà Lạt HS3 không chỉ là nơi dừng chân lý tưởng, mà còn là điểm đến tuyệt vời để bạn tận hưởng những khoảnh khắc thư giãn và đắm chìm trong không gian bình yên của Đà Lạt. Hãy đặt phòng ngay hôm nay để có một trải nghiệm đáng nhớ nhất! 🌲🌲🌲&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>SC23</t>
+  </si>
+  <si>
+    <t>Villa Đà Lạt SC23 - Villa mới toanh theo phong cách hiện đại, sang trọng.</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Địa chỉ: 91 Hùng Vương - Khu Du lịch Nam Hồ Phường 11 - TP. Đà Lạt</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Villa Đà Lạt SC23 - Villa mới toanh theo phong cách hiện đại, sang trọng. Nằm trong KDL Biệt thự nghĩ dưỡng Nam Hồ-Khu vực đặc biệt an ninh và yên tĩnh. Cách chợ Đà Lạt 5km với 5-7 phút di chuyển ra trung tâm.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Cơ cấu: &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-14-column-33.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;?&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Gồm 4 phòng ngủ: 3 Phòng 1 giường (1m8) và 1 phòng 2 giường (1m6) - 5wc Villa có trang bị thêm nệm dự phòng. Sức chứa 12-15 Khách. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-14-column-33.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;?&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;01 Phòng khách , 01 phòng bếp đầy đủ tiện nghi. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-14-column-33.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;?&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Sân vườn rộng rãi tiêu chuẩn thích hợp cho BBQ. Đậu xe trong khuôn viên.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>SC27</t>
+  </si>
+  <si>
+    <t>Villa Đà Lạt SC27 - Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng.</t>
+  </si>
+  <si>
+    <t>Địa chỉ :Toạ lạc tại đường Hùng Vương cách chợ khoảng 5km với 7-10 phút chạy xe</t>
+  </si>
+  <si>
     <t>VILLA BÌNH DÂN</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&amp;nbsp;&lt;span style="background-color:rgb(255,255,255);color:rgb(13,13,13);font-family:Söhne, ui-sans-serif, system-ui, -apple-system, &amp;quot;Segoe UI&amp;quot;, Roboto, Ubuntu, Cantarell, &amp;quot;Noto Sans&amp;quot;, sans-serif, &amp;quot;Helvetica Neue&amp;quot;, Arial, &amp;quot;Apple Color Emoji&amp;quot;, &amp;quot;Segoe UI Emoji&amp;quot;, &amp;quot;Segoe UI Symbol&amp;quot;, &amp;quot;Noto Color Emoji&amp;quot;;font-size:16px;"&gt;&lt;span style="-webkit-text-stroke-width:0px;display:inline !important;float:none;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:normal;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Dạo này, mọi người đang cảm thấy mệt mỏi với nhịp sống hối hả và tiêu cực? Đừng lo lắng nữa! Hãy để Homestay Đà Lạt HS3 là điểm dừng chân lý tưởng của bạn để tìm lại sự bình yên và hạnh phúc!&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p style="--tw-backdrop-blur:;--tw-backdrop-brightness:;--tw-backdrop-contrast:;--tw-backdrop-grayscale:;--tw-backdrop-hue-rotate:;--tw-backdrop-invert:;--tw-backdrop-opacity:;--tw-backdrop-saturate:;--tw-backdrop-sepia:;--tw-blur:;--tw-border-spacing-x:0;--tw-border-spacing-y:0;--tw-brightness:;--tw-contrast:;--tw-drop-shadow:;--tw-gradient-from-position:;--tw-gradient-to-position:;--tw-gradient-via-position:;--tw-grayscale:;--tw-hue-rotate:;--tw-invert:;--tw-numeric-figure:;--tw-numeric-fraction:;--tw-numeric-spacing:;--tw-ordinal:;--tw-pan-x:;--tw-pan-y:;--tw-pinch-zoom:;--tw-ring-color:rgba(69,89,164,.5);--tw-ring-inset:;--tw-ring-offset-color:#fff;--tw-ring-offset-shadow:0 0 transparent;--tw-ring-offset-width:0px;--tw-ring-shadow:0 0 transparent;--tw-rotate:0;--tw-saturate:;--tw-scale-x:1;--tw-scale-y:1;--tw-scroll-snap-strictness:proximity;--tw-sepia:;--tw-shadow-colored:0 0 transparent;--tw-shadow:0 0 transparent;--tw-skew-x:0;--tw-skew-y:0;--tw-slashed-zero:;--tw-translate-x:0;--tw-translate-y:0;-webkit-text-stroke-width:0px;background-color:rgb(255, 255, 255);border:0px solid rgb(227, 227, 227);box-sizing:border-box;color:rgb(13, 13, 13);font-family:Söhne, ui-sans-serif, system-ui, -apple-system, &amp;quot;Segoe UI&amp;quot;, Roboto, Ubuntu, Cantarell, &amp;quot;Noto Sans&amp;quot;, sans-serif, &amp;quot;Helvetica Neue&amp;quot;, Arial, &amp;quot;Apple Color Emoji&amp;quot;, &amp;quot;Segoe UI Emoji&amp;quot;, &amp;quot;Segoe UI Symbol&amp;quot;, &amp;quot;Noto Color Emoji&amp;quot;;font-size:16px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:normal;margin:1.25em 0px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;📌 Cơ cấu: 3 phòng ngủ - 3 toilet, thiết kế sang trọng và ấm cúng.&amp;nbsp;&lt;/p&gt;&lt;p style="--tw-backdrop-blur:;--tw-backdrop-brightness:;--tw-backdrop-contrast:;--tw-backdrop-grayscale:;--tw-backdrop-hue-rotate:;--tw-backdrop-invert:;--tw-backdrop-opacity:;--tw-backdrop-saturate:;--tw-backdrop-sepia:;--tw-blur:;--tw-border-spacing-x:0;--tw-border-spacing-y:0;--tw-brightness:;--tw-contrast:;--tw-drop-shadow:;--tw-gradient-from-position:;--tw-gradient-to-position:;--tw-gradient-via-position:;--tw-grayscale:;--tw-hue-rotate:;--tw-invert:;--tw-numeric-figure:;--tw-numeric-fraction:;--tw-numeric-spacing:;--tw-ordinal:;--tw-pan-x:;--tw-pan-y:;--tw-pinch-zoom:;--tw-ring-color:rgba(69,89,164,.5);--tw-ring-inset:;--tw-ring-offset-color:#fff;--tw-ring-offset-shadow:0 0 transparent;--tw-ring-offset-width:0px;--tw-ring-shadow:0 0 transparent;--tw-rotate:0;--tw-saturate:;--tw-scale-x:1;--tw-scale-y:1;--tw-scroll-snap-strictness:proximity;--tw-sepia:;--tw-shadow-colored:0 0 transparent;--tw-shadow:0 0 transparent;--tw-skew-x:0;--tw-skew-y:0;--tw-slashed-zero:;--tw-translate-x:0;--tw-translate-y:0;-webkit-text-stroke-width:0px;background-color:rgb(255, 255, 255);border:0px solid rgb(227, 227, 227);box-sizing:border-box;color:rgb(13, 13, 13);font-family:Söhne, ui-sans-serif, system-ui, -apple-system, &amp;quot;Segoe UI&amp;quot;, Roboto, Ubuntu, Cantarell, &amp;quot;Noto Sans&amp;quot;, sans-serif, &amp;quot;Helvetica Neue&amp;quot;, Arial, &amp;quot;Apple Color Emoji&amp;quot;, &amp;quot;Segoe UI Emoji&amp;quot;, &amp;quot;Segoe UI Symbol&amp;quot;, &amp;quot;Noto Color Emoji&amp;quot;;font-size:16px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:normal;margin:1.25em 0px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;👩‍🍳 Bếp Ngọt Ngào: Không gian bếp ấm áp với những dụng cụ nấu nướng đầy đủ, cho bạn tự do sáng tạo và thưởng thức những món ngon.&lt;/p&gt;&lt;p style="--tw-backdrop-blur:;--tw-backdrop-brightness:;--tw-backdrop-contrast:;--tw-backdrop-grayscale:;--tw-backdrop-hue-rotate:;--tw-backdrop-invert:;--tw-backdrop-opacity:;--tw-backdrop-saturate:;--tw-backdrop-sepia:;--tw-blur:;--tw-border-spacing-x:0;--tw-border-spacing-y:0;--tw-brightness:;--tw-contrast:;--tw-drop-shadow:;--tw-gradient-from-position:;--tw-gradient-to-position:;--tw-gradient-via-position:;--tw-grayscale:;--tw-hue-rotate:;--tw-invert:;--tw-numeric-figure:;--tw-numeric-fraction:;--tw-numeric-spacing:;--tw-ordinal:;--tw-pan-x:;--tw-pan-y:;--tw-pinch-zoom:;--tw-ring-color:rgba(69,89,164,.5);--tw-ring-inset:;--tw-ring-offset-color:#fff;--tw-ring-offset-shadow:0 0 transparent;--tw-ring-offset-width:0px;--tw-ring-shadow:0 0 transparent;--tw-rotate:0;--tw-saturate:;--tw-scale-x:1;--tw-scale-y:1;--tw-scroll-snap-strictness:proximity;--tw-sepia:;--tw-shadow-colored:0 0 transparent;--tw-shadow:0 0 transparent;--tw-skew-x:0;--tw-skew-y:0;--tw-slashed-zero:;--tw-translate-x:0;--tw-translate-y:0;-webkit-text-stroke-width:0px;background-color:rgb(255, 255, 255);border:0px solid rgb(227, 227, 227);box-sizing:border-box;color:rgb(13, 13, 13);font-family:Söhne, ui-sans-serif, system-ui, -apple-system, &amp;quot;Segoe UI&amp;quot;, Roboto, Ubuntu, Cantarell, &amp;quot;Noto Sans&amp;quot;, sans-serif, &amp;quot;Helvetica Neue&amp;quot;, Arial, &amp;quot;Apple Color Emoji&amp;quot;, &amp;quot;Segoe UI Emoji&amp;quot;, &amp;quot;Segoe UI Symbol&amp;quot;, &amp;quot;Noto Color Emoji&amp;quot;;font-size:16px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:normal;margin:1.25em 0px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;🫶🏻 Sân BBQ : Sân BBQ thoáng đãng, là nơi lý tưởng cho các buổi tiệc nướng vui vẻ và đầy ấm áp.&amp;nbsp;&lt;/p&gt;&lt;p style="--tw-backdrop-blur:;--tw-backdrop-brightness:;--tw-backdrop-contrast:;--tw-backdrop-grayscale:;--tw-backdrop-hue-rotate:;--tw-backdrop-invert:;--tw-backdrop-opacity:;--tw-backdrop-saturate:;--tw-backdrop-sepia:;--tw-blur:;--tw-border-spacing-x:0;--tw-border-spacing-y:0;--tw-brightness:;--tw-contrast:;--tw-drop-shadow:;--tw-gradient-from-position:;--tw-gradient-to-position:;--tw-gradient-via-position:;--tw-grayscale:;--tw-hue-rotate:;--tw-invert:;--tw-numeric-figure:;--tw-numeric-fraction:;--tw-numeric-spacing:;--tw-ordinal:;--tw-pan-x:;--tw-pan-y:;--tw-pinch-zoom:;--tw-ring-color:rgba(69,89,164,.5);--tw-ring-inset:;--tw-ring-offset-color:#fff;--tw-ring-offset-shadow:0 0 transparent;--tw-ring-offset-width:0px;--tw-ring-shadow:0 0 transparent;--tw-rotate:0;--tw-saturate:;--tw-scale-x:1;--tw-scale-y:1;--tw-scroll-snap-strictness:proximity;--tw-sepia:;--tw-shadow-colored:0 0 transparent;--tw-shadow:0 0 transparent;--tw-skew-x:0;--tw-skew-y:0;--tw-slashed-zero:;--tw-translate-x:0;--tw-translate-y:0;-webkit-text-stroke-width:0px;background-color:rgb(255, 255, 255);border:0px solid rgb(227, 227, 227);box-sizing:border-box;color:rgb(13, 13, 13);font-family:Söhne, ui-sans-serif, system-ui, -apple-system, &amp;quot;Segoe UI&amp;quot;, Roboto, Ubuntu, Cantarell, &amp;quot;Noto Sans&amp;quot;, sans-serif, &amp;quot;Helvetica Neue&amp;quot;, Arial, &amp;quot;Apple Color Emoji&amp;quot;, &amp;quot;Segoe UI Emoji&amp;quot;, &amp;quot;Segoe UI Symbol&amp;quot;, &amp;quot;Noto Color Emoji&amp;quot;;font-size:16px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:normal;margin:1.25em 0px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;📌 Máy Nước Nóng: Sẵn có nước nóng 24/7, đảm bảo bạn luôn cảm thấy thoải mái và thư giãn.&amp;nbsp;&lt;/p&gt;&lt;p style="--tw-backdrop-blur:;--tw-backdrop-brightness:;--tw-backdrop-contrast:;--tw-backdrop-grayscale:;--tw-backdrop-hue-rotate:;--tw-backdrop-invert:;--tw-backdrop-opacity:;--tw-backdrop-saturate:;--tw-backdrop-sepia:;--tw-blur:;--tw-border-spacing-x:0;--tw-border-spacing-y:0;--tw-brightness:;--tw-contrast:;--tw-drop-shadow:;--tw-gradient-from-position:;--tw-gradient-to-position:;--tw-gradient-via-position:;--tw-grayscale:;--tw-hue-rotate:;--tw-invert:;--tw-numeric-figure:;--tw-numeric-fraction:;--tw-numeric-spacing:;--tw-ordinal:;--tw-pan-x:;--tw-pan-y:;--tw-pinch-zoom:;--tw-ring-color:rgba(69,89,164,.5);--tw-ring-inset:;--tw-ring-offset-color:#fff;--tw-ring-offset-shadow:0 0 transparent;--tw-ring-offset-width:0px;--tw-ring-shadow:0 0 transparent;--tw-rotate:0;--tw-saturate:;--tw-scale-x:1;--tw-scale-y:1;--tw-scroll-snap-strictness:proximity;--tw-sepia:;--tw-shadow-colored:0 0 transparent;--tw-shadow:0 0 transparent;--tw-skew-x:0;--tw-skew-y:0;--tw-slashed-zero:;--tw-translate-x:0;--tw-translate-y:0;-webkit-text-stroke-width:0px;background-color:rgb(255, 255, 255);border:0px solid rgb(227, 227, 227);box-sizing:border-box;color:rgb(13, 13, 13);font-family:Söhne, ui-sans-serif, system-ui, -apple-system, &amp;quot;Segoe UI&amp;quot;, Roboto, Ubuntu, Cantarell, &amp;quot;Noto Sans&amp;quot;, sans-serif, &amp;quot;Helvetica Neue&amp;quot;, Arial, &amp;quot;Apple Color Emoji&amp;quot;, &amp;quot;Segoe UI Emoji&amp;quot;, &amp;quot;Segoe UI Symbol&amp;quot;, &amp;quot;Noto Color Emoji&amp;quot;;font-size:16px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:normal;margin:1.25em 0px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;📌 Đèn Chiếu Sáng: Hãy thư giãn dưới ánh đèn màu vàng ấm áp, tạo không gian lý tưởng cho việc đọc sách và tận hưởng khoảnh khắc riêng tư.&amp;nbsp;&lt;/p&gt;&lt;p style="--tw-backdrop-blur:;--tw-backdrop-brightness:;--tw-backdrop-contrast:;--tw-backdrop-grayscale:;--tw-backdrop-hue-rotate:;--tw-backdrop-invert:;--tw-backdrop-opacity:;--tw-backdrop-saturate:;--tw-backdrop-sepia:;--tw-blur:;--tw-border-spacing-x:0;--tw-border-spacing-y:0;--tw-brightness:;--tw-contrast:;--tw-drop-shadow:;--tw-gradient-from-position:;--tw-gradient-to-position:;--tw-gradient-via-position:;--tw-grayscale:;--tw-hue-rotate:;--tw-invert:;--tw-numeric-figure:;--tw-numeric-fraction:;--tw-numeric-spacing:;--tw-ordinal:;--tw-pan-x:;--tw-pan-y:;--tw-pinch-zoom:;--tw-ring-color:rgba(69,89,164,.5);--tw-ring-inset:;--tw-ring-offset-color:#fff;--tw-ring-offset-shadow:0 0 transparent;--tw-ring-offset-width:0px;--tw-ring-shadow:0 0 transparent;--tw-rotate:0;--tw-saturate:;--tw-scale-x:1;--tw-scale-y:1;--tw-scroll-snap-strictness:proximity;--tw-sepia:;--tw-shadow-colored:0 0 transparent;--tw-shadow:0 0 transparent;--tw-skew-x:0;--tw-skew-y:0;--tw-slashed-zero:;--tw-translate-x:0;--tw-translate-y:0;-webkit-text-stroke-width:0px;background-color:rgb(255, 255, 255);border:0px solid rgb(227, 227, 227);box-sizing:border-box;color:rgb(13, 13, 13);font-family:Söhne, ui-sans-serif, system-ui, -apple-system, &amp;quot;Segoe UI&amp;quot;, Roboto, Ubuntu, Cantarell, &amp;quot;Noto Sans&amp;quot;, sans-serif, &amp;quot;Helvetica Neue&amp;quot;, Arial, &amp;quot;Apple Color Emoji&amp;quot;, &amp;quot;Segoe UI Emoji&amp;quot;, &amp;quot;Segoe UI Symbol&amp;quot;, &amp;quot;Noto Color Emoji&amp;quot;;font-size:16px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:normal;margin:1.25em 0px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;🏡 Địa chỉ: 14/2 Gio An - P.5 - TP.Đà Lạt&amp;nbsp;&lt;/p&gt;&lt;p style="--tw-backdrop-blur:;--tw-backdrop-brightness:;--tw-backdrop-contrast:;--tw-backdrop-grayscale:;--tw-backdrop-hue-rotate:;--tw-backdrop-invert:;--tw-backdrop-opacity:;--tw-backdrop-saturate:;--tw-backdrop-sepia:;--tw-blur:;--tw-border-spacing-x:0;--tw-border-spacing-y:0;--tw-brightness:;--tw-contrast:;--tw-drop-shadow:;--tw-gradient-from-position:;--tw-gradient-to-position:;--tw-gradient-via-position:;--tw-grayscale:;--tw-hue-rotate:;--tw-invert:;--tw-numeric-figure:;--tw-numeric-fraction:;--tw-numeric-spacing:;--tw-ordinal:;--tw-pan-x:;--tw-pan-y:;--tw-pinch-zoom:;--tw-ring-color:rgba(69,89,164,.5);--tw-ring-inset:;--tw-ring-offset-color:#fff;--tw-ring-offset-shadow:0 0 transparent;--tw-ring-offset-width:0px;--tw-ring-shadow:0 0 transparent;--tw-rotate:0;--tw-saturate:;--tw-scale-x:1;--tw-scale-y:1;--tw-scroll-snap-strictness:proximity;--tw-sepia:;--tw-shadow-colored:0 0 transparent;--tw-shadow:0 0 transparent;--tw-skew-x:0;--tw-skew-y:0;--tw-slashed-zero:;--tw-translate-x:0;--tw-translate-y:0;-webkit-text-stroke-width:0px;background-color:rgb(255, 255, 255);border:0px solid rgb(227, 227, 227);box-sizing:border-box;color:rgb(13, 13, 13);font-family:Söhne, ui-sans-serif, system-ui, -apple-system, &amp;quot;Segoe UI&amp;quot;, Roboto, Ubuntu, Cantarell, &amp;quot;Noto Sans&amp;quot;, sans-serif, &amp;quot;Helvetica Neue&amp;quot;, Arial, &amp;quot;Apple Color Emoji&amp;quot;, &amp;quot;Segoe UI Emoji&amp;quot;, &amp;quot;Segoe UI Symbol&amp;quot;, &amp;quot;Noto Color Emoji&amp;quot;;font-size:16px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:normal;margin:1.25em 0px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;🛵 Chỉ cách trung tâm 5 phút đi xe máy.&lt;/p&gt;&lt;p style="--tw-backdrop-blur:;--tw-backdrop-brightness:;--tw-backdrop-contrast:;--tw-backdrop-grayscale:;--tw-backdrop-hue-rotate:;--tw-backdrop-invert:;--tw-backdrop-opacity:;--tw-backdrop-saturate:;--tw-backdrop-sepia:;--tw-blur:;--tw-border-spacing-x:0;--tw-border-spacing-y:0;--tw-brightness:;--tw-contrast:;--tw-drop-shadow:;--tw-gradient-from-position:;--tw-gradient-to-position:;--tw-gradient-via-position:;--tw-grayscale:;--tw-hue-rotate:;--tw-invert:;--tw-numeric-figure:;--tw-numeric-fraction:;--tw-numeric-spacing:;--tw-ordinal:;--tw-pan-x:;--tw-pan-y:;--tw-pinch-zoom:;--tw-ring-color:rgba(69,89,164,.5);--tw-ring-inset:;--tw-ring-offset-color:#fff;--tw-ring-offset-shadow:0 0 transparent;--tw-ring-offset-width:0px;--tw-ring-shadow:0 0 transparent;--tw-rotate:0;--tw-saturate:;--tw-scale-x:1;--tw-scale-y:1;--tw-scroll-snap-strictness:proximity;--tw-sepia:;--tw-shadow-colored:0 0 transparent;--tw-shadow:0 0 transparent;--tw-skew-x:0;--tw-skew-y:0;--tw-slashed-zero:;--tw-translate-x:0;--tw-translate-y:0;-webkit-text-stroke-width:0px;background-color:rgb(255, 255, 255);border:0px solid rgb(227, 227, 227);box-sizing:border-box;color:rgb(13, 13, 13);font-family:Söhne, ui-sans-serif, system-ui, -apple-system, &amp;quot;Segoe UI&amp;quot;, Roboto, Ubuntu, Cantarell, &amp;quot;Noto Sans&amp;quot;, sans-serif, &amp;quot;Helvetica Neue&amp;quot;, Arial, &amp;quot;Apple Color Emoji&amp;quot;, &amp;quot;Segoe UI Emoji&amp;quot;, &amp;quot;Segoe UI Symbol&amp;quot;, &amp;quot;Noto Color Emoji&amp;quot;;font-size:16px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:normal;margin:1.25em 0px 0px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Homestay Đà Lạt HS3 không chỉ là nơi dừng chân lý tưởng, mà còn là điểm đến tuyệt vời để bạn tận hưởng những khoảnh khắc thư giãn và đắm chìm trong không gian bình yên của Đà Lạt. Hãy đặt phòng ngay hôm nay để có một trải nghiệm đáng nhớ nhất! 🌲🌲🌲&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>SC23</t>
-  </si>
-  <si>
-    <t>Villa Đà Lạt SC23 - Villa mới toanh theo phong cách hiện đại, sang trọng.</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Địa chỉ: 91 Hùng Vương - Khu Du lịch Nam Hồ Phường 11 - TP. Đà Lạt</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Villa Đà Lạt SC23 - Villa mới toanh theo phong cách hiện đại, sang trọng. Nằm trong KDL Biệt thự nghĩ dưỡng Nam Hồ-Khu vực đặc biệt an ninh và yên tĩnh. Cách chợ Đà Lạt 5km với 5-7 phút di chuyển ra trung tâm.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Cơ cấu: &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-14-column-33.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;?&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Gồm 4 phòng ngủ: 3 Phòng 1 giường (1m8) và 1 phòng 2 giường (1m6) - 5wc Villa có trang bị thêm nệm dự phòng. Sức chứa 12-15 Khách. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-14-column-33.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;?&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;01 Phòng khách , 01 phòng bếp đầy đủ tiện nghi. &lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:transparent;font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="emoji-sizer emoji-outer " style="-webkit-text-stroke-width:0px;-webkit-user-drag:element;background-image:url(&amp;quot;emoji/emoji-40/row-14-column-33.png&amp;quot;);background-repeat:no-repeat;background-size:contain;display:inline-block;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;height:22px;letter-spacing:50px;margin:0px 0px -3px;orphans:2;overflow:hidden;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-shadow:none;text-transform:none;white-space:normal;widows:2;width:22px;word-spacing:0px;"&gt;?&lt;/span&gt;&lt;/span&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255,255,255);color:rgb(8,28,54);font-family:SegoeuiPc, &amp;quot;Segoe UI&amp;quot;, &amp;quot;San Francisco&amp;quot;, &amp;quot;Helvetica Neue&amp;quot;, Helvetica, &amp;quot;Lucida Grande&amp;quot;, Roboto, Ubuntu, Tahoma, &amp;quot;Microsoft Sans Serif&amp;quot;, Arial, sans-serif;font-size:15px;"&gt;&lt;span class="text" style="-webkit-text-stroke-width:0px;font-style:normal;font-variant-caps:normal;font-variant-ligatures:normal;font-weight:400;letter-spacing:0.2px;orphans:2;text-align:start;text-decoration-color:initial;text-decoration-style:initial;text-decoration-thickness:initial;text-indent:0px;text-transform:none;user-select:text;white-space:pre-wrap;widows:2;word-spacing:0px;"&gt;Sân vườn rộng rãi tiêu chuẩn thích hợp cho BBQ. Đậu xe trong khuôn viên.&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>SC27</t>
-  </si>
-  <si>
-    <t>Villa Đà Lạt SC27 - Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng.</t>
-  </si>
-  <si>
-    <t>Địa chỉ :Toạ lạc tại đường Hùng Vương cách chợ khoảng 5km với 7-10 phút chạy xe</t>
   </si>
   <si>
     <t>&lt;p&gt;Villa Đà Lạt SC27 - Chạm vào hương sắc tình khúc Đà Lạt, tôi ngất ngây.&lt;br&gt;Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng&lt;br&gt;Cơ cấu:&lt;br&gt;Có 3 phòng ngủ (2P đơn và 1P đôi).4wc.&lt;br&gt;Giao chìa khoá nguyên căn.&lt;/p&gt;&lt;p&gt;❇ Không gian yên tĩnh trong lành, đặc trưng khí hậu Đà Lạt rất thích hợp nghĩ dưỡng. &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp;&amp;nbsp;&lt;br&gt;❇️ Sân vườn rộng, với những góc so chill cho những bữa tiệc BBQ quây quần bên gia đình.&lt;/p&gt;&lt;p&gt;❇Toạ lạc tại đường Hùng Vương cách chợ khoảng 5km với 7-10 phút chạy xe&lt;/p&gt;&lt;p&gt;? Chắc chắn là nơi nghỉ dưỡng du lịch lý tưởng cho du khách khi đến với thành phố hoa Đà Lạt&lt;/p&gt;</t>
@@ -248,14 +260,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="4.19140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="5.94921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="7.359375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="99.54296875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="9.328125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="6.109375" customWidth="true" bestFit="true"/>
@@ -264,7 +276,7 @@
     <col min="8" max="8" width="9.328125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.78125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="5.45703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="15.546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="17.66796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -351,34 +363,34 @@
         <v>19</v>
       </c>
       <c r="C3" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="E3" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="E3" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s" s="0">
+      <c r="G3" t="n" s="0">
+        <v>10000.0</v>
+      </c>
+      <c r="H3" t="n" s="0">
+        <v>45359.0</v>
+      </c>
+      <c r="I3" t="n" s="0">
+        <v>45359.0</v>
+      </c>
+      <c r="J3" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="K3" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="L3" t="s" s="0">
         <v>22</v>
-      </c>
-      <c r="G3" t="n" s="0">
-        <v>1000000.0</v>
-      </c>
-      <c r="H3" t="n" s="0">
-        <v>45343.0</v>
-      </c>
-      <c r="I3" t="n" s="0">
-        <v>45343.0</v>
-      </c>
-      <c r="J3" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="K3" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="L3" t="s" s="0">
-        <v>24</v>
       </c>
     </row>
     <row r="4">
@@ -386,37 +398,37 @@
         <v>4.0</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="G4" t="n" s="0">
+        <v>1000000.0</v>
+      </c>
+      <c r="H4" t="n" s="0">
+        <v>45343.0</v>
+      </c>
+      <c r="I4" t="n" s="0">
+        <v>45343.0</v>
+      </c>
+      <c r="J4" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="K4" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="L4" t="s" s="0">
         <v>27</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="G4" t="n" s="0">
-        <v>1800000.0</v>
-      </c>
-      <c r="H4" t="n" s="0">
-        <v>45353.0</v>
-      </c>
-      <c r="I4" t="n" s="0">
-        <v>45353.0</v>
-      </c>
-      <c r="J4" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="K4" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="L4" t="s" s="0">
-        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -424,37 +436,37 @@
         <v>5.0</v>
       </c>
       <c r="B5" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="G5" t="n" s="0">
+        <v>1800000.0</v>
+      </c>
+      <c r="H5" t="n" s="0">
+        <v>45358.0</v>
+      </c>
+      <c r="I5" t="n" s="0">
+        <v>45358.0</v>
+      </c>
+      <c r="J5" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="K5" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="L5" t="s" s="0">
         <v>33</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="F5" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="G5" t="n" s="0">
-        <v>1000000.0</v>
-      </c>
-      <c r="H5" t="n" s="0">
-        <v>45345.0</v>
-      </c>
-      <c r="I5" t="n" s="0">
-        <v>45345.0</v>
-      </c>
-      <c r="J5" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="K5" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="L5" t="s" s="0">
-        <v>36</v>
       </c>
     </row>
     <row r="6">
@@ -462,19 +474,19 @@
         <v>6.0</v>
       </c>
       <c r="B6" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="F6" t="s" s="0">
         <v>38</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>39</v>
       </c>
       <c r="G6" t="n" s="0">
         <v>1000000.0</v>
@@ -489,10 +501,10 @@
         <v>1.0</v>
       </c>
       <c r="K6" t="s" s="0">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="L6" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7">
@@ -500,19 +512,19 @@
         <v>7.0</v>
       </c>
       <c r="B7" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="C7" t="s" s="0">
+      <c r="D7" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s" s="0">
         <v>42</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="F7" t="s" s="0">
-        <v>43</v>
       </c>
       <c r="G7" t="n" s="0">
         <v>1000000.0</v>
@@ -527,7 +539,7 @@
         <v>1.0</v>
       </c>
       <c r="K7" t="s" s="0">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="L7" t="s" s="0">
         <v>44</v>
@@ -544,10 +556,10 @@
         <v>46</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s" s="0">
         <v>47</v>
@@ -556,16 +568,16 @@
         <v>1000000.0</v>
       </c>
       <c r="H8" t="n" s="0">
-        <v>45343.0</v>
+        <v>45345.0</v>
       </c>
       <c r="I8" t="n" s="0">
-        <v>45343.0</v>
+        <v>45345.0</v>
       </c>
       <c r="J8" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="K8" t="s" s="0">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="L8" t="s" s="0">
         <v>48</v>
@@ -582,31 +594,31 @@
         <v>50</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G9" t="n" s="0">
         <v>1000000.0</v>
       </c>
       <c r="H9" t="n" s="0">
-        <v>45345.0</v>
+        <v>45343.0</v>
       </c>
       <c r="I9" t="n" s="0">
-        <v>45345.0</v>
+        <v>45343.0</v>
       </c>
       <c r="J9" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="K9" t="s" s="0">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="L9" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10">
@@ -614,34 +626,34 @@
         <v>10.0</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G10" t="n" s="0">
         <v>1000000.0</v>
       </c>
       <c r="H10" t="n" s="0">
-        <v>45343.0</v>
+        <v>45345.0</v>
       </c>
       <c r="I10" t="n" s="0">
-        <v>45343.0</v>
+        <v>45345.0</v>
       </c>
       <c r="J10" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="K10" t="s" s="0">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="L10" t="s" s="0">
         <v>55</v>
@@ -658,10 +670,10 @@
         <v>57</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s" s="0">
         <v>58</v>
@@ -670,19 +682,57 @@
         <v>1000000.0</v>
       </c>
       <c r="H11" t="n" s="0">
-        <v>45343.0</v>
+        <v>45358.0</v>
       </c>
       <c r="I11" t="n" s="0">
-        <v>45343.0</v>
+        <v>45358.0</v>
       </c>
       <c r="J11" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="K11" t="s" s="0">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L11" t="s" s="0">
         <v>59</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>1000000.0</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>45343.0</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>45343.0</v>
+      </c>
+      <c r="J12" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="K12" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="L12" t="s" s="0">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/document/houses.xlsx
+++ b/src/main/webapp/document/houses.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>STT</t>
   </si>
@@ -48,6 +48,27 @@
   </si>
   <si>
     <t>Mô tả</t>
+  </si>
+  <si>
+    <t>us2345</t>
+  </si>
+  <si>
+    <t>eargawergerager</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>segaergagasgasdfgasg</t>
+  </si>
+  <si>
+    <t>VILLA LUXURY</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;ẻ6u4568458546856486548&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -103,23 +124,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="4.19140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="2.9453125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="4.94921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="7.515625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.32421875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="9.328125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="6.109375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="8.203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.47265625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="20.74609375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="8.84375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="9.328125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.78125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="5.45703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="4.6796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="13.6171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -160,6 +181,44 @@
         <v>11</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <v>3453240.0</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <v>45371.0</v>
+      </c>
+      <c r="I2" t="n" s="0">
+        <v>45371.0</v>
+      </c>
+      <c r="J2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="K2" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/main/webapp/document/houses.xlsx
+++ b/src/main/webapp/document/houses.xlsx
@@ -1183,7 +1183,7 @@
     <col min="4" max="4" width="9.328125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="6.109375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="99.73046875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.47265625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="8.84375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="9.328125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.78125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="5.45703125" customWidth="true" bestFit="true"/>
@@ -1476,13 +1476,13 @@
         <v>48</v>
       </c>
       <c r="G8" t="n" s="0">
-        <v>0.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="H8" t="n" s="0">
-        <v>45411.0</v>
+        <v>45433.0</v>
       </c>
       <c r="I8" t="n" s="0">
-        <v>45411.0</v>
+        <v>45433.0</v>
       </c>
       <c r="J8" t="n" s="0">
         <v>1.0</v>
